--- a/static/Itinerarios.xlsx
+++ b/static/Itinerarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5608905D-3D98-4C53-A283-F0EA39462BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121D0E8-812B-4D88-BE48-F6042217FE02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3538,7 +3538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4608,6 +4608,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4620,20 +4634,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4946,11 +4946,11 @@
   </sheetPr>
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A884" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B888" sqref="B888:B891"/>
+    <sheetView tabSelected="1" topLeftCell="C699" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J706" sqref="J706"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" style="2" customWidth="1"/>
@@ -4962,7 +4962,7 @@
     <col min="8" max="8" width="50.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57">
+    <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>15</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="4" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="5" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="8" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="9" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="10" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>37</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>37</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>37</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="15" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="18" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>26</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="19" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>52</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="20" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>52</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>52</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="22" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>52</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>59</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="25" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>59</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>59</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="27" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>66</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="28" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>66</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="29" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
         <v>71</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="30" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="31" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>76</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="32" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>82</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>82</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>82</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>82</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="37" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>88</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="38" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>88</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="39" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>88</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="40" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>88</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="41" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>15</v>
       </c>
@@ -6028,7 +6028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="42" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>15</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="43" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>76</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="44" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>26</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="45" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>101</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>101</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="47" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>101</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="48" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>101</v>
       </c>
@@ -6210,7 +6210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="49" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>76</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="50" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>76</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="51" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>26</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="52" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>115</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="53" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>115</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="54" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>115</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" ht="81">
+    <row r="55" spans="1:8" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>115</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="56" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>66</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="57" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>71</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="58" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>125</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="59" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>129</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="60" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>129</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="61" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>129</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="62" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>125</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" ht="32.25">
+    <row r="63" spans="1:8" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>71</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="64" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>8</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="65" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>125</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="48.75">
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>125</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" ht="64.5">
+    <row r="67" spans="1:8" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>143</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="48.75">
+    <row r="68" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>66</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="32.25">
+    <row r="69" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="48.75">
+    <row r="70" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>15</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="48.75">
+    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>8</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="48.75">
+    <row r="72" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>8</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="48.75">
+    <row r="73" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>8</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="48.75">
+    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
         <v>66</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="48.75">
+    <row r="75" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
         <v>66</v>
       </c>
@@ -6912,8 +6912,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A76" s="238" t="s">
+    <row r="76" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="234" t="s">
         <v>15</v>
       </c>
       <c r="B76" s="236" t="s">
@@ -6938,8 +6938,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A77" s="239"/>
+    <row r="77" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="235"/>
       <c r="B77" s="237"/>
       <c r="C77" s="237"/>
       <c r="D77" s="37" t="s">
@@ -6958,7 +6958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="48.75">
+    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>125</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="48.75">
+    <row r="79" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>15</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="48.75">
+    <row r="80" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>66</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="32.25">
+    <row r="81" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>76</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="32.25">
+    <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>76</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="32.25">
+    <row r="83" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>76</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="32.25">
+    <row r="84" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>76</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="48.75">
+    <row r="85" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>125</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="32.25">
+    <row r="86" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>71</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="48.75">
+    <row r="87" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>8</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="48.75">
+    <row r="88" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>129</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="48.75">
+    <row r="89" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A89" s="40" t="s">
         <v>129</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="48.75">
+    <row r="90" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A90" s="40" t="s">
         <v>129</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="48.75">
+    <row r="91" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
         <v>125</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="32.25">
+    <row r="92" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>71</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="48.75">
+    <row r="93" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>8</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="48.75">
+    <row r="94" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>125</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="48.75">
+    <row r="95" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A95" s="23" t="s">
         <v>174</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="48.75">
+    <row r="96" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>179</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="48.75">
+    <row r="97" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
         <v>179</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="48.75">
+    <row r="98" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
         <v>179</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="48.75">
+    <row r="99" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>179</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="48.75">
+    <row r="100" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
         <v>179</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="32.25">
+    <row r="101" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
         <v>191</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="32.25">
+    <row r="102" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>191</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="48.75">
+    <row r="103" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>191</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="48.75">
+    <row r="104" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>191</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="48.75">
+    <row r="105" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>201</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="48.75">
+    <row r="106" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>201</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="48.75">
+    <row r="107" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A107" s="19" t="s">
         <v>201</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="48.75">
+    <row r="108" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>201</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="32.25" customHeight="1">
+    <row r="109" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>211</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="48.75">
+    <row r="110" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>211</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="48.75">
+    <row r="111" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>211</v>
       </c>
@@ -7842,7 +7842,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="48.75">
+    <row r="112" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>211</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="48.75">
+    <row r="113" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>211</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="48.75" customHeight="1">
+    <row r="114" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="23" t="s">
         <v>223</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="96.75">
+    <row r="115" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A115" s="27" t="s">
         <v>223</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="96.75">
+    <row r="116" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A116" s="27" t="s">
         <v>223</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="96.75">
+    <row r="117" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A117" s="27" t="s">
         <v>223</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="96.75">
+    <row r="118" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A118" s="27" t="s">
         <v>223</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="96.75">
+    <row r="119" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A119" s="27" t="s">
         <v>223</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="48.75" customHeight="1">
+    <row r="120" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="27" t="s">
         <v>233</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="64.5">
+    <row r="121" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A121" s="27" t="s">
         <v>233</v>
       </c>
@@ -8102,7 +8102,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="64.5">
+    <row r="122" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A122" s="27" t="s">
         <v>233</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="64.5">
+    <row r="123" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>233</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="48.75" customHeight="1">
+    <row r="124" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>240</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="81">
+    <row r="125" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>240</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="81">
+    <row r="126" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A126" s="27" t="s">
         <v>240</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="81">
+    <row r="127" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A127" s="27" t="s">
         <v>240</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="48.75" customHeight="1">
+    <row r="128" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="27" t="s">
         <v>247</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="81">
+    <row r="129" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>247</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="81">
+    <row r="130" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>247</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="81">
+    <row r="131" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A131" s="27" t="s">
         <v>247</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="32.25" customHeight="1">
+    <row r="132" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="27" t="s">
         <v>254</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="64.5">
+    <row r="133" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>254</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="64.5">
+    <row r="134" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>254</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="64.5">
+    <row r="135" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A135" s="27" t="s">
         <v>254</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="48.75" customHeight="1">
+    <row r="136" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="27" t="s">
         <v>261</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="81">
+    <row r="137" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>261</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="81">
+    <row r="138" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>261</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="81">
+    <row r="139" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A139" s="27" t="s">
         <v>261</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="32.25" customHeight="1">
+    <row r="140" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="27" t="s">
         <v>268</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="64.5">
+    <row r="141" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>268</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="64.5">
+    <row r="142" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A142" s="27" t="s">
         <v>268</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="64.5">
+    <row r="143" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A143" s="27" t="s">
         <v>268</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="48.75" customHeight="1">
+    <row r="144" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="27" t="s">
         <v>275</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="81">
+    <row r="145" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A145" s="27" t="s">
         <v>275</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="81">
+    <row r="146" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A146" s="27" t="s">
         <v>275</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="81">
+    <row r="147" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A147" s="27" t="s">
         <v>275</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="48.75" customHeight="1">
+    <row r="148" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>282</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="64.5">
+    <row r="149" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A149" s="27" t="s">
         <v>282</v>
       </c>
@@ -8830,7 +8830,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="64.5">
+    <row r="150" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="27" t="s">
         <v>282</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="64.5">
+    <row r="151" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A151" s="27" t="s">
         <v>282</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="48.75">
+    <row r="152" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A152" s="27" t="s">
         <v>289</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="48.75">
+    <row r="153" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A153" s="27" t="s">
         <v>289</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="48.75">
+    <row r="154" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A154" s="27" t="s">
         <v>289</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="48.75">
+    <row r="155" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>289</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="45.75">
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="47" t="s">
         <v>66</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="32.25">
+    <row r="157" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A157" s="47" t="s">
         <v>301</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="32.25">
+    <row r="158" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" s="47" t="s">
         <v>8</v>
       </c>
@@ -9064,7 +9064,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="48.75">
+    <row r="159" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A159" s="47" t="s">
         <v>22</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="81">
+    <row r="160" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>26</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="81">
+    <row r="161" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A161" s="47" t="s">
         <v>26</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="60.75">
+    <row r="162" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="47" t="s">
         <v>59</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="60.75">
+    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" s="47" t="s">
         <v>59</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="60.75">
+    <row r="164" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" s="47" t="s">
         <v>59</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="60.75">
+    <row r="165" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="47" t="s">
         <v>59</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="64.5">
+    <row r="166" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>82</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="64.5">
+    <row r="167" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>82</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="64.5">
+    <row r="168" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>82</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="64.5">
+    <row r="169" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>82</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="48.75">
+    <row r="170" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A170" s="19" t="s">
         <v>317</v>
       </c>
@@ -9376,7 +9376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="48.75">
+    <row r="171" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A171" s="40" t="s">
         <v>317</v>
       </c>
@@ -9402,7 +9402,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="48.75">
+    <row r="172" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="40" t="s">
         <v>317</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="48.75">
+    <row r="173" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
         <v>317</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="30.75">
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="50" t="s">
         <v>301</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="45.75">
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="47" t="s">
         <v>66</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="32.25">
+    <row r="176" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="52" t="s">
         <v>8</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="81">
+    <row r="177" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A177" s="50" t="s">
         <v>26</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="81">
+    <row r="178" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A178" s="47" t="s">
         <v>26</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="64.5">
+    <row r="179" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>30</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="64.5">
+    <row r="180" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>30</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="64.5">
+    <row r="181" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>30</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="64.5">
+    <row r="182" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>30</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="64.5">
+    <row r="183" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>334</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="64.5">
+    <row r="184" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>334</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="64.5">
+    <row r="185" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>334</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="64.5">
+    <row r="186" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>334</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="32.25">
+    <row r="187" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>8</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="32.25">
+    <row r="188" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A188" s="47" t="s">
         <v>8</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="81">
+    <row r="189" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>26</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="81">
+    <row r="190" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>26</v>
       </c>
@@ -9896,7 +9896,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="64.5">
+    <row r="191" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>345</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="64.5">
+    <row r="192" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>345</v>
       </c>
@@ -9948,7 +9948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="64.5">
+    <row r="193" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>345</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="64.5">
+    <row r="194" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>345</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="32.25">
+    <row r="195" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>351</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="32.25">
+    <row r="196" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>351</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="32.25">
+    <row r="197" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>351</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="32.25">
+    <row r="198" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>351</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="64.5">
+    <row r="199" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>355</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="64.5">
+    <row r="200" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>355</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="64.5">
+    <row r="201" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>355</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="64.5">
+    <row r="202" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>355</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="48.75">
+    <row r="203" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>22</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="32.25" customHeight="1">
+    <row r="204" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="54" t="s">
         <v>359</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="48.75">
+    <row r="205" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A205" s="56" t="s">
         <v>359</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="48.75">
+    <row r="206" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A206" s="56" t="s">
         <v>359</v>
       </c>
@@ -10312,7 +10312,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="48.75">
+    <row r="207" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A207" s="56" t="s">
         <v>359</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="48.75">
+    <row r="208" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A208" s="56" t="s">
         <v>359</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="32.25" customHeight="1">
+    <row r="209" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="40" t="s">
         <v>371</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="48.75">
+    <row r="210" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A210" s="40" t="s">
         <v>371</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="48.75">
+    <row r="211" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A211" s="40" t="s">
         <v>371</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="48.75">
+    <row r="212" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A212" s="40" t="s">
         <v>371</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="48.75">
+    <row r="213" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A213" s="40" t="s">
         <v>371</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="48.75">
+    <row r="214" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A214" s="40" t="s">
         <v>371</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="32.25" customHeight="1">
+    <row r="215" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>385</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="48.75">
+    <row r="216" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A216" s="19" t="s">
         <v>385</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="48.75">
+    <row r="217" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A217" s="19" t="s">
         <v>385</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="32.25" customHeight="1">
+    <row r="218" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="19" t="s">
         <v>393</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="48.75">
+    <row r="219" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A219" s="19" t="s">
         <v>393</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="48.75">
+    <row r="220" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A220" s="19" t="s">
         <v>393</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="48.75">
+    <row r="221" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>393</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="48.75">
+    <row r="222" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A222" s="19" t="s">
         <v>393</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="48.75">
+    <row r="223" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A223" s="19" t="s">
         <v>393</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="48.75" customHeight="1">
+    <row r="224" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="19" t="s">
         <v>404</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="96.75">
+    <row r="225" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A225" s="19" t="s">
         <v>404</v>
       </c>
@@ -10806,7 +10806,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="96.75">
+    <row r="226" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A226" s="19" t="s">
         <v>404</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="96.75">
+    <row r="227" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A227" s="19" t="s">
         <v>404</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="96.75">
+    <row r="228" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A228" s="19" t="s">
         <v>404</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="96.75">
+    <row r="229" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A229" s="19" t="s">
         <v>404</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16.5" customHeight="1">
+    <row r="230" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="19" t="s">
         <v>412</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="64.5">
+    <row r="231" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A231" s="19" t="s">
         <v>412</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="64.5">
+    <row r="232" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A232" s="19" t="s">
         <v>412</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="64.5">
+    <row r="233" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A233" s="19" t="s">
         <v>412</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="32.25" customHeight="1">
+    <row r="234" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="40" t="s">
         <v>417</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="64.5">
+    <row r="235" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A235" s="40" t="s">
         <v>417</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="64.5">
+    <row r="236" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A236" s="40" t="s">
         <v>417</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="64.5">
+    <row r="237" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A237" s="40" t="s">
         <v>417</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="32.25" customHeight="1">
+    <row r="238" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="19" t="s">
         <v>422</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="81">
+    <row r="239" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A239" s="19" t="s">
         <v>422</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="81">
+    <row r="240" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A240" s="19" t="s">
         <v>422</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="81">
+    <row r="241" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A241" s="19" t="s">
         <v>422</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="32.25" customHeight="1">
+    <row r="242" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="19" t="s">
         <v>275</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="81">
+    <row r="243" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A243" s="19" t="s">
         <v>275</v>
       </c>
@@ -11274,7 +11274,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="81">
+    <row r="244" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A244" s="19" t="s">
         <v>275</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="81">
+    <row r="245" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A245" s="19" t="s">
         <v>275</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="32.25" customHeight="1">
+    <row r="246" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="19" t="s">
         <v>433</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="64.5">
+    <row r="247" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A247" s="19" t="s">
         <v>433</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="64.5">
+    <row r="248" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
         <v>433</v>
       </c>
@@ -11404,7 +11404,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="64.5">
+    <row r="249" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
         <v>433</v>
       </c>
@@ -11430,7 +11430,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="32.25" customHeight="1">
+    <row r="250" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
         <v>439</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="64.5">
+    <row r="251" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
         <v>439</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="64.5">
+    <row r="252" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
         <v>439</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="64.5">
+    <row r="253" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
         <v>439</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="48.75">
+    <row r="254" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A254" s="19" t="s">
         <v>445</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="48.75">
+    <row r="255" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A255" s="19" t="s">
         <v>445</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="48.75">
+    <row r="256" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A256" s="19" t="s">
         <v>445</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="48.75">
+    <row r="257" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A257" s="19" t="s">
         <v>445</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="32.25" customHeight="1">
+    <row r="258" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="19" t="s">
         <v>240</v>
       </c>
@@ -11664,7 +11664,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="81">
+    <row r="259" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A259" s="19" t="s">
         <v>240</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="81">
+    <row r="260" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A260" s="19" t="s">
         <v>240</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="81">
+    <row r="261" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A261" s="19" t="s">
         <v>240</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="32.25" customHeight="1">
+    <row r="262" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="19" t="s">
         <v>457</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="64.5">
+    <row r="263" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A263" s="19" t="s">
         <v>457</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="64.5">
+    <row r="264" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A264" s="19" t="s">
         <v>457</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="64.5">
+    <row r="265" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A265" s="19" t="s">
         <v>457</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="48.75" customHeight="1">
+    <row r="266" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="19" t="s">
         <v>462</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="81">
+    <row r="267" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A267" s="19" t="s">
         <v>462</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="81">
+    <row r="268" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A268" s="19" t="s">
         <v>462</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="81">
+    <row r="269" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A269" s="19" t="s">
         <v>462</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="45.75">
+    <row r="270" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="42" t="s">
         <v>22</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="48.75">
+    <row r="271" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A271" s="19" t="s">
         <v>470</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="48.75">
+    <row r="272" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A272" s="40" t="s">
         <v>470</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="48.75">
+    <row r="273" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A273" s="40" t="s">
         <v>470</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="48.75">
+    <row r="274" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A274" s="40" t="s">
         <v>470</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="48.75">
+    <row r="275" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A275" s="40" t="s">
         <v>470</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="32.25" customHeight="1">
+    <row r="276" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="19" t="s">
         <v>478</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="64.5">
+    <row r="277" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A277" s="19" t="s">
         <v>478</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="64.5">
+    <row r="278" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A278" s="19" t="s">
         <v>478</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="64.5">
+    <row r="279" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A279" s="19" t="s">
         <v>478</v>
       </c>
@@ -12210,7 +12210,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="64.5">
+    <row r="280" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A280" s="19" t="s">
         <v>478</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="64.5">
+    <row r="281" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A281" s="19" t="s">
         <v>478</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="32.25" customHeight="1">
+    <row r="282" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="19" t="s">
         <v>491</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="48.75">
+    <row r="283" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A283" s="19" t="s">
         <v>491</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="48.75">
+    <row r="284" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A284" s="19" t="s">
         <v>491</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="48.75">
+    <row r="285" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A285" s="19" t="s">
         <v>491</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="48.75">
+    <row r="286" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A286" s="19" t="s">
         <v>491</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="32.25" customHeight="1">
+    <row r="287" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="19" t="s">
         <v>502</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="48.75">
+    <row r="288" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A288" s="19" t="s">
         <v>502</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="48.75">
+    <row r="289" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A289" s="19" t="s">
         <v>502</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="48.75">
+    <row r="290" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A290" s="19" t="s">
         <v>502</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="48.75">
+    <row r="291" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A291" s="19" t="s">
         <v>502</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="48.75">
+    <row r="292" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A292" s="19" t="s">
         <v>502</v>
       </c>
@@ -12548,7 +12548,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="48.75" customHeight="1">
+    <row r="293" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="19" t="s">
         <v>404</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="96.75">
+    <row r="294" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A294" s="19" t="s">
         <v>404</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="96.75">
+    <row r="295" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A295" s="19" t="s">
         <v>404</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="96.75">
+    <row r="296" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A296" s="19" t="s">
         <v>404</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="96.75">
+    <row r="297" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A297" s="19" t="s">
         <v>404</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="96.75">
+    <row r="298" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A298" s="19" t="s">
         <v>404</v>
       </c>
@@ -12704,7 +12704,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="16.5" customHeight="1">
+    <row r="299" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="19" t="s">
         <v>412</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="64.5">
+    <row r="300" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A300" s="19" t="s">
         <v>412</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="64.5">
+    <row r="301" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A301" s="19" t="s">
         <v>412</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="64.5">
+    <row r="302" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A302" s="19" t="s">
         <v>412</v>
       </c>
@@ -12808,7 +12808,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="32.25" customHeight="1">
+    <row r="303" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="23" t="s">
         <v>417</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="64.5">
+    <row r="304" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A304" s="27" t="s">
         <v>417</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="64.5">
+    <row r="305" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A305" s="27" t="s">
         <v>417</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="64.5">
+    <row r="306" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A306" s="27" t="s">
         <v>417</v>
       </c>
@@ -12912,7 +12912,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="32.25" customHeight="1">
+    <row r="307" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="19" t="s">
         <v>422</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="81">
+    <row r="308" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A308" s="19" t="s">
         <v>422</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="81">
+    <row r="309" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A309" s="19" t="s">
         <v>422</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="81">
+    <row r="310" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A310" s="19" t="s">
         <v>422</v>
       </c>
@@ -13016,7 +13016,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="32.25" customHeight="1">
+    <row r="311" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="19" t="s">
         <v>275</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="81">
+    <row r="312" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A312" s="19" t="s">
         <v>275</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="81">
+    <row r="313" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A313" s="19" t="s">
         <v>275</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="81">
+    <row r="314" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A314" s="19" t="s">
         <v>275</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="32.25" customHeight="1">
+    <row r="315" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="19" t="s">
         <v>433</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="64.5">
+    <row r="316" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A316" s="19" t="s">
         <v>433</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="64.5">
+    <row r="317" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A317" s="19" t="s">
         <v>433</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="64.5">
+    <row r="318" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A318" s="19" t="s">
         <v>433</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="32.25" customHeight="1">
+    <row r="319" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="19" t="s">
         <v>439</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="64.5">
+    <row r="320" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A320" s="19" t="s">
         <v>439</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="64.5">
+    <row r="321" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A321" s="19" t="s">
         <v>439</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="64.5">
+    <row r="322" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A322" s="19" t="s">
         <v>439</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="48.75">
+    <row r="323" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A323" s="19" t="s">
         <v>445</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="48.75">
+    <row r="324" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A324" s="19" t="s">
         <v>445</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="48.75">
+    <row r="325" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A325" s="19" t="s">
         <v>445</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="48.75">
+    <row r="326" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A326" s="19" t="s">
         <v>445</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="32.25" customHeight="1">
+    <row r="327" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="19" t="s">
         <v>240</v>
       </c>
@@ -13458,7 +13458,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="81">
+    <row r="328" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A328" s="19" t="s">
         <v>240</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="81">
+    <row r="329" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A329" s="19" t="s">
         <v>240</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="81">
+    <row r="330" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A330" s="19" t="s">
         <v>240</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="32.25" customHeight="1">
+    <row r="331" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="19" t="s">
         <v>457</v>
       </c>
@@ -13562,7 +13562,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="64.5">
+    <row r="332" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A332" s="19" t="s">
         <v>457</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="64.5">
+    <row r="333" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A333" s="19" t="s">
         <v>457</v>
       </c>
@@ -13614,7 +13614,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="64.5">
+    <row r="334" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A334" s="19" t="s">
         <v>457</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="48.75" customHeight="1">
+    <row r="335" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="19" t="s">
         <v>462</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="81">
+    <row r="336" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A336" s="19" t="s">
         <v>462</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="81">
+    <row r="337" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A337" s="19" t="s">
         <v>462</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="81">
+    <row r="338" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A338" s="19" t="s">
         <v>462</v>
       </c>
@@ -13744,7 +13744,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="30.75">
+    <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="68" t="s">
         <v>515</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="30.75">
+    <row r="340" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="68" t="s">
         <v>515</v>
       </c>
@@ -13796,7 +13796,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="30.75">
+    <row r="341" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="68" t="s">
         <v>515</v>
       </c>
@@ -13822,7 +13822,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="30.75">
+    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="75" t="s">
         <v>515</v>
       </c>
@@ -13848,7 +13848,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="45.75">
+    <row r="343" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="78" t="s">
         <v>522</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="45.75">
+    <row r="344" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="81" t="s">
         <v>522</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="30.75">
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="75" t="s">
         <v>527</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="30.75">
+    <row r="346" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="78" t="s">
         <v>527</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="30.75">
+    <row r="347" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="84" t="s">
         <v>527</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="30.75" customHeight="1">
+    <row r="348" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="87" t="s">
         <v>531</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="45.75">
+    <row r="349" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="89" t="s">
         <v>531</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="45.75">
+    <row r="350" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="89" t="s">
         <v>531</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="45.75">
+    <row r="351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="91" t="s">
         <v>531</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="30.75" customHeight="1">
+    <row r="352" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="93" t="s">
         <v>531</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="45.75">
+    <row r="353" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="95" t="s">
         <v>531</v>
       </c>
@@ -14134,7 +14134,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="45.75">
+    <row r="354" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="95" t="s">
         <v>531</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="45.75">
+    <row r="355" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="95" t="s">
         <v>531</v>
       </c>
@@ -14186,7 +14186,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="30.75">
+    <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="97" t="s">
         <v>515</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="30.75">
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="101" t="s">
         <v>515</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="45.75">
+    <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="101" t="s">
         <v>522</v>
       </c>
@@ -14264,7 +14264,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="45.75">
+    <row r="359" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="101" t="s">
         <v>522</v>
       </c>
@@ -14290,7 +14290,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="45.75">
+    <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="104" t="s">
         <v>554</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="45.75">
+    <row r="361" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="102" t="s">
         <v>527</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="103" t="s">
         <v>527</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="30.75">
+    <row r="363" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" s="103" t="s">
         <v>527</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="30.75">
+    <row r="364" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" s="103" t="s">
         <v>527</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="60.75">
+    <row r="365" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A365" s="97" t="s">
         <v>531</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="45.75">
+    <row r="366" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="108" t="s">
         <v>522</v>
       </c>
@@ -14472,7 +14472,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="30.75">
+    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="81" t="s">
         <v>564</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="30.75" customHeight="1">
+    <row r="368" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="75" t="s">
         <v>554</v>
       </c>
@@ -14524,7 +14524,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="45.75">
+    <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="78" t="s">
         <v>554</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="30.75">
+    <row r="370" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="90" t="s">
         <v>570</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="30.75">
+    <row r="371" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="90" t="s">
         <v>570</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="45.75">
+    <row r="372" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A372" s="108" t="s">
         <v>531</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="45.75">
+    <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="97" t="s">
         <v>522</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="30.75">
+    <row r="374" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="97" t="s">
         <v>564</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="30.75">
+    <row r="375" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="104" t="s">
         <v>564</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="30.75">
+    <row r="376" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="102" t="s">
         <v>570</v>
       </c>
@@ -14732,7 +14732,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="30.75">
+    <row r="377" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="111" t="s">
         <v>570</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="45.75">
+    <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="113" t="s">
         <v>531</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="60.75">
+    <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="115" t="s">
         <v>531</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="45.75">
+    <row r="380" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="81" t="s">
         <v>522</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="45.75">
+    <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="75" t="s">
         <v>554</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="45.75">
+    <row r="382" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A382" s="108" t="s">
         <v>554</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="30.75">
+    <row r="383" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="81" t="s">
         <v>564</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="30.75">
+    <row r="384" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="88" t="s">
         <v>570</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="45.75">
+    <row r="385" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="90" t="s">
         <v>570</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="45.75">
+    <row r="386" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="108" t="s">
         <v>531</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="30.75" customHeight="1">
+    <row r="387" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="104" t="s">
         <v>596</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="60.75">
+    <row r="388" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" s="118" t="s">
         <v>596</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="45.75">
+    <row r="389" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="113" t="s">
         <v>596</v>
       </c>
@@ -15070,7 +15070,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="45.75">
+    <row r="390" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A390" s="115" t="s">
         <v>596</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="30.75">
+    <row r="391" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="121" t="s">
         <v>602</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="30.75">
+    <row r="392" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="113" t="s">
         <v>602</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="30.75">
+    <row r="393" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A393" s="115" t="s">
         <v>602</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="30.75">
+    <row r="394" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="121" t="s">
         <v>602</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="45.75">
+    <row r="395" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A395" s="102" t="s">
         <v>570</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="30.75">
+    <row r="396" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="103" t="s">
         <v>570</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="30.75">
+    <row r="397" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="123" t="s">
         <v>611</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="45.75">
+    <row r="398" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="123" t="s">
         <v>617</v>
       </c>
@@ -15304,7 +15304,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="45.75">
+    <row r="399" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="127" t="s">
         <v>617</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="27" customHeight="1">
+    <row r="400" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="130" t="s">
         <v>622</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="45.75">
+    <row r="401" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A401" s="134" t="s">
         <v>622</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="45.75">
+    <row r="402" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A402" s="134" t="s">
         <v>622</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="45.75">
+    <row r="403" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A403" s="134" t="s">
         <v>622</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="27" customHeight="1">
+    <row r="404" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="134" t="s">
         <v>82</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="45.75">
+    <row r="405" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A405" s="134" t="s">
         <v>82</v>
       </c>
@@ -15486,7 +15486,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="45.75">
+    <row r="406" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A406" s="134" t="s">
         <v>82</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="45.75">
+    <row r="407" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A407" s="137" t="s">
         <v>82</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="27" customHeight="1">
+    <row r="408" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="130" t="s">
         <v>30</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="60.75">
+    <row r="409" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A409" s="134" t="s">
         <v>30</v>
       </c>
@@ -15590,7 +15590,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="60.75">
+    <row r="410" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A410" s="134" t="s">
         <v>30</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="60.75">
+    <row r="411" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A411" s="137" t="s">
         <v>30</v>
       </c>
@@ -15642,7 +15642,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="27" customHeight="1">
+    <row r="412" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="130" t="s">
         <v>629</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="60.75">
+    <row r="413" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A413" s="134" t="s">
         <v>629</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="30.75">
+    <row r="414" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="140" t="s">
         <v>611</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="45.75">
+    <row r="415" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="140" t="s">
         <v>617</v>
       </c>
@@ -15746,7 +15746,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="45.75">
+    <row r="416" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="145" t="s">
         <v>617</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="27" customHeight="1">
+    <row r="417" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="149" t="s">
         <v>345</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="40.5">
+    <row r="418" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A418" s="152" t="s">
         <v>345</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="40.5">
+    <row r="419" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A419" s="152" t="s">
         <v>345</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="40.5">
+    <row r="420" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A420" s="152" t="s">
         <v>345</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="15.75" customHeight="1">
+    <row r="421" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="154" t="s">
         <v>641</v>
       </c>
@@ -15902,7 +15902,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="40.5">
+    <row r="422" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A422" s="149" t="s">
         <v>641</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="40.5">
+    <row r="423" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A423" s="152" t="s">
         <v>641</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="40.5">
+    <row r="424" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A424" s="158" t="s">
         <v>641</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="27">
+    <row r="425" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A425" s="149" t="s">
         <v>646</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="27">
+    <row r="426" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A426" s="152" t="s">
         <v>646</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="27">
+    <row r="427" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A427" s="152" t="s">
         <v>646</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="27">
+    <row r="428" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A428" s="158" t="s">
         <v>646</v>
       </c>
@@ -16084,7 +16084,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="27" customHeight="1">
+    <row r="429" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="149" t="s">
         <v>629</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="53.25">
+    <row r="430" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A430" s="152" t="s">
         <v>629</v>
       </c>
@@ -16136,7 +16136,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="30.75">
+    <row r="431" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A431" s="161" t="s">
         <v>611</v>
       </c>
@@ -16155,14 +16155,14 @@
       <c r="F431" s="73" t="s">
         <v>615</v>
       </c>
-      <c r="G431" s="232" t="s">
+      <c r="G431" s="238" t="s">
         <v>11</v>
       </c>
       <c r="H431" s="73" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="30.75" customHeight="1">
+    <row r="432" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="166" t="s">
         <v>611</v>
       </c>
@@ -16181,12 +16181,12 @@
       <c r="F432" s="73" t="s">
         <v>615</v>
       </c>
-      <c r="G432" s="233"/>
+      <c r="G432" s="239"/>
       <c r="H432" s="73" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="30.75">
+    <row r="433" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="171" t="s">
         <v>611</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="15.75" customHeight="1">
+    <row r="434" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="177" t="s">
         <v>355</v>
       </c>
@@ -16238,7 +16238,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="40.5">
+    <row r="435" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A435" s="181" t="s">
         <v>355</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="40.5">
+    <row r="436" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A436" s="181" t="s">
         <v>355</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="40.5">
+    <row r="437" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A437" s="181" t="s">
         <v>355</v>
       </c>
@@ -16316,7 +16316,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="27" customHeight="1">
+    <row r="438" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="181" t="s">
         <v>654</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="53.25">
+    <row r="439" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A439" s="181" t="s">
         <v>654</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="53.25">
+    <row r="440" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A440" s="181" t="s">
         <v>654</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="53.25">
+    <row r="441" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A441" s="181" t="s">
         <v>654</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="27" customHeight="1">
+    <row r="442" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="181" t="s">
         <v>656</v>
       </c>
@@ -16446,7 +16446,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="40.5">
+    <row r="443" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A443" s="181" t="s">
         <v>656</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="40.5">
+    <row r="444" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A444" s="181" t="s">
         <v>656</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="40.5">
+    <row r="445" spans="1:8" ht="39" x14ac:dyDescent="0.25">
       <c r="A445" s="181" t="s">
         <v>656</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="27" customHeight="1">
+    <row r="446" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="181" t="s">
         <v>629</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="53.25">
+    <row r="447" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A447" s="181" t="s">
         <v>629</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="45.75" customHeight="1">
+    <row r="448" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="19" t="s">
         <v>660</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="48.75" customHeight="1">
+    <row r="449" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="19" t="s">
         <v>660</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="32.25" customHeight="1">
+    <row r="450" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="19" t="s">
         <v>660</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="32.25" customHeight="1">
+    <row r="451" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="19" t="s">
         <v>660</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="32.25" customHeight="1">
+    <row r="452" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="19" t="s">
         <v>660</v>
       </c>
@@ -16696,7 +16696,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="32.25">
+    <row r="453" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A453" s="19" t="s">
         <v>191</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="48.75" customHeight="1">
+    <row r="454" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="19" t="s">
         <v>191</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="32.25" customHeight="1">
+    <row r="455" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="19" t="s">
         <v>191</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="32.25" customHeight="1">
+    <row r="456" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="19" t="s">
         <v>191</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="32.25" customHeight="1">
+    <row r="457" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="19" t="s">
         <v>191</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="32.25" customHeight="1">
+    <row r="458" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="19" t="s">
         <v>673</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="32.25" customHeight="1">
+    <row r="459" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="19" t="s">
         <v>673</v>
       </c>
@@ -16864,7 +16864,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="32.25" customHeight="1">
+    <row r="460" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="19" t="s">
         <v>673</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="32.25" customHeight="1">
+    <row r="461" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="19" t="s">
         <v>673</v>
       </c>
@@ -16912,7 +16912,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="32.25" customHeight="1">
+    <row r="462" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="40" t="s">
         <v>680</v>
       </c>
@@ -16936,7 +16936,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="32.25" customHeight="1">
+    <row r="463" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="40" t="s">
         <v>680</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="32.25" customHeight="1">
+    <row r="464" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="40" t="s">
         <v>680</v>
       </c>
@@ -16984,7 +16984,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="48.75" customHeight="1">
+    <row r="465" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="40" t="s">
         <v>680</v>
       </c>
@@ -17008,7 +17008,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="48.75" customHeight="1">
+    <row r="466" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="40" t="s">
         <v>223</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="48.75" customHeight="1">
+    <row r="467" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="40" t="s">
         <v>223</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="64.5" customHeight="1">
+    <row r="468" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="40" t="s">
         <v>223</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="64.5" customHeight="1">
+    <row r="469" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="40" t="s">
         <v>223</v>
       </c>
@@ -17104,7 +17104,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="48.75" customHeight="1">
+    <row r="470" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="40" t="s">
         <v>223</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="64.5" customHeight="1">
+    <row r="471" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="40" t="s">
         <v>223</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="48.75" customHeight="1">
+    <row r="472" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="19" t="s">
         <v>233</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="32.25" customHeight="1">
+    <row r="473" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="19" t="s">
         <v>233</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="48.75" customHeight="1">
+    <row r="474" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="19" t="s">
         <v>233</v>
       </c>
@@ -17224,7 +17224,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="32.25" customHeight="1">
+    <row r="475" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="19" t="s">
         <v>233</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="48.75" customHeight="1">
+    <row r="476" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="19" t="s">
         <v>240</v>
       </c>
@@ -17272,7 +17272,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="32.25" customHeight="1">
+    <row r="477" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="19" t="s">
         <v>240</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="32.25" customHeight="1">
+    <row r="478" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="19" t="s">
         <v>240</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="48.75" customHeight="1">
+    <row r="479" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="19" t="s">
         <v>240</v>
       </c>
@@ -17344,7 +17344,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="48.75" customHeight="1">
+    <row r="480" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="19" t="s">
         <v>247</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="48.75" customHeight="1">
+    <row r="481" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="19" t="s">
         <v>247</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="48.75" customHeight="1">
+    <row r="482" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="19" t="s">
         <v>247</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="64.5" customHeight="1">
+    <row r="483" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="19" t="s">
         <v>247</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="32.25" customHeight="1">
+    <row r="484" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="19" t="s">
         <v>254</v>
       </c>
@@ -17464,7 +17464,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="48.75" customHeight="1">
+    <row r="485" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="19" t="s">
         <v>254</v>
       </c>
@@ -17488,7 +17488,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="48.75" customHeight="1">
+    <row r="486" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="19" t="s">
         <v>254</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="32.25" customHeight="1">
+    <row r="487" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="19" t="s">
         <v>254</v>
       </c>
@@ -17536,7 +17536,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="48.75" customHeight="1">
+    <row r="488" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="19" t="s">
         <v>261</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="48.75" customHeight="1">
+    <row r="489" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="19" t="s">
         <v>261</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="48.75" customHeight="1">
+    <row r="490" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="19" t="s">
         <v>261</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="48.75" customHeight="1">
+    <row r="491" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="19" t="s">
         <v>261</v>
       </c>
@@ -17632,7 +17632,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="32.25" customHeight="1">
+    <row r="492" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="19" t="s">
         <v>268</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="32.25" customHeight="1">
+    <row r="493" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="19" t="s">
         <v>268</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="48.75" customHeight="1">
+    <row r="494" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="19" t="s">
         <v>268</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="32.25" customHeight="1">
+    <row r="495" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="19" t="s">
         <v>268</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="48.75" customHeight="1">
+    <row r="496" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="19" t="s">
         <v>275</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="32.25" customHeight="1">
+    <row r="497" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="19" t="s">
         <v>275</v>
       </c>
@@ -17776,7 +17776,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="32.25" customHeight="1">
+    <row r="498" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="19" t="s">
         <v>275</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="32.25" customHeight="1">
+    <row r="499" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="19" t="s">
         <v>275</v>
       </c>
@@ -17824,7 +17824,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="48.75" customHeight="1">
+    <row r="500" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="19" t="s">
         <v>282</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="48.75" customHeight="1">
+    <row r="501" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="19" t="s">
         <v>282</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="48.75" customHeight="1">
+    <row r="502" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="19" t="s">
         <v>282</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="48.75" customHeight="1">
+    <row r="503" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="19" t="s">
         <v>282</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="48.75">
+    <row r="504" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A504" s="18" t="s">
         <v>289</v>
       </c>
@@ -17944,7 +17944,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="48.75" customHeight="1">
+    <row r="505" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="18" t="s">
         <v>289</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="32.25" customHeight="1">
+    <row r="506" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="18" t="s">
         <v>289</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="32.25" customHeight="1">
+    <row r="507" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="18" t="s">
         <v>289</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="48.75">
+    <row r="508" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A508" s="11" t="s">
         <v>688</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="32.25" customHeight="1">
+    <row r="509" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="229" t="s">
         <v>692</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="32.25" customHeight="1">
+    <row r="510" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="229" t="s">
         <v>692</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="16.5" customHeight="1">
+    <row r="511" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="229" t="s">
         <v>692</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="16.5" customHeight="1">
+    <row r="512" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="229" t="s">
         <v>692</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="32.25">
+    <row r="513" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A513" s="229" t="s">
         <v>696</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="32.25" customHeight="1">
+    <row r="514" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="229" t="s">
         <v>696</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="16.5" customHeight="1">
+    <row r="515" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="229" t="s">
         <v>696</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="16.5" customHeight="1">
+    <row r="516" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="229" t="s">
         <v>696</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="32.25" customHeight="1">
+    <row r="517" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="19" t="s">
         <v>700</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="81">
+    <row r="518" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A518" s="19" t="s">
         <v>700</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="81">
+    <row r="519" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A519" s="19" t="s">
         <v>700</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="81">
+    <row r="520" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A520" s="19" t="s">
         <v>700</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="16.5">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="11" t="s">
         <v>702</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="32.25" customHeight="1">
+    <row r="522" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="19" t="s">
         <v>692</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="16.5" customHeight="1">
+    <row r="523" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="19" t="s">
         <v>692</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="32.25" customHeight="1">
+    <row r="524" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="19" t="s">
         <v>692</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="32.25" customHeight="1">
+    <row r="525" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="19" t="s">
         <v>692</v>
       </c>
@@ -18448,7 +18448,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="16.5" customHeight="1">
+    <row r="526" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="19" t="s">
         <v>696</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="16.5" customHeight="1">
+    <row r="527" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="19" t="s">
         <v>696</v>
       </c>
@@ -18496,7 +18496,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="32.25" customHeight="1">
+    <row r="528" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="19" t="s">
         <v>696</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="32.25" customHeight="1">
+    <row r="529" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="19" t="s">
         <v>696</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="32.25" customHeight="1">
+    <row r="530" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="19" t="s">
         <v>708</v>
       </c>
@@ -18568,7 +18568,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="32.25" customHeight="1">
+    <row r="531" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
         <v>708</v>
       </c>
@@ -18592,7 +18592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="32.25" customHeight="1">
+    <row r="532" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="19" t="s">
         <v>708</v>
       </c>
@@ -18616,7 +18616,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="48.75" customHeight="1">
+    <row r="533" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="19" t="s">
         <v>708</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="16.5">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="47" t="s">
         <v>144</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="32.25">
+    <row r="535" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A535" s="47" t="s">
         <v>144</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="48.75" customHeight="1">
+    <row r="536" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="19" t="s">
         <v>716</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="32.25" customHeight="1">
+    <row r="537" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="19" t="s">
         <v>716</v>
       </c>
@@ -18736,7 +18736,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="16.5" customHeight="1">
+    <row r="538" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="19" t="s">
         <v>716</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="16.5" customHeight="1">
+    <row r="539" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="19" t="s">
         <v>716</v>
       </c>
@@ -18784,7 +18784,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="32.25" customHeight="1">
+    <row r="540" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="19" t="s">
         <v>721</v>
       </c>
@@ -18808,7 +18808,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="32.25" customHeight="1">
+    <row r="541" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="19" t="s">
         <v>721</v>
       </c>
@@ -18832,7 +18832,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="32.25" customHeight="1">
+    <row r="542" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="19" t="s">
         <v>721</v>
       </c>
@@ -18856,7 +18856,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="32.25" customHeight="1">
+    <row r="543" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="19" t="s">
         <v>721</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="16.5">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="11" t="s">
         <v>702</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="16.5" customHeight="1">
+    <row r="545" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="19" t="s">
         <v>713</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="32.25" customHeight="1">
+    <row r="546" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="19" t="s">
         <v>713</v>
       </c>
@@ -18952,7 +18952,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="32.25" customHeight="1">
+    <row r="547" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="19" t="s">
         <v>713</v>
       </c>
@@ -18976,7 +18976,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="16.5" customHeight="1">
+    <row r="548" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="19" t="s">
         <v>713</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="48.75">
+    <row r="549" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A549" s="19" t="s">
         <v>726</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="48.75" customHeight="1">
+    <row r="550" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="19" t="s">
         <v>726</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="48.75" customHeight="1">
+    <row r="551" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="19" t="s">
         <v>726</v>
       </c>
@@ -19072,7 +19072,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="32.25" customHeight="1">
+    <row r="552" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="19" t="s">
         <v>726</v>
       </c>
@@ -19096,7 +19096,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="16.5">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="11" t="s">
         <v>702</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="16.5" customHeight="1">
+    <row r="554" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="19" t="s">
         <v>713</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="32.25" customHeight="1">
+    <row r="555" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="19" t="s">
         <v>713</v>
       </c>
@@ -19168,7 +19168,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="32.25">
+    <row r="556" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A556" s="19" t="s">
         <v>732</v>
       </c>
@@ -19192,7 +19192,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="32.25" customHeight="1">
+    <row r="557" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="19" t="s">
         <v>732</v>
       </c>
@@ -19216,7 +19216,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="48.75" customHeight="1">
+    <row r="558" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="19" t="s">
         <v>732</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="48.75" customHeight="1">
+    <row r="559" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="19" t="s">
         <v>732</v>
       </c>
@@ -19264,7 +19264,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="16.5" customHeight="1">
+    <row r="560" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="19" t="s">
         <v>738</v>
       </c>
@@ -19288,7 +19288,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="32.25" customHeight="1">
+    <row r="561" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="19" t="s">
         <v>738</v>
       </c>
@@ -19312,7 +19312,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="32.25" customHeight="1">
+    <row r="562" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="19" t="s">
         <v>738</v>
       </c>
@@ -19336,7 +19336,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="32.25" customHeight="1">
+    <row r="563" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="19" t="s">
         <v>738</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="32.25">
+    <row r="564" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A564" s="19" t="s">
         <v>740</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="32.25" customHeight="1">
+    <row r="565" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="19" t="s">
         <v>740</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="32.25" customHeight="1">
+    <row r="566" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="19" t="s">
         <v>740</v>
       </c>
@@ -19432,7 +19432,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="32.25" customHeight="1">
+    <row r="567" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="19" t="s">
         <v>740</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="16.5">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="11" t="s">
         <v>702</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="32.25" customHeight="1">
+    <row r="569" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="19" t="s">
         <v>745</v>
       </c>
@@ -19504,7 +19504,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="32.25" customHeight="1">
+    <row r="570" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="19" t="s">
         <v>745</v>
       </c>
@@ -19528,7 +19528,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="32.25" customHeight="1">
+    <row r="571" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="19" t="s">
         <v>745</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="32.25" customHeight="1">
+    <row r="572" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="19" t="s">
         <v>745</v>
       </c>
@@ -19576,7 +19576,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="16.5" customHeight="1">
+    <row r="573" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="19" t="s">
         <v>751</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="16.5" customHeight="1">
+    <row r="574" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="19" t="s">
         <v>751</v>
       </c>
@@ -19624,7 +19624,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="32.25" customHeight="1">
+    <row r="575" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="19" t="s">
         <v>751</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="32.25" customHeight="1">
+    <row r="576" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="19" t="s">
         <v>751</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="16.5">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
         <v>753</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="32.25" customHeight="1">
+    <row r="578" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="19" t="s">
         <v>754</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="32.25" customHeight="1">
+    <row r="579" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="19" t="s">
         <v>754</v>
       </c>
@@ -19744,7 +19744,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="48.75" customHeight="1">
+    <row r="580" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="19" t="s">
         <v>754</v>
       </c>
@@ -19768,7 +19768,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="32.25" customHeight="1">
+    <row r="581" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="19" t="s">
         <v>754</v>
       </c>
@@ -19792,7 +19792,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="32.25">
+    <row r="582" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A582" s="19" t="s">
         <v>760</v>
       </c>
@@ -19816,7 +19816,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="32.25" customHeight="1">
+    <row r="583" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="19" t="s">
         <v>760</v>
       </c>
@@ -19840,7 +19840,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="32.25" customHeight="1">
+    <row r="584" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="19" t="s">
         <v>760</v>
       </c>
@@ -19864,7 +19864,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="32.25" customHeight="1">
+    <row r="585" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="19" t="s">
         <v>760</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="32.25">
+    <row r="586" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A586" s="19" t="s">
         <v>761</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="32.25" customHeight="1">
+    <row r="587" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="19" t="s">
         <v>761</v>
       </c>
@@ -19936,7 +19936,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="32.25" customHeight="1">
+    <row r="588" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="19" t="s">
         <v>761</v>
       </c>
@@ -19960,7 +19960,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="32.25" customHeight="1">
+    <row r="589" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="19" t="s">
         <v>761</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="16.5">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="11" t="s">
         <v>702</v>
       </c>
@@ -20008,7 +20008,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="64.5">
+    <row r="591" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A591" s="11" t="s">
         <v>762</v>
       </c>
@@ -20032,7 +20032,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="48.75">
+    <row r="592" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A592" s="11" t="s">
         <v>175</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="32.25" customHeight="1">
+    <row r="593" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="19" t="s">
         <v>766</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="32.25" customHeight="1">
+    <row r="594" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="19" t="s">
         <v>766</v>
       </c>
@@ -20104,7 +20104,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="32.25" customHeight="1">
+    <row r="595" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="19" t="s">
         <v>766</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="16.5" customHeight="1">
+    <row r="596" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="19" t="s">
         <v>766</v>
       </c>
@@ -20152,7 +20152,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="32.25" customHeight="1">
+    <row r="597" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="19" t="s">
         <v>771</v>
       </c>
@@ -20176,7 +20176,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="32.25" customHeight="1">
+    <row r="598" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="19" t="s">
         <v>771</v>
       </c>
@@ -20200,7 +20200,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="16.5" customHeight="1">
+    <row r="599" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="19" t="s">
         <v>771</v>
       </c>
@@ -20224,7 +20224,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="32.25" customHeight="1">
+    <row r="600" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="19" t="s">
         <v>771</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="32.25" customHeight="1">
+    <row r="601" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="40" t="s">
         <v>716</v>
       </c>
@@ -20272,7 +20272,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="48.75" customHeight="1">
+    <row r="602" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="40" t="s">
         <v>716</v>
       </c>
@@ -20296,7 +20296,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="16.5" customHeight="1">
+    <row r="603" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="40" t="s">
         <v>716</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="16.5" customHeight="1">
+    <row r="604" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="40" t="s">
         <v>716</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="32.25">
+    <row r="605" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A605" s="19" t="s">
         <v>778</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="32.25" customHeight="1">
+    <row r="606" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="19" t="s">
         <v>778</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="32.25" customHeight="1">
+    <row r="607" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="19" t="s">
         <v>778</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="32.25" customHeight="1">
+    <row r="608" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="19" t="s">
         <v>778</v>
       </c>
@@ -20440,7 +20440,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="32.25" customHeight="1">
+    <row r="609" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="19" t="s">
         <v>700</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="32.25" customHeight="1">
+    <row r="610" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="19" t="s">
         <v>700</v>
       </c>
@@ -20488,7 +20488,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="32.25" customHeight="1">
+    <row r="611" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="19" t="s">
         <v>700</v>
       </c>
@@ -20512,7 +20512,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="32.25" customHeight="1">
+    <row r="612" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="19" t="s">
         <v>700</v>
       </c>
@@ -20536,7 +20536,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="32.25">
+    <row r="613" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A613" s="11" t="s">
         <v>782</v>
       </c>
@@ -20560,7 +20560,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="32.25" customHeight="1">
+    <row r="614" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="19" t="s">
         <v>766</v>
       </c>
@@ -20584,7 +20584,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="16.5" customHeight="1">
+    <row r="615" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="19" t="s">
         <v>766</v>
       </c>
@@ -20608,7 +20608,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="16.5" customHeight="1">
+    <row r="616" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="19" t="s">
         <v>766</v>
       </c>
@@ -20632,7 +20632,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="32.25" customHeight="1">
+    <row r="617" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="19" t="s">
         <v>766</v>
       </c>
@@ -20656,7 +20656,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="32.25" customHeight="1">
+    <row r="618" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="19" t="s">
         <v>784</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="32.25" customHeight="1">
+    <row r="619" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="19" t="s">
         <v>784</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="32.25" customHeight="1">
+    <row r="620" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="19" t="s">
         <v>788</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="32.25" customHeight="1">
+    <row r="621" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="19" t="s">
         <v>788</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="32.25" customHeight="1">
+    <row r="622" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="19" t="s">
         <v>788</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="32.25" customHeight="1">
+    <row r="623" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="19" t="s">
         <v>788</v>
       </c>
@@ -20800,7 +20800,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="32.25">
+    <row r="624" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A624" s="19" t="s">
         <v>792</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="32.25" customHeight="1">
+    <row r="625" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="19" t="s">
         <v>792</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="32.25" customHeight="1">
+    <row r="626" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="19" t="s">
         <v>792</v>
       </c>
@@ -20872,7 +20872,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="32.25" customHeight="1">
+    <row r="627" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="19" t="s">
         <v>792</v>
       </c>
@@ -20896,7 +20896,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="48.75">
+    <row r="628" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A628" s="19" t="s">
         <v>794</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="48.75" customHeight="1">
+    <row r="629" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="19" t="s">
         <v>794</v>
       </c>
@@ -20944,7 +20944,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="48.75" customHeight="1">
+    <row r="630" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="19" t="s">
         <v>794</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="32.25" customHeight="1">
+    <row r="631" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="19" t="s">
         <v>794</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="16.5">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="11" t="s">
         <v>702</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="48.75" customHeight="1">
+    <row r="633" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="19" t="s">
         <v>784</v>
       </c>
@@ -21040,7 +21040,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="16.5" customHeight="1">
+    <row r="634" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="19" t="s">
         <v>784</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="32.25" customHeight="1">
+    <row r="635" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="19" t="s">
         <v>784</v>
       </c>
@@ -21088,7 +21088,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="32.25" customHeight="1">
+    <row r="636" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="19" t="s">
         <v>784</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="32.25" customHeight="1">
+    <row r="637" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="19" t="s">
         <v>797</v>
       </c>
@@ -21136,7 +21136,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="32.25" customHeight="1">
+    <row r="638" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="19" t="s">
         <v>797</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="32.25" customHeight="1">
+    <row r="639" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="19" t="s">
         <v>797</v>
       </c>
@@ -21184,7 +21184,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="32.25" customHeight="1">
+    <row r="640" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="19" t="s">
         <v>797</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="32.25">
+    <row r="641" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A641" s="19" t="s">
         <v>760</v>
       </c>
@@ -21232,7 +21232,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="32.25" customHeight="1">
+    <row r="642" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="19" t="s">
         <v>760</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="32.25" customHeight="1">
+    <row r="643" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="19" t="s">
         <v>760</v>
       </c>
@@ -21280,7 +21280,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="32.25" customHeight="1">
+    <row r="644" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="19" t="s">
         <v>760</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="16.5" customHeight="1">
+    <row r="645" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="19" t="s">
         <v>738</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="32.25" customHeight="1">
+    <row r="646" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="19" t="s">
         <v>738</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="32.25" customHeight="1">
+    <row r="647" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="19" t="s">
         <v>738</v>
       </c>
@@ -21376,7 +21376,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="32.25" customHeight="1">
+    <row r="648" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="19" t="s">
         <v>738</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="16.5">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="11" t="s">
         <v>702</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="64.5">
+    <row r="650" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
         <v>762</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="48.75">
+    <row r="651" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A651" s="11" t="s">
         <v>175</v>
       </c>
@@ -21472,7 +21472,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="32.25" customHeight="1">
+    <row r="652" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="19" t="s">
         <v>766</v>
       </c>
@@ -21496,7 +21496,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="32.25" customHeight="1">
+    <row r="653" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="19" t="s">
         <v>766</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="32.25" customHeight="1">
+    <row r="654" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="19" t="s">
         <v>766</v>
       </c>
@@ -21544,7 +21544,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="32.25" customHeight="1">
+    <row r="655" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="19" t="s">
         <v>771</v>
       </c>
@@ -21568,7 +21568,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="32.25" customHeight="1">
+    <row r="656" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="19" t="s">
         <v>771</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="16.5" customHeight="1">
+    <row r="657" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="19" t="s">
         <v>771</v>
       </c>
@@ -21616,7 +21616,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="32.25" customHeight="1">
+    <row r="658" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="19" t="s">
         <v>771</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="32.25" customHeight="1">
+    <row r="659" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="19" t="s">
         <v>721</v>
       </c>
@@ -21664,7 +21664,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="32.25" customHeight="1">
+    <row r="660" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="19" t="s">
         <v>721</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="32.25" customHeight="1">
+    <row r="661" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="19" t="s">
         <v>721</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="32.25" customHeight="1">
+    <row r="662" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="19" t="s">
         <v>721</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="32.25" customHeight="1">
+    <row r="663" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="19" t="s">
         <v>716</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="48.75" customHeight="1">
+    <row r="664" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="19" t="s">
         <v>716</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="16.5" customHeight="1">
+    <row r="665" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="19" t="s">
         <v>716</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="16.5" customHeight="1">
+    <row r="666" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="19" t="s">
         <v>716</v>
       </c>
@@ -21832,7 +21832,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="32.25" customHeight="1">
+    <row r="667" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="19" t="s">
         <v>788</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="32.25" customHeight="1">
+    <row r="668" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="19" t="s">
         <v>788</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="32.25" customHeight="1">
+    <row r="669" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="19" t="s">
         <v>788</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="32.25" customHeight="1">
+    <row r="670" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="19" t="s">
         <v>788</v>
       </c>
@@ -21928,7 +21928,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="32.25">
+    <row r="671" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A671" s="11" t="s">
         <v>702</v>
       </c>
@@ -21952,7 +21952,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="32.25" customHeight="1">
+    <row r="672" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="19" t="s">
         <v>766</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="16.5" customHeight="1">
+    <row r="673" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="19" t="s">
         <v>766</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="16.5" customHeight="1">
+    <row r="674" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="19" t="s">
         <v>766</v>
       </c>
@@ -22024,7 +22024,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="32.25" customHeight="1">
+    <row r="675" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="19" t="s">
         <v>766</v>
       </c>
@@ -22048,7 +22048,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="32.25">
+    <row r="676" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A676" s="19" t="s">
         <v>809</v>
       </c>
@@ -22072,7 +22072,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="32.25" customHeight="1">
+    <row r="677" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="19" t="s">
         <v>809</v>
       </c>
@@ -22096,7 +22096,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="32.25" customHeight="1">
+    <row r="678" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="19" t="s">
         <v>700</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="32.25" customHeight="1">
+    <row r="679" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="19" t="s">
         <v>700</v>
       </c>
@@ -22144,7 +22144,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="32.25" customHeight="1">
+    <row r="680" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="19" t="s">
         <v>700</v>
       </c>
@@ -22165,10 +22165,10 @@
       </c>
       <c r="G680" s="189"/>
       <c r="H680" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="681" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="19" t="s">
         <v>700</v>
       </c>
@@ -22189,10 +22189,10 @@
       </c>
       <c r="G681" s="189"/>
       <c r="H681" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="682" spans="1:8" ht="32.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A682" s="19" t="s">
         <v>792</v>
       </c>
@@ -22213,10 +22213,10 @@
       </c>
       <c r="G682" s="189"/>
       <c r="H682" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="683" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="19" t="s">
         <v>792</v>
       </c>
@@ -22237,10 +22237,10 @@
       </c>
       <c r="G683" s="189"/>
       <c r="H683" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="684" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="19" t="s">
         <v>792</v>
       </c>
@@ -22261,10 +22261,10 @@
       </c>
       <c r="G684" s="189"/>
       <c r="H684" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="685" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="19" t="s">
         <v>792</v>
       </c>
@@ -22285,10 +22285,10 @@
       </c>
       <c r="G685" s="189"/>
       <c r="H685" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="686" spans="1:8" ht="48.75">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A686" s="19" t="s">
         <v>794</v>
       </c>
@@ -22309,10 +22309,10 @@
       </c>
       <c r="G686" s="189"/>
       <c r="H686" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="687" spans="1:8" ht="48.75" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="19" t="s">
         <v>794</v>
       </c>
@@ -22333,10 +22333,10 @@
       </c>
       <c r="G687" s="189"/>
       <c r="H687" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="688" spans="1:8" ht="48.75" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="19" t="s">
         <v>794</v>
       </c>
@@ -22357,10 +22357,10 @@
       </c>
       <c r="G688" s="189"/>
       <c r="H688" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="689" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="19" t="s">
         <v>794</v>
       </c>
@@ -22381,10 +22381,10 @@
       </c>
       <c r="G689" s="189"/>
       <c r="H689" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="690" spans="1:8" ht="16.5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A690" s="11" t="s">
         <v>702</v>
       </c>
@@ -22405,10 +22405,10 @@
       </c>
       <c r="G690" s="189"/>
       <c r="H690" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="691" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="19" t="s">
         <v>809</v>
       </c>
@@ -22429,10 +22429,10 @@
       </c>
       <c r="G691" s="189"/>
       <c r="H691" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="692" spans="1:8" ht="16.5" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="19" t="s">
         <v>809</v>
       </c>
@@ -22453,10 +22453,10 @@
       </c>
       <c r="G692" s="189"/>
       <c r="H692" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="693" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="19" t="s">
         <v>809</v>
       </c>
@@ -22477,10 +22477,10 @@
       </c>
       <c r="G693" s="189"/>
       <c r="H693" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="694" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="19" t="s">
         <v>809</v>
       </c>
@@ -22501,10 +22501,10 @@
       </c>
       <c r="G694" s="189"/>
       <c r="H694" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="695" spans="1:8" ht="32.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A695" s="19" t="s">
         <v>740</v>
       </c>
@@ -22525,10 +22525,10 @@
       </c>
       <c r="G695" s="189"/>
       <c r="H695" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="696" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="19" t="s">
         <v>740</v>
       </c>
@@ -22549,10 +22549,10 @@
       </c>
       <c r="G696" s="189"/>
       <c r="H696" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="697" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="19" t="s">
         <v>740</v>
       </c>
@@ -22573,10 +22573,10 @@
       </c>
       <c r="G697" s="189"/>
       <c r="H697" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="698" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="19" t="s">
         <v>740</v>
       </c>
@@ -22597,10 +22597,10 @@
       </c>
       <c r="G698" s="189"/>
       <c r="H698" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="699" spans="1:8" ht="32.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A699" s="19" t="s">
         <v>760</v>
       </c>
@@ -22621,10 +22621,10 @@
       </c>
       <c r="G699" s="189"/>
       <c r="H699" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="700" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="19" t="s">
         <v>760</v>
       </c>
@@ -22645,10 +22645,10 @@
       </c>
       <c r="G700" s="189"/>
       <c r="H700" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="701" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="19" t="s">
         <v>760</v>
       </c>
@@ -22669,10 +22669,10 @@
       </c>
       <c r="G701" s="189"/>
       <c r="H701" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="702" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="19" t="s">
         <v>760</v>
       </c>
@@ -22693,10 +22693,10 @@
       </c>
       <c r="G702" s="189"/>
       <c r="H702" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="703" spans="1:8" ht="16.5" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="19" t="s">
         <v>738</v>
       </c>
@@ -22717,10 +22717,10 @@
       </c>
       <c r="G703" s="189"/>
       <c r="H703" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="704" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="19" t="s">
         <v>738</v>
       </c>
@@ -22741,10 +22741,10 @@
       </c>
       <c r="G704" s="189"/>
       <c r="H704" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="705" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="19" t="s">
         <v>738</v>
       </c>
@@ -22765,10 +22765,10 @@
       </c>
       <c r="G705" s="189"/>
       <c r="H705" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="706" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="19" t="s">
         <v>738</v>
       </c>
@@ -22789,10 +22789,10 @@
       </c>
       <c r="G706" s="189"/>
       <c r="H706" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="707" spans="1:8" ht="16.5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A707" s="11" t="s">
         <v>702</v>
       </c>
@@ -22813,10 +22813,10 @@
       </c>
       <c r="G707" s="189"/>
       <c r="H707" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="708" spans="1:8" ht="64.5">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A708" s="11" t="s">
         <v>762</v>
       </c>
@@ -22837,10 +22837,10 @@
       </c>
       <c r="G708" s="189"/>
       <c r="H708" s="193" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8" ht="32.25" customHeight="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="47" t="s">
         <v>817</v>
       </c>
@@ -22864,7 +22864,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="48.75" customHeight="1">
+    <row r="710" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="47" t="s">
         <v>817</v>
       </c>
@@ -22888,7 +22888,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="32.25" customHeight="1">
+    <row r="711" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="47" t="s">
         <v>817</v>
       </c>
@@ -22912,7 +22912,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="15" customHeight="1">
+    <row r="712" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="47" t="s">
         <v>823</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="30.75" customHeight="1">
+    <row r="713" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="47" t="s">
         <v>823</v>
       </c>
@@ -22960,7 +22960,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="32.25" customHeight="1">
+    <row r="714" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="47" t="s">
         <v>823</v>
       </c>
@@ -22984,7 +22984,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="32.25" customHeight="1">
+    <row r="715" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="47" t="s">
         <v>823</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="15" customHeight="1">
+    <row r="716" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="47" t="s">
         <v>829</v>
       </c>
@@ -23032,7 +23032,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="32.25" customHeight="1">
+    <row r="717" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="47" t="s">
         <v>829</v>
       </c>
@@ -23056,7 +23056,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="32.25" customHeight="1">
+    <row r="718" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="47" t="s">
         <v>829</v>
       </c>
@@ -23080,7 +23080,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="32.25" customHeight="1">
+    <row r="719" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="47" t="s">
         <v>829</v>
       </c>
@@ -23104,7 +23104,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="15" customHeight="1">
+    <row r="720" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="47" t="s">
         <v>836</v>
       </c>
@@ -23128,7 +23128,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="32.25" customHeight="1">
+    <row r="721" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="47" t="s">
         <v>836</v>
       </c>
@@ -23152,7 +23152,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="32.25" customHeight="1">
+    <row r="722" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="47" t="s">
         <v>836</v>
       </c>
@@ -23176,7 +23176,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="32.25" customHeight="1">
+    <row r="723" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="47" t="s">
         <v>836</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="15" customHeight="1">
+    <row r="724" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="47" t="s">
         <v>843</v>
       </c>
@@ -23224,7 +23224,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="48.75" customHeight="1">
+    <row r="725" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="47" t="s">
         <v>843</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="64.5" customHeight="1">
+    <row r="726" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="47" t="s">
         <v>843</v>
       </c>
@@ -23272,7 +23272,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="32.25" customHeight="1">
+    <row r="727" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="47" t="s">
         <v>843</v>
       </c>
@@ -23296,7 +23296,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="32.25">
+    <row r="728" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A728" s="47" t="s">
         <v>817</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="48.75" customHeight="1">
+    <row r="729" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="47" t="s">
         <v>817</v>
       </c>
@@ -23344,7 +23344,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="32.25" customHeight="1">
+    <row r="730" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="47" t="s">
         <v>817</v>
       </c>
@@ -23368,7 +23368,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="15" customHeight="1">
+    <row r="731" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="47" t="s">
         <v>851</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="32.25" customHeight="1">
+    <row r="732" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="47" t="s">
         <v>851</v>
       </c>
@@ -23416,7 +23416,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="32.25" customHeight="1">
+    <row r="733" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="47" t="s">
         <v>851</v>
       </c>
@@ -23440,7 +23440,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="32.25" customHeight="1">
+    <row r="734" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="47" t="s">
         <v>851</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="32.25">
+    <row r="735" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A735" s="47" t="s">
         <v>858</v>
       </c>
@@ -23488,7 +23488,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="32.25" customHeight="1">
+    <row r="736" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="47" t="s">
         <v>858</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="32.25" customHeight="1">
+    <row r="737" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="47" t="s">
         <v>858</v>
       </c>
@@ -23536,7 +23536,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="16.5" customHeight="1">
+    <row r="738" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="47" t="s">
         <v>858</v>
       </c>
@@ -23560,7 +23560,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="15" customHeight="1">
+    <row r="739" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="47" t="s">
         <v>865</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="32.25" customHeight="1">
+    <row r="740" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="47" t="s">
         <v>865</v>
       </c>
@@ -23608,7 +23608,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="32.25" customHeight="1">
+    <row r="741" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="47" t="s">
         <v>865</v>
       </c>
@@ -23632,7 +23632,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="32.25" customHeight="1">
+    <row r="742" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="47" t="s">
         <v>865</v>
       </c>
@@ -23656,7 +23656,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="15" customHeight="1">
+    <row r="743" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="47" t="s">
         <v>872</v>
       </c>
@@ -23680,7 +23680,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="45.75" customHeight="1">
+    <row r="744" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="47" t="s">
         <v>876</v>
       </c>
@@ -23704,7 +23704,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="45.75" customHeight="1">
+    <row r="745" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="47" t="s">
         <v>876</v>
       </c>
@@ -23728,7 +23728,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="45.75" customHeight="1">
+    <row r="746" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="47" t="s">
         <v>876</v>
       </c>
@@ -23752,7 +23752,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="15" customHeight="1">
+    <row r="747" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="47" t="s">
         <v>880</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="32.25" customHeight="1">
+    <row r="748" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="47" t="s">
         <v>880</v>
       </c>
@@ -23800,7 +23800,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="32.25" customHeight="1">
+    <row r="749" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="47" t="s">
         <v>880</v>
       </c>
@@ -23824,7 +23824,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="32.25" customHeight="1">
+    <row r="750" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="47" t="s">
         <v>880</v>
       </c>
@@ -23848,7 +23848,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="32.25">
+    <row r="751" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A751" s="47" t="s">
         <v>817</v>
       </c>
@@ -23872,7 +23872,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="48.75" customHeight="1">
+    <row r="752" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="47" t="s">
         <v>817</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="32.25" customHeight="1">
+    <row r="753" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="47" t="s">
         <v>817</v>
       </c>
@@ -23920,7 +23920,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="15" customHeight="1">
+    <row r="754" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="196" t="s">
         <v>888</v>
       </c>
@@ -23944,7 +23944,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="48.75" customHeight="1">
+    <row r="755" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="196" t="s">
         <v>888</v>
       </c>
@@ -23968,7 +23968,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="48.75" customHeight="1">
+    <row r="756" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="196" t="s">
         <v>888</v>
       </c>
@@ -23992,7 +23992,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="45.75" customHeight="1">
+    <row r="757" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="198" t="s">
         <v>888</v>
       </c>
@@ -24016,7 +24016,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="15" customHeight="1">
+    <row r="758" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="200" t="s">
         <v>895</v>
       </c>
@@ -24040,7 +24040,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="45.75" customHeight="1">
+    <row r="759" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="202" t="s">
         <v>895</v>
       </c>
@@ -24064,7 +24064,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="64.5" customHeight="1">
+    <row r="760" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="202" t="s">
         <v>895</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="45.75" customHeight="1">
+    <row r="761" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="202" t="s">
         <v>895</v>
       </c>
@@ -24112,7 +24112,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="45.75" customHeight="1">
+    <row r="762" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="202" t="s">
         <v>895</v>
       </c>
@@ -24136,14 +24136,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="15" customHeight="1">
+    <row r="763" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="204" t="s">
         <v>903</v>
       </c>
       <c r="B763" s="226" t="s">
         <v>904</v>
       </c>
-      <c r="C763" s="240" t="s">
+      <c r="C763" s="232" t="s">
         <v>905</v>
       </c>
       <c r="D763" s="197" t="s">
@@ -24160,14 +24160,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="32.25" customHeight="1">
+    <row r="764" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="204" t="s">
         <v>903</v>
       </c>
       <c r="B764" s="226" t="s">
         <v>904</v>
       </c>
-      <c r="C764" s="240" t="s">
+      <c r="C764" s="232" t="s">
         <v>905</v>
       </c>
       <c r="D764" s="197" t="s">
@@ -24184,14 +24184,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="32.25" customHeight="1">
+    <row r="765" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="204" t="s">
         <v>903</v>
       </c>
       <c r="B765" s="226" t="s">
         <v>904</v>
       </c>
-      <c r="C765" s="240" t="s">
+      <c r="C765" s="232" t="s">
         <v>905</v>
       </c>
       <c r="D765" s="197" t="s">
@@ -24208,14 +24208,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="32.25" customHeight="1">
+    <row r="766" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="204" t="s">
         <v>903</v>
       </c>
       <c r="B766" s="226" t="s">
         <v>904</v>
       </c>
-      <c r="C766" s="240" t="s">
+      <c r="C766" s="232" t="s">
         <v>905</v>
       </c>
       <c r="D766" s="199" t="s">
@@ -24232,14 +24232,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="15" customHeight="1">
+    <row r="767" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="47" t="s">
         <v>910</v>
       </c>
       <c r="B767" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C767" s="241" t="s">
+      <c r="C767" s="233" t="s">
         <v>912</v>
       </c>
       <c r="D767" s="194" t="s">
@@ -24256,14 +24256,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="48.75" customHeight="1">
+    <row r="768" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="47" t="s">
         <v>910</v>
       </c>
       <c r="B768" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C768" s="241" t="s">
+      <c r="C768" s="233" t="s">
         <v>912</v>
       </c>
       <c r="D768" s="194" t="s">
@@ -24280,14 +24280,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="45.75" customHeight="1">
+    <row r="769" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="47" t="s">
         <v>910</v>
       </c>
       <c r="B769" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C769" s="241" t="s">
+      <c r="C769" s="233" t="s">
         <v>912</v>
       </c>
       <c r="D769" s="194" t="s">
@@ -24304,14 +24304,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="45.75" customHeight="1">
+    <row r="770" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="205" t="s">
         <v>910</v>
       </c>
       <c r="B770" s="19" t="s">
         <v>911</v>
       </c>
-      <c r="C770" s="241" t="s">
+      <c r="C770" s="233" t="s">
         <v>912</v>
       </c>
       <c r="D770" s="199" t="s">
@@ -24328,14 +24328,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="15" customHeight="1">
+    <row r="771" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="200" t="s">
         <v>917</v>
       </c>
       <c r="B771" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C771" s="241" t="s">
+      <c r="C771" s="233" t="s">
         <v>919</v>
       </c>
       <c r="D771" s="194" t="s">
@@ -24352,14 +24352,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="32.25" customHeight="1">
+    <row r="772" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="47" t="s">
         <v>917</v>
       </c>
       <c r="B772" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C772" s="241" t="s">
+      <c r="C772" s="233" t="s">
         <v>919</v>
       </c>
       <c r="D772" s="194" t="s">
@@ -24376,14 +24376,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="32.25" customHeight="1">
+    <row r="773" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="47" t="s">
         <v>917</v>
       </c>
       <c r="B773" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C773" s="241" t="s">
+      <c r="C773" s="233" t="s">
         <v>919</v>
       </c>
       <c r="D773" s="194" t="s">
@@ -24400,14 +24400,14 @@
         <v>887</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="32.25" customHeight="1">
+    <row r="774" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="47" t="s">
         <v>917</v>
       </c>
       <c r="B774" s="18" t="s">
         <v>918</v>
       </c>
-      <c r="C774" s="241" t="s">
+      <c r="C774" s="233" t="s">
         <v>919</v>
       </c>
       <c r="D774" s="206" t="s">
@@ -24424,7 +24424,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="15" customHeight="1">
+    <row r="775" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="47" t="s">
         <v>880</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="30.75" customHeight="1">
+    <row r="776" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="47" t="s">
         <v>880</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="30.75" customHeight="1">
+    <row r="777" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="47" t="s">
         <v>880</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="32.25" customHeight="1">
+    <row r="778" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="47" t="s">
         <v>880</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="32.25">
+    <row r="779" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A779" s="47" t="s">
         <v>817</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="48.75" customHeight="1">
+    <row r="780" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="47" t="s">
         <v>817</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="32.25" customHeight="1">
+    <row r="781" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="47" t="s">
         <v>817</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="15" customHeight="1">
+    <row r="782" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="47" t="s">
         <v>851</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="32.25" customHeight="1">
+    <row r="783" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="47" t="s">
         <v>851</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="30.75" customHeight="1">
+    <row r="784" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="47" t="s">
         <v>851</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="785" spans="1:8" ht="32.25" customHeight="1">
+    <row r="785" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="47" t="s">
         <v>851</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="15" customHeight="1">
+    <row r="786" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="47" t="s">
         <v>936</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="30.75" customHeight="1">
+    <row r="787" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="47" t="s">
         <v>936</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="788" spans="1:8" ht="32.25" customHeight="1">
+    <row r="788" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="47" t="s">
         <v>936</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="30.75" customHeight="1">
+    <row r="789" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="47" t="s">
         <v>936</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="15" customHeight="1">
+    <row r="790" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="47" t="s">
         <v>865</v>
       </c>
@@ -24808,7 +24808,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="30.75" customHeight="1">
+    <row r="791" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="47" t="s">
         <v>865</v>
       </c>
@@ -24832,14 +24832,14 @@
         <v>929</v>
       </c>
     </row>
-    <row r="792" spans="1:8" ht="32.25" customHeight="1">
+    <row r="792" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="47" t="s">
         <v>865</v>
       </c>
       <c r="B792" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="C792" s="241" t="s">
+      <c r="C792" s="233" t="s">
         <v>950</v>
       </c>
       <c r="D792" s="37" t="s">
@@ -24856,14 +24856,14 @@
         <v>929</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="30.75" customHeight="1">
+    <row r="793" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="47" t="s">
         <v>865</v>
       </c>
       <c r="B793" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="C793" s="241" t="s">
+      <c r="C793" s="233" t="s">
         <v>950</v>
       </c>
       <c r="D793" s="37" t="s">
@@ -24880,7 +24880,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="30.75" customHeight="1">
+    <row r="794" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="47" t="s">
         <v>865</v>
       </c>
@@ -24904,7 +24904,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="15" customHeight="1">
+    <row r="795" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="47" t="s">
         <v>876</v>
       </c>
@@ -24928,7 +24928,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="796" spans="1:8" ht="45.75" customHeight="1">
+    <row r="796" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="47" t="s">
         <v>876</v>
       </c>
@@ -24952,7 +24952,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="797" spans="1:8" ht="48.75" customHeight="1">
+    <row r="797" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="47" t="s">
         <v>876</v>
       </c>
@@ -24976,7 +24976,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="45.75" customHeight="1">
+    <row r="798" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="205" t="s">
         <v>876</v>
       </c>
@@ -25000,7 +25000,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="32.25">
+    <row r="799" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A799" s="200" t="s">
         <v>817</v>
       </c>
@@ -25024,7 +25024,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="800" spans="1:8" ht="48.75" customHeight="1">
+    <row r="800" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="202" t="s">
         <v>817</v>
       </c>
@@ -25048,7 +25048,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="32.25" customHeight="1">
+    <row r="801" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="202" t="s">
         <v>817</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="802" spans="1:8" ht="15" customHeight="1">
+    <row r="802" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="202" t="s">
         <v>964</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="803" spans="1:8" ht="32.25" customHeight="1">
+    <row r="803" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="202" t="s">
         <v>964</v>
       </c>
@@ -25120,7 +25120,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="804" spans="1:8" ht="32.25" customHeight="1">
+    <row r="804" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="202" t="s">
         <v>964</v>
       </c>
@@ -25144,7 +25144,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="32.25" customHeight="1">
+    <row r="805" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="202" t="s">
         <v>964</v>
       </c>
@@ -25168,7 +25168,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="15" customHeight="1">
+    <row r="806" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="202" t="s">
         <v>971</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="807" spans="1:8" ht="32.25" customHeight="1">
+    <row r="807" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="202" t="s">
         <v>971</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="808" spans="1:8" ht="32.25" customHeight="1">
+    <row r="808" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="202" t="s">
         <v>971</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="30.75" customHeight="1">
+    <row r="809" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="202" t="s">
         <v>971</v>
       </c>
@@ -25264,14 +25264,14 @@
         <v>963</v>
       </c>
     </row>
-    <row r="810" spans="1:8" ht="15" customHeight="1">
+    <row r="810" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="47" t="s">
         <v>978</v>
       </c>
       <c r="B810" s="19" t="s">
         <v>979</v>
       </c>
-      <c r="C810" s="241" t="s">
+      <c r="C810" s="233" t="s">
         <v>938</v>
       </c>
       <c r="D810" s="43" t="s">
@@ -25288,14 +25288,14 @@
         <v>963</v>
       </c>
     </row>
-    <row r="811" spans="1:8" ht="45.75" customHeight="1">
+    <row r="811" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="47" t="s">
         <v>978</v>
       </c>
       <c r="B811" s="19" t="s">
         <v>979</v>
       </c>
-      <c r="C811" s="241" t="s">
+      <c r="C811" s="233" t="s">
         <v>938</v>
       </c>
       <c r="D811" s="43" t="s">
@@ -25312,14 +25312,14 @@
         <v>963</v>
       </c>
     </row>
-    <row r="812" spans="1:8" ht="45.75" customHeight="1">
+    <row r="812" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="47" t="s">
         <v>978</v>
       </c>
       <c r="B812" s="19" t="s">
         <v>979</v>
       </c>
-      <c r="C812" s="241" t="s">
+      <c r="C812" s="233" t="s">
         <v>938</v>
       </c>
       <c r="D812" s="43" t="s">
@@ -25336,14 +25336,14 @@
         <v>963</v>
       </c>
     </row>
-    <row r="813" spans="1:8" ht="45.75" customHeight="1">
+    <row r="813" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="47" t="s">
         <v>978</v>
       </c>
       <c r="B813" s="19" t="s">
         <v>979</v>
       </c>
-      <c r="C813" s="241" t="s">
+      <c r="C813" s="233" t="s">
         <v>938</v>
       </c>
       <c r="D813" s="43" t="s">
@@ -25360,7 +25360,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="814" spans="1:8" ht="15" customHeight="1">
+    <row r="814" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="47" t="s">
         <v>984</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="45.75" customHeight="1">
+    <row r="815" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="47" t="s">
         <v>984</v>
       </c>
@@ -25408,7 +25408,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="45.75" customHeight="1">
+    <row r="816" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="47" t="s">
         <v>984</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="817" spans="1:8" ht="45.75" customHeight="1">
+    <row r="817" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="47" t="s">
         <v>984</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="818" spans="1:8" ht="15" customHeight="1">
+    <row r="818" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="47" t="s">
         <v>823</v>
       </c>
@@ -25480,7 +25480,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="819" spans="1:8" ht="48.75" customHeight="1">
+    <row r="819" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="47" t="s">
         <v>823</v>
       </c>
@@ -25504,7 +25504,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="32.25" customHeight="1">
+    <row r="820" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="47" t="s">
         <v>823</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="48.75" customHeight="1">
+    <row r="821" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="47" t="s">
         <v>823</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="15" customHeight="1">
+    <row r="822" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="47" t="s">
         <v>998</v>
       </c>
@@ -25576,7 +25576,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="823" spans="1:8" ht="45.75" customHeight="1">
+    <row r="823" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="47" t="s">
         <v>998</v>
       </c>
@@ -25600,7 +25600,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="45.75" customHeight="1">
+    <row r="824" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="47" t="s">
         <v>998</v>
       </c>
@@ -25624,7 +25624,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="825" spans="1:8" ht="48.75" customHeight="1">
+    <row r="825" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="47" t="s">
         <v>998</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="826" spans="1:8" ht="15" customHeight="1">
+    <row r="826" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="47" t="s">
         <v>888</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="45.75" customHeight="1">
+    <row r="827" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="47" t="s">
         <v>888</v>
       </c>
@@ -25696,7 +25696,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="828" spans="1:8" ht="48.75" customHeight="1">
+    <row r="828" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="47" t="s">
         <v>888</v>
       </c>
@@ -25720,7 +25720,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="829" spans="1:8" ht="48.75" customHeight="1">
+    <row r="829" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="47" t="s">
         <v>888</v>
       </c>
@@ -25744,7 +25744,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="15" customHeight="1">
+    <row r="830" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="47" t="s">
         <v>903</v>
       </c>
@@ -25768,7 +25768,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="831" spans="1:8" ht="32.25" customHeight="1">
+    <row r="831" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="47" t="s">
         <v>903</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="832" spans="1:8" ht="48.75" customHeight="1">
+    <row r="832" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="47" t="s">
         <v>903</v>
       </c>
@@ -25816,7 +25816,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="833" spans="1:8" ht="48.75" customHeight="1">
+    <row r="833" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="47" t="s">
         <v>903</v>
       </c>
@@ -25840,7 +25840,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="15" customHeight="1">
+    <row r="834" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="47" t="s">
         <v>1016</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="45.75" customHeight="1">
+    <row r="835" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="47" t="s">
         <v>1016</v>
       </c>
@@ -25888,7 +25888,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="45.75" customHeight="1">
+    <row r="836" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="47" t="s">
         <v>1016</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="45.75" customHeight="1">
+    <row r="837" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="47" t="s">
         <v>1016</v>
       </c>
@@ -25936,7 +25936,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="838" spans="1:8" ht="15" customHeight="1">
+    <row r="838" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="47" t="s">
         <v>836</v>
       </c>
@@ -25960,7 +25960,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="32.25" customHeight="1">
+    <row r="839" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="47" t="s">
         <v>836</v>
       </c>
@@ -25984,7 +25984,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="32.25" customHeight="1">
+    <row r="840" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="47" t="s">
         <v>836</v>
       </c>
@@ -26008,7 +26008,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="32.25" customHeight="1">
+    <row r="841" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="47" t="s">
         <v>836</v>
       </c>
@@ -26032,7 +26032,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="15" customHeight="1">
+    <row r="842" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="47" t="s">
         <v>917</v>
       </c>
@@ -26056,7 +26056,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="843" spans="1:8" ht="32.25" customHeight="1">
+    <row r="843" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="47" t="s">
         <v>917</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="844" spans="1:8" ht="32.25" customHeight="1">
+    <row r="844" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="47" t="s">
         <v>917</v>
       </c>
@@ -26104,7 +26104,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="845" spans="1:8" ht="32.25" customHeight="1">
+    <row r="845" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="47" t="s">
         <v>917</v>
       </c>
@@ -26128,7 +26128,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="846" spans="1:8" ht="32.25">
+    <row r="846" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A846" s="202" t="s">
         <v>817</v>
       </c>
@@ -26152,7 +26152,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="847" spans="1:8" ht="48.75" customHeight="1">
+    <row r="847" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="202" t="s">
         <v>817</v>
       </c>
@@ -26176,7 +26176,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="848" spans="1:8" ht="32.25" customHeight="1">
+    <row r="848" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="202" t="s">
         <v>817</v>
       </c>
@@ -26200,7 +26200,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="15" customHeight="1">
+    <row r="849" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="202" t="s">
         <v>998</v>
       </c>
@@ -26224,7 +26224,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="45.75" customHeight="1">
+    <row r="850" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="202" t="s">
         <v>998</v>
       </c>
@@ -26248,7 +26248,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="48.75" customHeight="1">
+    <row r="851" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="202" t="s">
         <v>998</v>
       </c>
@@ -26272,7 +26272,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="852" spans="1:8" ht="45.75" customHeight="1">
+    <row r="852" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="202" t="s">
         <v>998</v>
       </c>
@@ -26296,7 +26296,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="15" customHeight="1">
+    <row r="853" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="202" t="s">
         <v>1041</v>
       </c>
@@ -26320,7 +26320,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="854" spans="1:8" ht="32.25" customHeight="1">
+    <row r="854" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="202" t="s">
         <v>1041</v>
       </c>
@@ -26344,7 +26344,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="32.25" customHeight="1">
+    <row r="855" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="202" t="s">
         <v>1041</v>
       </c>
@@ -26368,7 +26368,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="32.25" customHeight="1">
+    <row r="856" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="216" t="s">
         <v>1041</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="15" customHeight="1">
+    <row r="857" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="200" t="s">
         <v>836</v>
       </c>
@@ -26416,7 +26416,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="32.25" customHeight="1">
+    <row r="858" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="202" t="s">
         <v>836</v>
       </c>
@@ -26440,7 +26440,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="859" spans="1:8" ht="32.25" customHeight="1">
+    <row r="859" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="202" t="s">
         <v>836</v>
       </c>
@@ -26464,7 +26464,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="32.25" customHeight="1">
+    <row r="860" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="202" t="s">
         <v>836</v>
       </c>
@@ -26488,7 +26488,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="861" spans="1:8" ht="15" customHeight="1">
+    <row r="861" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="47" t="s">
         <v>1054</v>
       </c>
@@ -26512,7 +26512,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="862" spans="1:8" ht="32.25" customHeight="1">
+    <row r="862" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="47" t="s">
         <v>1054</v>
       </c>
@@ -26536,7 +26536,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="32.25" customHeight="1">
+    <row r="863" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="47" t="s">
         <v>1054</v>
       </c>
@@ -26560,7 +26560,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="864" spans="1:8" ht="32.25" customHeight="1">
+    <row r="864" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="47" t="s">
         <v>1054</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="865" spans="1:8" ht="15" customHeight="1">
+    <row r="865" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="47" t="s">
         <v>917</v>
       </c>
@@ -26608,7 +26608,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="866" spans="1:8" ht="32.25" customHeight="1">
+    <row r="866" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="47" t="s">
         <v>917</v>
       </c>
@@ -26632,7 +26632,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="867" spans="1:8" ht="32.25" customHeight="1">
+    <row r="867" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="47" t="s">
         <v>917</v>
       </c>
@@ -26656,7 +26656,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="868" spans="1:8" ht="32.25" customHeight="1">
+    <row r="868" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="47" t="s">
         <v>917</v>
       </c>
@@ -26680,7 +26680,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="869" spans="1:8" ht="15" customHeight="1">
+    <row r="869" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="47" t="s">
         <v>1066</v>
       </c>
@@ -26704,7 +26704,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="870" spans="1:8" ht="32.25" customHeight="1">
+    <row r="870" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="47" t="s">
         <v>1066</v>
       </c>
@@ -26728,7 +26728,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="32.25" customHeight="1">
+    <row r="871" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="47" t="s">
         <v>1066</v>
       </c>
@@ -26752,7 +26752,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="32.25" customHeight="1">
+    <row r="872" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="47" t="s">
         <v>1066</v>
       </c>
@@ -26776,7 +26776,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="873" spans="1:8" ht="32.25">
+    <row r="873" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A873" s="202" t="s">
         <v>817</v>
       </c>
@@ -26800,7 +26800,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="874" spans="1:8" ht="48.75" customHeight="1">
+    <row r="874" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="202" t="s">
         <v>817</v>
       </c>
@@ -26824,7 +26824,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="875" spans="1:8" ht="32.25" customHeight="1">
+    <row r="875" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="202" t="s">
         <v>817</v>
       </c>
@@ -26848,7 +26848,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="876" spans="1:8" ht="15" customHeight="1">
+    <row r="876" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="47" t="s">
         <v>617</v>
       </c>
@@ -26872,7 +26872,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="877" spans="1:8" ht="30.75" customHeight="1">
+    <row r="877" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="47" t="s">
         <v>617</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="30.75" customHeight="1">
+    <row r="878" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="47" t="s">
         <v>617</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="879" spans="1:8" ht="30.75" customHeight="1">
+    <row r="879" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="47" t="s">
         <v>617</v>
       </c>
@@ -26944,11 +26944,11 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="880" spans="1:8" ht="15" customHeight="1">
+    <row r="880" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="B880" s="234" t="s">
+      <c r="B880" s="240" t="s">
         <v>1081</v>
       </c>
       <c r="C880" s="218" t="s">
@@ -26968,11 +26968,11 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="881" spans="1:8" ht="32.25" customHeight="1">
+    <row r="881" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="B881" s="234"/>
+      <c r="B881" s="240"/>
       <c r="C881" s="218" t="s">
         <v>950</v>
       </c>
@@ -26990,11 +26990,11 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="882" spans="1:8" ht="32.25" customHeight="1">
+    <row r="882" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="B882" s="234"/>
+      <c r="B882" s="240"/>
       <c r="C882" s="219" t="s">
         <v>1085</v>
       </c>
@@ -27012,11 +27012,11 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="32.25" customHeight="1">
+    <row r="883" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="B883" s="235"/>
+      <c r="B883" s="241"/>
       <c r="C883" s="220" t="s">
         <v>1087</v>
       </c>
@@ -27034,7 +27034,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="884" spans="1:8" ht="15" customHeight="1">
+    <row r="884" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="47" t="s">
         <v>843</v>
       </c>
@@ -27058,7 +27058,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="30.75" customHeight="1">
+    <row r="885" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="47" t="s">
         <v>843</v>
       </c>
@@ -27082,7 +27082,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="886" spans="1:8" ht="30.75" customHeight="1">
+    <row r="886" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="47" t="s">
         <v>843</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="30.75" customHeight="1">
+    <row r="887" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="47" t="s">
         <v>843</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="888" spans="1:8" ht="15" customHeight="1">
+    <row r="888" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="47" t="s">
         <v>876</v>
       </c>
@@ -27154,7 +27154,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="889" spans="1:8" ht="45.75" customHeight="1">
+    <row r="889" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="47" t="s">
         <v>876</v>
       </c>
@@ -27178,7 +27178,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="890" spans="1:8" ht="45.75" customHeight="1">
+    <row r="890" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="47" t="s">
         <v>876</v>
       </c>
@@ -27202,7 +27202,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="891" spans="1:8" ht="45.75" customHeight="1">
+    <row r="891" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="47" t="s">
         <v>876</v>
       </c>

--- a/static/Itinerarios.xlsx
+++ b/static/Itinerarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Desktop\schedule\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C121D0E8-812B-4D88-BE48-F6042217FE02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508CB870-657E-4163-AAAD-C50C2FC5C737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4946,8 +4944,8 @@
   </sheetPr>
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C699" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J706" sqref="J706"/>
+    <sheetView tabSelected="1" topLeftCell="A388" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H398" sqref="H398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/static/Itinerarios.xlsx
+++ b/static/Itinerarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A502ED-4B59-4DCF-B8E2-150A6B8D1735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D3BFB1A-B88D-4075-9E13-01E6C80CAA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6680" uniqueCount="1082">
   <si>
     <t>NORMA SECTORIAL DE COMPETENCIA LABORAL (En Sofía Plus)</t>
   </si>
@@ -98,7 +98,7 @@
     <t>Desarrollar procesos lógicos a través de la implementación de algoritmos.</t>
   </si>
   <si>
-    <t>Fundamentos BD (Relacional y No Relacional)</t>
+    <t>Fundamentos de BD (Relacional y No Relacional)</t>
   </si>
   <si>
     <t>RAP 2</t>
@@ -501,7 +501,7 @@
     <t>BD Relacionales (MySQL, SQL Server)</t>
   </si>
   <si>
-    <t>Java (POO + Web)</t>
+    <t>Java (POO+Web)</t>
   </si>
   <si>
     <t>CSS, HTML</t>
@@ -2809,7 +2809,7 @@
     <t>PRODUCCIÓN DE UN PROYECTO DE ANIMACIÓN</t>
   </si>
   <si>
-    <t>Animar</t>
+    <t>Animación</t>
   </si>
   <si>
     <t>ALISTAR LOS PERSONAJES Y ELEMENTOS SEGÚN LAS NECESIDADES DEL PROYECTO</t>
@@ -2830,7 +2830,7 @@
     <t>POSTPRODUCCIÓN DEL PROYECTO ANIMADO</t>
   </si>
   <si>
-    <t>Postproducir</t>
+    <t>Postproducción</t>
   </si>
   <si>
     <t>REALIZAR EL RENDER DEL AUDIOVISUAL SEGÚN LOS CRITERIOS TÉCNICOS Y CARACTERÍSTICAS DEL PROYECTO</t>
@@ -2878,7 +2878,7 @@
     <t>COMPOSICIÓN DE IMÁGENES EN MOVIMIENTO DE ACUERDO CON LOS ASPECTOS TÉCNICOS DEL PROYECTO</t>
   </si>
   <si>
-    <t>Imagen</t>
+    <t>Composición</t>
   </si>
   <si>
     <t>IDENTIFICAR LAS PARTES DE LA CÁMARA DE ACUERDO CON EL MANUAL DEL FABRICANTE</t>
@@ -3010,9 +3010,6 @@
     <t>VALIDAR EL STORYBOARD DE ACUERDO CON EL GUION.</t>
   </si>
   <si>
-    <t>Pitch</t>
-  </si>
-  <si>
     <t>EXPONER EL STORYBOARD DE ACUERDO A LAS NECESIDADES DEL PROYECTO Y DEL CONTEXTO.</t>
   </si>
   <si>
@@ -3022,21 +3019,15 @@
     <t>PRODUCE LOS COMPONENTES DE LA ANIMACIÓN</t>
   </si>
   <si>
-    <t>Arte</t>
+    <t>Modelado y Texturizado</t>
   </si>
   <si>
     <t>ILUSTRAR LAS IMÁGENES DE REFERENCIA DE LOS ELEMENTOS A MODELAR SEGÚN LAS NECESIDADES DEL STORYBOARD.</t>
   </si>
   <si>
-    <t>Modelado</t>
-  </si>
-  <si>
     <t>MODELAR LOS ELEMENTOS EN 3D SEGÚN LAS CARACTERÍSTICAS DEL PROYECTO.</t>
   </si>
   <si>
-    <t>Texturizado</t>
-  </si>
-  <si>
     <t>CREAR LAS TEXTURAS Y LOS MATERIALES DE LOS MODELOS 3D DE ACUERDO CON LOS PARÁMETROS</t>
   </si>
   <si>
@@ -3046,43 +3037,25 @@
     <t>ANIMA ELEMENTOS DE LA ESCENA</t>
   </si>
   <si>
-    <t>Rigging</t>
-  </si>
-  <si>
     <t>CONSTRUIR SISTEMAS DE CONTROLES DE MOVIMIENTO SEGÚN LAS CARACTERÍSTICAS DEL MODELO.</t>
   </si>
   <si>
-    <t>Layout</t>
-  </si>
-  <si>
     <t>COMPONER LA ESCENA DE ACUERDO A LO ESTABLECIDO EN EL STORYBOARD.</t>
   </si>
   <si>
-    <t>Animación</t>
-  </si>
-  <si>
     <t>ANIMAR LOS ELEMENTOS 3D EN LA ESCENA DE ACUERDO CON EN EL STORYBOARD.</t>
   </si>
   <si>
     <t>REVISAR LA ESCENA ANIMADA DE ACUERDO CON EL STORYBOARD.</t>
   </si>
   <si>
-    <t xml:space="preserve">ILUMINACIÓN </t>
-  </si>
-  <si>
     <t>ILUMINAR LAS ESCENAS DE ACUERDO A LOS PARÁMETROS DEFINIDOS.</t>
   </si>
   <si>
     <t>REALIZA LA POSTPRODUCCIÓN LA ANIMACIÓN</t>
   </si>
   <si>
-    <t>Render</t>
-  </si>
-  <si>
     <t>GENERAR LAS IMÁGENES QUE CONFORMAN LAS ESCENAS PLANTEADAS EN EL STORYBOARD.</t>
-  </si>
-  <si>
-    <t>VFX</t>
   </si>
   <si>
     <t>CREAR EFECTOS ESPECIALES REQUERIDOS POR EL PROYECTO DE ACUERDO CON EL STORYBOARD.</t>
@@ -3092,9 +3065,6 @@
 STORYBOARD.</t>
   </si>
   <si>
-    <t>Exportación</t>
-  </si>
-  <si>
     <t>EXPORTAR EL CONTENIDO ANIMADO SEGÚN LA PLATAFORMA DE DISTRIBUCIÓN.</t>
   </si>
   <si>
@@ -3149,6 +3119,9 @@
     <t>Implementación de los recursos audiovisuales del videojuego.</t>
   </si>
   <si>
+    <t>Arte</t>
+  </si>
+  <si>
     <t>PREPARAR LOS RECURSOS GRÁFICOS Y SONOROS A IMPLEMENTAR DE ACUERDO CON EL DOCUMENTO DE DISEÑO DEL VIDEOJUEGO</t>
   </si>
   <si>
@@ -3183,9 +3156,6 @@
   </si>
   <si>
     <t>ELABORACION DE LIBRETOS Y GUIONES AUDIOVISUALES</t>
-  </si>
-  <si>
-    <t>GUIONES</t>
   </si>
   <si>
     <t>ESCRIBIR LOS LIBRETOS Y/O GUIONES TENIENDO EN CUENTA LAS CARACTERÍSTICAS DEL PROYECTO
@@ -3212,7 +3182,7 @@
     <t>GESTIÓN DE LOS RECURSOS DE LA PRODUCCIÓN AUDIOVISUAL</t>
   </si>
   <si>
-    <t>PRODUCCIÓN</t>
+    <t>Producción</t>
   </si>
   <si>
     <t>EVALUAR EL PLAN DE PRODUCCIÓN, DE ACUERDO CON EL GÉNERO Y A LA CALIDAD EXIGIDA POR EL</t>
@@ -3228,9 +3198,6 @@
   </si>
   <si>
     <t>REGISTRO DE MATERIAL AUDIOVISUAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÁMARA </t>
   </si>
   <si>
     <t>CAPTURAR IMÁGENES DE DIFERENTES GÉNEROS AUDIOVISUALES SEGÚN LOS FORMATOS DE GRABACIÓN</t>
@@ -3270,7 +3237,7 @@
     <t>DISEÑO DE AMBIENTES DE GRABACION AUDIOVISUAL</t>
   </si>
   <si>
-    <t xml:space="preserve">Ambientación y Escenografia </t>
+    <t xml:space="preserve">Ambientación y Escenografía </t>
   </si>
   <si>
     <t>EVALUAR LAS LOCACIONES Y LOS ESPACIOS DE GRABACIÓN ACORDE A LOS REQUERIMIENTOS DEL PROYECTO AUDIOVISUAL</t>
@@ -3288,9 +3255,6 @@
     <t>GRABACION DE MATERIAL SONORO</t>
   </si>
   <si>
-    <t>SONIDO</t>
-  </si>
-  <si>
     <t>VERIFICAR EL MATERIAL SONORO DE ACUERDO CON ESTÁNDARES TÉCNICOS DE PRODUCCIÓN.</t>
   </si>
   <si>
@@ -3306,9 +3270,6 @@
     <t>EDICIÓN DE CONTENIDOS AUDIOVISUALES</t>
   </si>
   <si>
-    <t>EDICIÓN</t>
-  </si>
-  <si>
     <t>VERIFICAR LAS PISTAS DE AUDIO Y VIDEO DE ACUERDO CON LOS LINEAMIENTOS DEL PROYECTO</t>
   </si>
   <si>
@@ -3441,72 +3402,48 @@
     <t>INTEGRAR ELEMENTOS MULTIMEDIA DE ACUERDO CON TÉCNICAS Y HERRAMIENTAS DE PRODUCCIÓN DIGITAL</t>
   </si>
   <si>
+    <t>Integración</t>
+  </si>
+  <si>
     <t>01. RECONOCER ELEMENTOS Y SOFTWARE DE COMPOSICIÓN A UTILIZAR DE ACUERDO CON LOS REQUERIMIENTOS DEL PROYECTO.</t>
   </si>
   <si>
     <t>03. ESTRUCTURAR LOS ELEMENTOS DEL PROYECTO TENIENDO EN CUENTA SOFTWARE DE COMPOSICIÓN.</t>
   </si>
   <si>
-    <t>CGI</t>
-  </si>
-  <si>
     <t>02. INCORPORAR LOS RECURSOS REQUERIDOS PARA EL DESARROLLO DE LA COMPOSICIÓN DE ACUERDO A LAS NECESIDADES DEL PROYECTO.</t>
   </si>
   <si>
-    <t>Compositing 1</t>
-  </si>
-  <si>
     <t>04. VERIFICAR EL FUNCIONAMIENTO DE LOS ELEMENTOS A INCORPORAR EN EL PROYECTO TENIENDO EN CUENTA NECESIDADES.</t>
   </si>
   <si>
     <t>ANIMAR EL CONTENIDO DE ACUERDO CON TÉCNICAS Y PROYECTO AUDIOVISUAL</t>
   </si>
   <si>
-    <t>Máscaras</t>
-  </si>
-  <si>
-    <t>01. RECONOCER MÁSCARAS DE ACUERDO CON L A COMPOSICIÓN DEL PROYECTO</t>
+    <t>01. RECONOCER MÁSCARAS DE ACUERDO CON LA COMPOSICIÓN DEL PROYECTO</t>
   </si>
   <si>
     <t>02. REALIZAR ANIMACIÓN DE LOS ELEMENTOS SEGÚN EL STORYBOARD Y LOS PRINCIPIOS DE ANIMACIÓN.</t>
   </si>
   <si>
-    <t>Tracking</t>
-  </si>
-  <si>
     <t>03. GENERAR EL TRACKING DE CÁMARA SEGÚN PARÁMETROS DEL  PROYECTO.</t>
   </si>
   <si>
-    <t>Rotoscopia</t>
-  </si>
-  <si>
     <t>04. APLICAR ROTOSCOPIA DE ELEMENTOS SEGÚN REQUERIMIENTOS DEL PROYECTO.</t>
   </si>
   <si>
     <t>EDITAR CONTENIDO AUDIOVISUAL DE ACUERDO CON PARÁMETROS TÉCNICOS Y TÉCNICAS DE PRODUCCIÓN</t>
   </si>
   <si>
-    <t>Chroma key</t>
-  </si>
-  <si>
     <t>01. COMPRENDER LA APLICACIÓN DE  CHROMA KEY AL MATERIAL SELECCIONADO DE ACUERDO  CON REQUERIMIENTOS DEL PROYECTO.</t>
   </si>
   <si>
-    <t>Matte Painting</t>
-  </si>
-  <si>
     <t>02. INCORPORAR  MATTE PAINTING A LA COMPOSICIÓN DE ACUERDO A LOS REQUERIMIENTOS DEL</t>
   </si>
   <si>
-    <t>Compositing 2</t>
-  </si>
-  <si>
     <t>03. ADAPTAR LAS CAPAS  EN EL ENTORNO TRIDIMENSIONAL DE LA COMPOSICIÓN TENIENDO EN CUENTA REQUERIMIENTOS DEL PROYECTO.</t>
   </si>
   <si>
-    <t>VFX 1</t>
-  </si>
-  <si>
     <t>04. APLICAR LOS EFECTOS VISUALES NECESARIOS DE LAS CAPAS AL ENTORNO ATMOSFÉRICO DE LA COMPOSICIÓN.</t>
   </si>
   <si>
@@ -3516,19 +3453,10 @@
     <t>01. COMPRENDER LA CORRECCIÓN DE LA ILUMINACIÓN DEL PLANO SEGÚN NECESIDAD ENTORNO DE TRABAJO DEL PROYECTO.</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>02. AJUSTAR PARÁMETROS DE COLOR AL ENTORNO DE LA COMPOSCIÓN.</t>
   </si>
   <si>
-    <t>VFX2</t>
-  </si>
-  <si>
     <t>03. AÑADIR LOS EFECTOS VISUALES SEGÚN EL STORYBOARD Y PROCEDIMIENTOS TÉCNICOS.</t>
-  </si>
-  <si>
-    <t>Exportar</t>
   </si>
   <si>
     <t>04. EXPORTAR EL PROYECTO TENIENDO EN CUENTO PARÁMETROS DE ENTREGA Y DEL FLUJO DEL TRABAJO.</t>
@@ -4061,7 +3989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4569,19 +4497,29 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4599,9 +4537,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4916,8 +4851,8 @@
   </sheetPr>
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -6883,13 +6818,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A76" s="225" t="s">
+      <c r="A76" s="227" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="227" t="s">
+      <c r="B76" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="C76" s="227" t="s">
+      <c r="C76" s="229" t="s">
         <v>157</v>
       </c>
       <c r="D76" s="37" t="s">
@@ -6909,9 +6844,9 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A77" s="226"/>
-      <c r="B77" s="228"/>
-      <c r="C77" s="228"/>
+      <c r="A77" s="228"/>
+      <c r="B77" s="230"/>
+      <c r="C77" s="230"/>
       <c r="D77" s="37" t="s">
         <v>20</v>
       </c>
@@ -9905,7 +9840,7 @@
       <c r="D192" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E192" s="231" t="s">
+      <c r="E192" s="222" t="s">
         <v>348</v>
       </c>
       <c r="F192" s="37" t="s">
@@ -16125,7 +16060,7 @@
       <c r="F431" s="73" t="s">
         <v>615</v>
       </c>
-      <c r="G431" s="229" t="s">
+      <c r="G431" s="231" t="s">
         <v>11</v>
       </c>
       <c r="H431" s="73" t="s">
@@ -16151,7 +16086,7 @@
       <c r="F432" s="73" t="s">
         <v>615</v>
       </c>
-      <c r="G432" s="230"/>
+      <c r="G432" s="232"/>
       <c r="H432" s="73" t="s">
         <v>616</v>
       </c>
@@ -22790,10 +22725,10 @@
       <c r="A708" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="B708" s="11" t="s">
+      <c r="B708" s="18" t="s">
         <v>762</v>
       </c>
-      <c r="C708" s="11" t="s">
+      <c r="C708" s="18" t="s">
         <v>763</v>
       </c>
       <c r="D708" s="190" t="s">
@@ -22811,13 +22746,13 @@
       </c>
     </row>
     <row r="709" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A709" s="47" t="s">
+      <c r="A709" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B709" s="19" t="s">
+      <c r="B709" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C709" s="19" t="s">
+      <c r="C709" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D709" s="191" t="s">
@@ -22835,13 +22770,13 @@
       </c>
     </row>
     <row r="710" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A710" s="47" t="s">
+      <c r="A710" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B710" s="19" t="s">
+      <c r="B710" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C710" s="19" t="s">
+      <c r="C710" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D710" s="191" t="s">
@@ -22859,13 +22794,13 @@
       </c>
     </row>
     <row r="711" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A711" s="47" t="s">
+      <c r="A711" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B711" s="19" t="s">
+      <c r="B711" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C711" s="19" t="s">
+      <c r="C711" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D711" s="191" t="s">
@@ -22883,13 +22818,13 @@
       </c>
     </row>
     <row r="712" spans="1:8" ht="15" customHeight="1">
-      <c r="A712" s="47" t="s">
+      <c r="A712" s="196" t="s">
         <v>823</v>
       </c>
-      <c r="B712" s="40" t="s">
+      <c r="B712" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C712" s="40" t="s">
+      <c r="C712" s="23" t="s">
         <v>550</v>
       </c>
       <c r="D712" s="191" t="s">
@@ -22907,13 +22842,13 @@
       </c>
     </row>
     <row r="713" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A713" s="47" t="s">
+      <c r="A713" s="196" t="s">
         <v>823</v>
       </c>
-      <c r="B713" s="40" t="s">
+      <c r="B713" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C713" s="40" t="s">
+      <c r="C713" s="23" t="s">
         <v>550</v>
       </c>
       <c r="D713" s="191" t="s">
@@ -22931,13 +22866,13 @@
       </c>
     </row>
     <row r="714" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A714" s="47" t="s">
+      <c r="A714" s="196" t="s">
         <v>823</v>
       </c>
-      <c r="B714" s="40" t="s">
+      <c r="B714" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C714" s="40" t="s">
+      <c r="C714" s="23" t="s">
         <v>550</v>
       </c>
       <c r="D714" s="191" t="s">
@@ -22955,13 +22890,13 @@
       </c>
     </row>
     <row r="715" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A715" s="47" t="s">
+      <c r="A715" s="196" t="s">
         <v>823</v>
       </c>
-      <c r="B715" s="40" t="s">
+      <c r="B715" s="23" t="s">
         <v>824</v>
       </c>
-      <c r="C715" s="40" t="s">
+      <c r="C715" s="23" t="s">
         <v>550</v>
       </c>
       <c r="D715" s="191" t="s">
@@ -22979,13 +22914,13 @@
       </c>
     </row>
     <row r="716" spans="1:8" ht="15" customHeight="1">
-      <c r="A716" s="47" t="s">
+      <c r="A716" s="196" t="s">
         <v>829</v>
       </c>
-      <c r="B716" s="19" t="s">
+      <c r="B716" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C716" s="19" t="s">
+      <c r="C716" s="23" t="s">
         <v>831</v>
       </c>
       <c r="D716" s="191" t="s">
@@ -23003,13 +22938,13 @@
       </c>
     </row>
     <row r="717" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A717" s="47" t="s">
+      <c r="A717" s="196" t="s">
         <v>829</v>
       </c>
-      <c r="B717" s="19" t="s">
+      <c r="B717" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C717" s="19" t="s">
+      <c r="C717" s="23" t="s">
         <v>831</v>
       </c>
       <c r="D717" s="191" t="s">
@@ -23027,13 +22962,13 @@
       </c>
     </row>
     <row r="718" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A718" s="47" t="s">
+      <c r="A718" s="196" t="s">
         <v>829</v>
       </c>
-      <c r="B718" s="19" t="s">
+      <c r="B718" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C718" s="19" t="s">
+      <c r="C718" s="23" t="s">
         <v>831</v>
       </c>
       <c r="D718" s="191" t="s">
@@ -23051,13 +22986,13 @@
       </c>
     </row>
     <row r="719" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A719" s="47" t="s">
+      <c r="A719" s="196" t="s">
         <v>829</v>
       </c>
-      <c r="B719" s="19" t="s">
+      <c r="B719" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="C719" s="19" t="s">
+      <c r="C719" s="23" t="s">
         <v>831</v>
       </c>
       <c r="D719" s="191" t="s">
@@ -23075,13 +23010,13 @@
       </c>
     </row>
     <row r="720" spans="1:8" ht="15" customHeight="1">
-      <c r="A720" s="47" t="s">
+      <c r="A720" s="196" t="s">
         <v>836</v>
       </c>
-      <c r="B720" s="19" t="s">
+      <c r="B720" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C720" s="19" t="s">
+      <c r="C720" s="23" t="s">
         <v>838</v>
       </c>
       <c r="D720" s="191" t="s">
@@ -23099,13 +23034,13 @@
       </c>
     </row>
     <row r="721" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A721" s="47" t="s">
+      <c r="A721" s="196" t="s">
         <v>836</v>
       </c>
-      <c r="B721" s="19" t="s">
+      <c r="B721" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C721" s="19" t="s">
+      <c r="C721" s="23" t="s">
         <v>838</v>
       </c>
       <c r="D721" s="191" t="s">
@@ -23123,13 +23058,13 @@
       </c>
     </row>
     <row r="722" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A722" s="47" t="s">
+      <c r="A722" s="196" t="s">
         <v>836</v>
       </c>
-      <c r="B722" s="19" t="s">
+      <c r="B722" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C722" s="19" t="s">
+      <c r="C722" s="23" t="s">
         <v>838</v>
       </c>
       <c r="D722" s="191" t="s">
@@ -23147,13 +23082,13 @@
       </c>
     </row>
     <row r="723" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A723" s="47" t="s">
+      <c r="A723" s="196" t="s">
         <v>836</v>
       </c>
-      <c r="B723" s="19" t="s">
+      <c r="B723" s="23" t="s">
         <v>837</v>
       </c>
-      <c r="C723" s="19" t="s">
+      <c r="C723" s="23" t="s">
         <v>838</v>
       </c>
       <c r="D723" s="191" t="s">
@@ -23171,13 +23106,13 @@
       </c>
     </row>
     <row r="724" spans="1:8" ht="15" customHeight="1">
-      <c r="A724" s="47" t="s">
+      <c r="A724" s="196" t="s">
         <v>843</v>
       </c>
-      <c r="B724" s="19" t="s">
+      <c r="B724" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C724" s="19" t="s">
+      <c r="C724" s="23" t="s">
         <v>845</v>
       </c>
       <c r="D724" s="191" t="s">
@@ -23195,13 +23130,13 @@
       </c>
     </row>
     <row r="725" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A725" s="47" t="s">
+      <c r="A725" s="196" t="s">
         <v>843</v>
       </c>
-      <c r="B725" s="19" t="s">
+      <c r="B725" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C725" s="19" t="s">
+      <c r="C725" s="23" t="s">
         <v>845</v>
       </c>
       <c r="D725" s="191" t="s">
@@ -23219,13 +23154,13 @@
       </c>
     </row>
     <row r="726" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A726" s="47" t="s">
+      <c r="A726" s="196" t="s">
         <v>843</v>
       </c>
-      <c r="B726" s="19" t="s">
+      <c r="B726" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C726" s="19" t="s">
+      <c r="C726" s="23" t="s">
         <v>845</v>
       </c>
       <c r="D726" s="191" t="s">
@@ -23243,13 +23178,13 @@
       </c>
     </row>
     <row r="727" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A727" s="47" t="s">
+      <c r="A727" s="196" t="s">
         <v>843</v>
       </c>
-      <c r="B727" s="19" t="s">
+      <c r="B727" s="23" t="s">
         <v>844</v>
       </c>
-      <c r="C727" s="19" t="s">
+      <c r="C727" s="23" t="s">
         <v>845</v>
       </c>
       <c r="D727" s="191" t="s">
@@ -23267,13 +23202,13 @@
       </c>
     </row>
     <row r="728" spans="1:8" ht="32.25">
-      <c r="A728" s="47" t="s">
+      <c r="A728" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B728" s="19" t="s">
+      <c r="B728" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C728" s="19" t="s">
+      <c r="C728" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D728" s="190" t="s">
@@ -23291,13 +23226,13 @@
       </c>
     </row>
     <row r="729" spans="1:8" ht="48.75" customHeight="1">
-      <c r="A729" s="47" t="s">
+      <c r="A729" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B729" s="19" t="s">
+      <c r="B729" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C729" s="19" t="s">
+      <c r="C729" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D729" s="190" t="s">
@@ -23315,13 +23250,13 @@
       </c>
     </row>
     <row r="730" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A730" s="47" t="s">
+      <c r="A730" s="196" t="s">
         <v>817</v>
       </c>
-      <c r="B730" s="19" t="s">
+      <c r="B730" s="23" t="s">
         <v>818</v>
       </c>
-      <c r="C730" s="19" t="s">
+      <c r="C730" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D730" s="190" t="s">
@@ -23339,13 +23274,13 @@
       </c>
     </row>
     <row r="731" spans="1:8" ht="15" customHeight="1">
-      <c r="A731" s="47" t="s">
+      <c r="A731" s="196" t="s">
         <v>851</v>
       </c>
-      <c r="B731" s="40" t="s">
+      <c r="B731" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C731" s="40" t="s">
+      <c r="C731" s="23" t="s">
         <v>853</v>
       </c>
       <c r="D731" s="190" t="s">
@@ -23363,13 +23298,13 @@
       </c>
     </row>
     <row r="732" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A732" s="47" t="s">
+      <c r="A732" s="196" t="s">
         <v>851</v>
       </c>
-      <c r="B732" s="40" t="s">
+      <c r="B732" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C732" s="40" t="s">
+      <c r="C732" s="23" t="s">
         <v>853</v>
       </c>
       <c r="D732" s="190" t="s">
@@ -23387,13 +23322,13 @@
       </c>
     </row>
     <row r="733" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A733" s="47" t="s">
+      <c r="A733" s="196" t="s">
         <v>851</v>
       </c>
-      <c r="B733" s="40" t="s">
+      <c r="B733" s="23" t="s">
         <v>852</v>
       </c>
-      <c r="C733" s="40" t="s">
+      <c r="C733" s="23" t="s">
         <v>853</v>
       </c>
       <c r="D733" s="190" t="s">
@@ -23890,7 +23825,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="15" customHeight="1">
+    <row r="754" spans="1:8" ht="42.75" customHeight="1">
       <c r="A754" s="196" t="s">
         <v>888</v>
       </c>
@@ -23986,8 +23921,8 @@
         <v>887</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="15" customHeight="1">
-      <c r="A758" s="220" t="s">
+    <row r="758" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A758" s="219" t="s">
         <v>895</v>
       </c>
       <c r="B758" s="23" t="s">
@@ -24299,7 +24234,7 @@
       </c>
     </row>
     <row r="771" spans="1:8" ht="15" customHeight="1">
-      <c r="A771" s="220" t="s">
+      <c r="A771" s="219" t="s">
         <v>917</v>
       </c>
       <c r="B771" s="23" t="s">
@@ -24594,7 +24529,7 @@
         <v>852</v>
       </c>
       <c r="C783" s="23" t="s">
-        <v>853</v>
+        <v>930</v>
       </c>
       <c r="D783" s="190" t="s">
         <v>20</v>
@@ -24618,7 +24553,7 @@
         <v>852</v>
       </c>
       <c r="C784" s="23" t="s">
-        <v>853</v>
+        <v>930</v>
       </c>
       <c r="D784" s="190" t="s">
         <v>11</v>
@@ -24642,13 +24577,13 @@
         <v>852</v>
       </c>
       <c r="C785" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="D785" s="190" t="s">
+        <v>35</v>
+      </c>
+      <c r="E785" s="11" t="s">
         <v>934</v>
-      </c>
-      <c r="D785" s="190" t="s">
-        <v>35</v>
-      </c>
-      <c r="E785" s="11" t="s">
-        <v>935</v>
       </c>
       <c r="F785" s="37" t="s">
         <v>929</v>
@@ -24658,21 +24593,21 @@
         <v>929</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="15" customHeight="1">
+    <row r="786" spans="1:8" ht="39.75" customHeight="1">
       <c r="A786" s="196" t="s">
+        <v>935</v>
+      </c>
+      <c r="B786" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="B786" s="23" t="s">
+      <c r="C786" s="226" t="s">
         <v>937</v>
       </c>
-      <c r="C786" s="39" t="s">
+      <c r="D786" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E786" s="11" t="s">
         <v>938</v>
-      </c>
-      <c r="D786" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E786" s="11" t="s">
-        <v>939</v>
       </c>
       <c r="F786" s="37" t="s">
         <v>929</v>
@@ -24684,19 +24619,19 @@
     </row>
     <row r="787" spans="1:8" ht="30.75" customHeight="1">
       <c r="A787" s="196" t="s">
+        <v>935</v>
+      </c>
+      <c r="B787" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="B787" s="23" t="s">
+      <c r="C787" s="226" t="s">
         <v>937</v>
       </c>
-      <c r="C787" s="39" t="s">
-        <v>940</v>
-      </c>
       <c r="D787" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E787" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F787" s="37" t="s">
         <v>929</v>
@@ -24708,19 +24643,19 @@
     </row>
     <row r="788" spans="1:8" ht="32.25" customHeight="1">
       <c r="A788" s="196" t="s">
+        <v>935</v>
+      </c>
+      <c r="B788" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="B788" s="23" t="s">
+      <c r="C788" s="226" t="s">
         <v>937</v>
       </c>
-      <c r="C788" s="39" t="s">
-        <v>942</v>
-      </c>
       <c r="D788" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E788" s="11" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F788" s="37" t="s">
         <v>929</v>
@@ -24732,19 +24667,19 @@
     </row>
     <row r="789" spans="1:8" ht="30.75" customHeight="1">
       <c r="A789" s="196" t="s">
+        <v>935</v>
+      </c>
+      <c r="B789" s="23" t="s">
         <v>936</v>
       </c>
-      <c r="B789" s="23" t="s">
+      <c r="C789" s="226" t="s">
         <v>937</v>
       </c>
-      <c r="C789" s="39" t="s">
-        <v>940</v>
-      </c>
       <c r="D789" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E789" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="F789" s="37" t="s">
         <v>929</v>
@@ -24759,16 +24694,16 @@
         <v>865</v>
       </c>
       <c r="B790" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C790" s="39" t="s">
-        <v>946</v>
+        <v>867</v>
       </c>
       <c r="D790" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E790" s="11" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F790" s="37" t="s">
         <v>929</v>
@@ -24783,16 +24718,16 @@
         <v>865</v>
       </c>
       <c r="B791" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C791" s="39" t="s">
-        <v>948</v>
+        <v>867</v>
       </c>
       <c r="D791" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E791" s="10" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="F791" s="37" t="s">
         <v>929</v>
@@ -24807,16 +24742,16 @@
         <v>865</v>
       </c>
       <c r="B792" s="23" t="s">
+        <v>942</v>
+      </c>
+      <c r="C792" s="39" t="s">
+        <v>867</v>
+      </c>
+      <c r="D792" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E792" s="11" t="s">
         <v>945</v>
-      </c>
-      <c r="C792" s="39" t="s">
-        <v>950</v>
-      </c>
-      <c r="D792" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E792" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="F792" s="37" t="s">
         <v>929</v>
@@ -24831,16 +24766,16 @@
         <v>865</v>
       </c>
       <c r="B793" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C793" s="39" t="s">
-        <v>950</v>
+        <v>867</v>
       </c>
       <c r="D793" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E793" s="10" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F793" s="37" t="s">
         <v>929</v>
@@ -24855,16 +24790,16 @@
         <v>865</v>
       </c>
       <c r="B794" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C794" s="39" t="s">
-        <v>953</v>
+        <v>867</v>
       </c>
       <c r="D794" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E794" s="10" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="F794" s="37" t="s">
         <v>929</v>
@@ -24874,21 +24809,21 @@
         <v>929</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="15" customHeight="1">
+    <row r="795" spans="1:8" ht="40.5" customHeight="1">
       <c r="A795" s="196" t="s">
         <v>876</v>
       </c>
       <c r="B795" s="23" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C795" s="39" t="s">
-        <v>956</v>
+        <v>874</v>
       </c>
       <c r="D795" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E795" s="11" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="F795" s="37" t="s">
         <v>929</v>
@@ -24903,16 +24838,16 @@
         <v>876</v>
       </c>
       <c r="B796" s="23" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C796" s="39" t="s">
-        <v>958</v>
+        <v>874</v>
       </c>
       <c r="D796" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E796" s="11" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F796" s="37" t="s">
         <v>929</v>
@@ -24927,16 +24862,16 @@
         <v>876</v>
       </c>
       <c r="B797" s="23" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C797" s="39" t="s">
-        <v>919</v>
+        <v>874</v>
       </c>
       <c r="D797" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E797" s="11" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="F797" s="37" t="s">
         <v>929</v>
@@ -24951,16 +24886,16 @@
         <v>876</v>
       </c>
       <c r="B798" s="23" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="C798" s="39" t="s">
-        <v>961</v>
+        <v>874</v>
       </c>
       <c r="D798" s="204" t="s">
         <v>35</v>
       </c>
       <c r="E798" s="18" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="F798" s="204" t="s">
         <v>929</v>
@@ -24971,7 +24906,7 @@
       </c>
     </row>
     <row r="799" spans="1:8" ht="32.25">
-      <c r="A799" s="220" t="s">
+      <c r="A799" s="219" t="s">
         <v>817</v>
       </c>
       <c r="B799" s="23" t="s">
@@ -24987,11 +24922,11 @@
         <v>819</v>
       </c>
       <c r="F799" s="206" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G799" s="189"/>
       <c r="H799" s="207" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="800" spans="1:8" ht="48.75" customHeight="1">
@@ -25011,11 +24946,11 @@
         <v>821</v>
       </c>
       <c r="F800" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G800" s="189"/>
       <c r="H800" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="801" spans="1:8" ht="32.25" customHeight="1">
@@ -25035,395 +24970,395 @@
         <v>822</v>
       </c>
       <c r="F801" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G801" s="189"/>
       <c r="H801" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="802" spans="1:8" ht="15" customHeight="1">
       <c r="A802" s="202" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B802" s="23" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C802" s="23" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D802" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E802" s="29" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="F802" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G802" s="189"/>
       <c r="H802" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="803" spans="1:8" ht="32.25" customHeight="1">
       <c r="A803" s="202" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B803" s="23" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C803" s="23" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D803" s="208" t="s">
         <v>20</v>
       </c>
       <c r="E803" s="29" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="F803" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G803" s="189"/>
       <c r="H803" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="804" spans="1:8" ht="32.25" customHeight="1">
       <c r="A804" s="202" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B804" s="23" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C804" s="23" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D804" s="208" t="s">
         <v>11</v>
       </c>
       <c r="E804" s="29" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="F804" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G804" s="189"/>
       <c r="H804" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="805" spans="1:8" ht="32.25" customHeight="1">
       <c r="A805" s="202" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="B805" s="23" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="C805" s="23" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="D805" s="208" t="s">
         <v>35</v>
       </c>
       <c r="E805" s="29" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="F805" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G805" s="189"/>
       <c r="H805" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="806" spans="1:8" ht="15" customHeight="1">
       <c r="A806" s="202" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B806" s="23" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C806" s="23" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D806" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E806" s="29" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="F806" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G806" s="189"/>
       <c r="H806" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="807" spans="1:8" ht="32.25" customHeight="1">
       <c r="A807" s="202" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B807" s="23" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C807" s="23" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D807" s="208" t="s">
         <v>20</v>
       </c>
       <c r="E807" s="29" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="F807" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G807" s="189"/>
       <c r="H807" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="808" spans="1:8" ht="32.25" customHeight="1">
       <c r="A808" s="202" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B808" s="23" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C808" s="23" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D808" s="208" t="s">
         <v>11</v>
       </c>
       <c r="E808" s="29" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="F808" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G808" s="189"/>
       <c r="H808" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="809" spans="1:8" ht="30.75" customHeight="1">
       <c r="A809" s="202" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="B809" s="23" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="C809" s="23" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="D809" s="208" t="s">
         <v>35</v>
       </c>
       <c r="E809" s="29" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="F809" s="208" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G809" s="189"/>
       <c r="H809" s="209" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="810" spans="1:8" ht="15" customHeight="1">
       <c r="A810" s="196" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B810" s="23" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C810" s="39" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="D810" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E810" s="11" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="F810" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G810" s="189"/>
       <c r="H810" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="811" spans="1:8" ht="45.75" customHeight="1">
       <c r="A811" s="196" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B811" s="23" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C811" s="39" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="D811" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E811" s="11" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F811" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G811" s="189"/>
       <c r="H811" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="812" spans="1:8" ht="45.75" customHeight="1">
       <c r="A812" s="196" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B812" s="23" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C812" s="39" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="D812" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E812" s="11" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="F812" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G812" s="189"/>
       <c r="H812" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="813" spans="1:8" ht="45.75" customHeight="1">
       <c r="A813" s="196" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="B813" s="23" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="C813" s="39" t="s">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="D813" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E813" s="11" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="F813" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G813" s="189"/>
       <c r="H813" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="814" spans="1:8" ht="15" customHeight="1">
       <c r="A814" s="196" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B814" s="23" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C814" s="23" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D814" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E814" s="11" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F814" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G814" s="189"/>
       <c r="H814" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="815" spans="1:8" ht="45.75" customHeight="1">
       <c r="A815" s="196" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B815" s="23" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C815" s="23" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D815" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E815" s="11" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="F815" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G815" s="189"/>
       <c r="H815" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="816" spans="1:8" ht="45.75" customHeight="1">
       <c r="A816" s="196" t="s">
-        <v>984</v>
-      </c>
-      <c r="B816" s="23" t="s">
-        <v>985</v>
-      </c>
-      <c r="C816" s="23" t="s">
-        <v>986</v>
+        <v>975</v>
+      </c>
+      <c r="B816" s="27" t="s">
+        <v>976</v>
+      </c>
+      <c r="C816" s="27" t="s">
+        <v>977</v>
       </c>
       <c r="D816" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E816" s="11" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="F816" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G816" s="189"/>
       <c r="H816" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="817" spans="1:8" ht="45.75" customHeight="1">
       <c r="A817" s="196" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B817" s="23" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="C817" s="23" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="D817" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E817" s="11" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="F817" s="43" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="G817" s="189"/>
       <c r="H817" s="192" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="818" spans="1:8" ht="15" customHeight="1">
@@ -25431,23 +25366,23 @@
         <v>823</v>
       </c>
       <c r="B818" s="23" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C818" s="23" t="s">
-        <v>992</v>
+        <v>550</v>
       </c>
       <c r="D818" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E818" s="11" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="F818" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G818" s="189"/>
       <c r="H818" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="819" spans="1:8" ht="48.75" customHeight="1">
@@ -25455,23 +25390,23 @@
         <v>823</v>
       </c>
       <c r="B819" s="23" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C819" s="23" t="s">
-        <v>992</v>
+        <v>550</v>
       </c>
       <c r="D819" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E819" s="11" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="F819" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G819" s="189"/>
       <c r="H819" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="820" spans="1:8" ht="32.25" customHeight="1">
@@ -25479,23 +25414,23 @@
         <v>823</v>
       </c>
       <c r="B820" s="23" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C820" s="23" t="s">
-        <v>992</v>
+        <v>550</v>
       </c>
       <c r="D820" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E820" s="11" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="F820" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G820" s="189"/>
       <c r="H820" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="821" spans="1:8" ht="48.75" customHeight="1">
@@ -25503,119 +25438,119 @@
         <v>823</v>
       </c>
       <c r="B821" s="23" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="C821" s="23" t="s">
-        <v>992</v>
+        <v>550</v>
       </c>
       <c r="D821" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E821" s="11" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="F821" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G821" s="189"/>
       <c r="H821" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="822" spans="1:8" ht="15" customHeight="1">
       <c r="A822" s="196" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B822" s="23" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C822" s="23" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D822" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E822" s="11" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="F822" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G822" s="189"/>
       <c r="H822" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="823" spans="1:8" ht="45.75" customHeight="1">
       <c r="A823" s="196" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B823" s="23" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C823" s="23" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D823" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E823" s="11" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="F823" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G823" s="189"/>
       <c r="H823" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="824" spans="1:8" ht="45.75" customHeight="1">
       <c r="A824" s="196" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B824" s="23" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C824" s="23" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D824" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E824" s="11" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="F824" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G824" s="189"/>
       <c r="H824" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="825" spans="1:8" ht="48.75" customHeight="1">
       <c r="A825" s="196" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B825" s="23" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="C825" s="23" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D825" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E825" s="11" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="F825" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G825" s="189"/>
       <c r="H825" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="826" spans="1:8" ht="15" customHeight="1">
@@ -25623,23 +25558,23 @@
         <v>888</v>
       </c>
       <c r="B826" s="23" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C826" s="23" t="s">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="D826" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E826" s="11" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="F826" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G826" s="189"/>
       <c r="H826" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="827" spans="1:8" ht="45.75" customHeight="1">
@@ -25647,23 +25582,23 @@
         <v>888</v>
       </c>
       <c r="B827" s="23" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C827" s="23" t="s">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="D827" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E827" s="11" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="F827" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G827" s="189"/>
       <c r="H827" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="828" spans="1:8" ht="48.75" customHeight="1">
@@ -25671,23 +25606,23 @@
         <v>888</v>
       </c>
       <c r="B828" s="23" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C828" s="23" t="s">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="D828" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E828" s="11" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F828" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G828" s="189"/>
       <c r="H828" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="829" spans="1:8" ht="48.75" customHeight="1">
@@ -25695,23 +25630,23 @@
         <v>888</v>
       </c>
       <c r="B829" s="23" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="C829" s="23" t="s">
-        <v>1006</v>
+        <v>831</v>
       </c>
       <c r="D829" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E829" s="11" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="F829" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G829" s="189"/>
       <c r="H829" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="830" spans="1:8" ht="15" customHeight="1">
@@ -25719,23 +25654,23 @@
         <v>903</v>
       </c>
       <c r="B830" s="23" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C830" s="23" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="D830" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E830" s="11" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="F830" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G830" s="189"/>
       <c r="H830" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="831" spans="1:8" ht="32.25" customHeight="1">
@@ -25743,23 +25678,23 @@
         <v>903</v>
       </c>
       <c r="B831" s="23" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C831" s="23" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="D831" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E831" s="11" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="F831" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G831" s="189"/>
       <c r="H831" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="832" spans="1:8" ht="48.75" customHeight="1">
@@ -25767,23 +25702,23 @@
         <v>903</v>
       </c>
       <c r="B832" s="23" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C832" s="23" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="D832" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E832" s="11" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="F832" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G832" s="189"/>
       <c r="H832" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="833" spans="1:8" ht="48.75" customHeight="1">
@@ -25791,119 +25726,119 @@
         <v>903</v>
       </c>
       <c r="B833" s="23" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="C833" s="23" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="D833" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E833" s="11" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="F833" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G833" s="189"/>
       <c r="H833" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="834" spans="1:8" ht="15" customHeight="1">
       <c r="A834" s="196" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B834" s="23" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C834" s="23" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D834" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E834" s="11" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F834" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G834" s="189"/>
       <c r="H834" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="835" spans="1:8" ht="45.75" customHeight="1">
       <c r="A835" s="196" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B835" s="23" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C835" s="23" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D835" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E835" s="11" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="F835" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G835" s="189"/>
       <c r="H835" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="836" spans="1:8" ht="45.75" customHeight="1">
       <c r="A836" s="196" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B836" s="23" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C836" s="23" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D836" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E836" s="11" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="F836" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G836" s="189"/>
       <c r="H836" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="837" spans="1:8" ht="45.75" customHeight="1">
       <c r="A837" s="196" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B837" s="23" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C837" s="23" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="D837" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E837" s="11" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="F837" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G837" s="189"/>
       <c r="H837" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="838" spans="1:8" ht="15" customHeight="1">
@@ -25911,23 +25846,23 @@
         <v>836</v>
       </c>
       <c r="B838" s="23" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C838" s="23" t="s">
-        <v>1024</v>
+        <v>838</v>
       </c>
       <c r="D838" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E838" s="11" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="F838" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G838" s="189"/>
       <c r="H838" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="839" spans="1:8" ht="32.25" customHeight="1">
@@ -25935,23 +25870,23 @@
         <v>836</v>
       </c>
       <c r="B839" s="23" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C839" s="23" t="s">
-        <v>1024</v>
+        <v>838</v>
       </c>
       <c r="D839" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E839" s="11" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="F839" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G839" s="189"/>
       <c r="H839" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="840" spans="1:8" ht="32.25" customHeight="1">
@@ -25959,23 +25894,23 @@
         <v>836</v>
       </c>
       <c r="B840" s="23" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C840" s="23" t="s">
-        <v>1024</v>
+        <v>838</v>
       </c>
       <c r="D840" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E840" s="11" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="F840" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G840" s="189"/>
       <c r="H840" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="841" spans="1:8" ht="32.25" customHeight="1">
@@ -25983,23 +25918,23 @@
         <v>836</v>
       </c>
       <c r="B841" s="23" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C841" s="23" t="s">
-        <v>1024</v>
+        <v>838</v>
       </c>
       <c r="D841" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E841" s="11" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
       <c r="F841" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G841" s="189"/>
       <c r="H841" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="842" spans="1:8" ht="15" customHeight="1">
@@ -26007,23 +25942,23 @@
         <v>917</v>
       </c>
       <c r="B842" s="23" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C842" s="23" t="s">
-        <v>1030</v>
+        <v>919</v>
       </c>
       <c r="D842" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E842" s="11" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="F842" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G842" s="189"/>
       <c r="H842" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="843" spans="1:8" ht="32.25" customHeight="1">
@@ -26031,23 +25966,23 @@
         <v>917</v>
       </c>
       <c r="B843" s="23" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C843" s="23" t="s">
-        <v>1030</v>
+        <v>919</v>
       </c>
       <c r="D843" s="190" t="s">
         <v>20</v>
       </c>
       <c r="E843" s="11" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="F843" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G843" s="189"/>
       <c r="H843" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="844" spans="1:8" ht="32.25" customHeight="1">
@@ -26055,23 +25990,23 @@
         <v>917</v>
       </c>
       <c r="B844" s="23" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C844" s="23" t="s">
-        <v>1030</v>
+        <v>919</v>
       </c>
       <c r="D844" s="190" t="s">
         <v>11</v>
       </c>
       <c r="E844" s="11" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="F844" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G844" s="189"/>
       <c r="H844" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="845" spans="1:8" ht="32.25" customHeight="1">
@@ -26079,23 +26014,23 @@
         <v>917</v>
       </c>
       <c r="B845" s="23" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="C845" s="23" t="s">
-        <v>1030</v>
+        <v>919</v>
       </c>
       <c r="D845" s="190" t="s">
         <v>35</v>
       </c>
       <c r="E845" s="11" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="F845" s="37" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G845" s="189"/>
       <c r="H845" s="59" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
     </row>
     <row r="846" spans="1:8" ht="32.25">
@@ -26115,11 +26050,11 @@
         <v>819</v>
       </c>
       <c r="F846" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G846" s="189"/>
       <c r="H846" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="847" spans="1:8" ht="48.75" customHeight="1">
@@ -26139,11 +26074,11 @@
         <v>821</v>
       </c>
       <c r="F847" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G847" s="189"/>
       <c r="H847" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="848" spans="1:8" ht="32.25" customHeight="1">
@@ -26163,19 +26098,19 @@
         <v>822</v>
       </c>
       <c r="F848" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G848" s="189"/>
       <c r="H848" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="849" spans="1:8" ht="15" customHeight="1">
       <c r="A849" s="202" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B849" s="23" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C849" s="23" t="s">
         <v>930</v>
@@ -26184,22 +26119,22 @@
         <v>24</v>
       </c>
       <c r="E849" s="29" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="F849" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G849" s="189"/>
       <c r="H849" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="850" spans="1:8" ht="45.75" customHeight="1">
       <c r="A850" s="202" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B850" s="23" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C850" s="23" t="s">
         <v>930</v>
@@ -26208,22 +26143,22 @@
         <v>20</v>
       </c>
       <c r="E850" s="29" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="F850" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G850" s="189"/>
       <c r="H850" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="851" spans="1:8" ht="48.75" customHeight="1">
       <c r="A851" s="202" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B851" s="23" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C851" s="23" t="s">
         <v>930</v>
@@ -26232,22 +26167,22 @@
         <v>11</v>
       </c>
       <c r="E851" s="29" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="F851" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G851" s="189"/>
       <c r="H851" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="852" spans="1:8" ht="45.75" customHeight="1">
       <c r="A852" s="202" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="B852" s="23" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C852" s="23" t="s">
         <v>930</v>
@@ -26256,134 +26191,134 @@
         <v>35</v>
       </c>
       <c r="E852" s="29" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="F852" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G852" s="189"/>
       <c r="H852" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="853" spans="1:8" ht="15" customHeight="1">
       <c r="A853" s="202" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="B853" s="23" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C853" s="23" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D853" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E853" s="212" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="F853" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G853" s="189"/>
       <c r="H853" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="854" spans="1:8" ht="32.25" customHeight="1">
       <c r="A854" s="202" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="B854" s="23" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C854" s="23" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D854" s="208" t="s">
         <v>20</v>
       </c>
       <c r="E854" s="212" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="F854" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G854" s="189"/>
       <c r="H854" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="855" spans="1:8" ht="32.25" customHeight="1">
       <c r="A855" s="202" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="B855" s="23" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C855" s="23" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D855" s="208" t="s">
         <v>11</v>
       </c>
       <c r="E855" s="212" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="F855" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G855" s="189"/>
       <c r="H855" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="856" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A856" s="221" t="s">
-        <v>1041</v>
+      <c r="A856" s="220" t="s">
+        <v>1028</v>
       </c>
       <c r="B856" s="23" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C856" s="23" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="D856" s="208" t="s">
         <v>35</v>
       </c>
       <c r="E856" s="212" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="F856" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G856" s="189"/>
       <c r="H856" s="211" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" ht="15" customHeight="1">
+      <c r="A857" s="219" t="s">
+        <v>836</v>
+      </c>
+      <c r="B857" s="23" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="857" spans="1:8" ht="15" customHeight="1">
-      <c r="A857" s="220" t="s">
-        <v>836</v>
-      </c>
-      <c r="B857" s="23" t="s">
-        <v>1048</v>
-      </c>
       <c r="C857" s="23" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D857" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E857" s="213" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="F857" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G857" s="189"/>
       <c r="H857" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="858" spans="1:8" ht="32.25" customHeight="1">
@@ -26391,23 +26326,23 @@
         <v>836</v>
       </c>
       <c r="B858" s="23" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C858" s="23" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D858" s="208" t="s">
         <v>20</v>
       </c>
       <c r="E858" s="213" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="F858" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G858" s="189"/>
       <c r="H858" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="859" spans="1:8" ht="32.25" customHeight="1">
@@ -26415,23 +26350,23 @@
         <v>836</v>
       </c>
       <c r="B859" s="23" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C859" s="23" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D859" s="208" t="s">
         <v>11</v>
       </c>
       <c r="E859" s="213" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="F859" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G859" s="189"/>
       <c r="H859" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="860" spans="1:8" ht="32.25" customHeight="1">
@@ -26439,119 +26374,119 @@
         <v>836</v>
       </c>
       <c r="B860" s="23" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C860" s="23" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="D860" s="208" t="s">
         <v>35</v>
       </c>
       <c r="E860" s="213" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="F860" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G860" s="189"/>
       <c r="H860" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="861" spans="1:8" ht="15" customHeight="1">
       <c r="A861" s="196" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B861" s="23" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C861" s="214" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="D861" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E861" s="11" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="F861" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G861" s="189"/>
       <c r="H861" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="862" spans="1:8" ht="32.25" customHeight="1">
       <c r="A862" s="196" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B862" s="23" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C862" s="214" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="D862" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E862" s="11" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="F862" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G862" s="189"/>
       <c r="H862" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="863" spans="1:8" ht="32.25" customHeight="1">
       <c r="A863" s="196" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B863" s="23" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C863" s="214" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="D863" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E863" s="11" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="F863" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G863" s="189"/>
       <c r="H863" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="864" spans="1:8" ht="32.25" customHeight="1">
       <c r="A864" s="196" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="B864" s="23" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C864" s="214" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="D864" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E864" s="11" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="F864" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G864" s="189"/>
       <c r="H864" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="865" spans="1:8" ht="15" customHeight="1">
@@ -26559,7 +26494,7 @@
         <v>917</v>
       </c>
       <c r="B865" s="23" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C865" s="214" t="s">
         <v>919</v>
@@ -26568,14 +26503,14 @@
         <v>24</v>
       </c>
       <c r="E865" s="11" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="F865" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G865" s="189"/>
       <c r="H865" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="866" spans="1:8" ht="32.25" customHeight="1">
@@ -26583,7 +26518,7 @@
         <v>917</v>
       </c>
       <c r="B866" s="23" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C866" s="214" t="s">
         <v>919</v>
@@ -26592,14 +26527,14 @@
         <v>20</v>
       </c>
       <c r="E866" s="11" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="F866" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G866" s="189"/>
       <c r="H866" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="867" spans="1:8" ht="32.25" customHeight="1">
@@ -26607,7 +26542,7 @@
         <v>917</v>
       </c>
       <c r="B867" s="23" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C867" s="214" t="s">
         <v>919</v>
@@ -26616,14 +26551,14 @@
         <v>11</v>
       </c>
       <c r="E867" s="11" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="F867" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G867" s="189"/>
       <c r="H867" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="868" spans="1:8" ht="32.25" customHeight="1">
@@ -26631,7 +26566,7 @@
         <v>917</v>
       </c>
       <c r="B868" s="23" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C868" s="214" t="s">
         <v>919</v>
@@ -26640,110 +26575,110 @@
         <v>35</v>
       </c>
       <c r="E868" s="11" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="F868" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G868" s="189"/>
       <c r="H868" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="869" spans="1:8" ht="15" customHeight="1">
       <c r="A869" s="196" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B869" s="23" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C869" s="214" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="D869" s="43" t="s">
         <v>24</v>
       </c>
       <c r="E869" s="11" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="F869" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G869" s="189"/>
       <c r="H869" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="870" spans="1:8" ht="32.25" customHeight="1">
       <c r="A870" s="196" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B870" s="23" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C870" s="214" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="D870" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E870" s="11" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="F870" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G870" s="189"/>
       <c r="H870" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="871" spans="1:8" ht="32.25" customHeight="1">
       <c r="A871" s="196" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B871" s="23" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C871" s="214" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="D871" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E871" s="11" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="F871" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G871" s="189"/>
       <c r="H871" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="872" spans="1:8" ht="32.25" customHeight="1">
       <c r="A872" s="196" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="B872" s="23" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="C872" s="214" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="D872" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E872" s="11" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="F872" s="210" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="G872" s="189"/>
       <c r="H872" s="211" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="873" spans="1:8" ht="32.25">
@@ -26763,11 +26698,11 @@
         <v>819</v>
       </c>
       <c r="F873" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G873" s="189"/>
       <c r="H873" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="874" spans="1:8" ht="48.75" customHeight="1">
@@ -26787,11 +26722,11 @@
         <v>821</v>
       </c>
       <c r="F874" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G874" s="189"/>
       <c r="H874" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="875" spans="1:8" ht="32.25" customHeight="1">
@@ -26811,35 +26746,35 @@
         <v>822</v>
       </c>
       <c r="F875" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G875" s="189"/>
       <c r="H875" s="59" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="876" spans="1:8" ht="15" customHeight="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" ht="31.5" customHeight="1">
       <c r="A876" s="196" t="s">
         <v>617</v>
       </c>
       <c r="B876" s="23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C876" s="214" t="s">
-        <v>930</v>
+        <v>1061</v>
+      </c>
+      <c r="C876" s="223" t="s">
+        <v>1062</v>
       </c>
       <c r="D876" s="191" t="s">
         <v>24</v>
       </c>
       <c r="E876" s="212" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="F876" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G876" s="189"/>
       <c r="H876" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="877" spans="1:8" ht="30.75" customHeight="1">
@@ -26847,23 +26782,23 @@
         <v>617</v>
       </c>
       <c r="B877" s="23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C877" s="214" t="s">
-        <v>930</v>
+        <v>1061</v>
+      </c>
+      <c r="C877" s="223" t="s">
+        <v>1062</v>
       </c>
       <c r="D877" s="191" t="s">
         <v>20</v>
       </c>
       <c r="E877" s="212" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="F877" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G877" s="189"/>
       <c r="H877" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="878" spans="1:8" ht="30.75" customHeight="1">
@@ -26871,23 +26806,23 @@
         <v>617</v>
       </c>
       <c r="B878" s="23" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C878" s="219" t="s">
-        <v>1077</v>
+        <v>1061</v>
+      </c>
+      <c r="C878" s="223" t="s">
+        <v>1062</v>
       </c>
       <c r="D878" s="191" t="s">
         <v>11</v>
       </c>
       <c r="E878" s="212" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="F878" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G878" s="189"/>
       <c r="H878" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="879" spans="1:8" ht="30.75" customHeight="1">
@@ -26895,143 +26830,143 @@
         <v>617</v>
       </c>
       <c r="B879" s="215" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C879" s="219" t="s">
-        <v>1079</v>
+        <v>1061</v>
+      </c>
+      <c r="C879" s="223" t="s">
+        <v>1062</v>
       </c>
       <c r="D879" s="191" t="s">
         <v>35</v>
       </c>
       <c r="E879" s="212" t="s">
-        <v>1080</v>
+        <v>1066</v>
       </c>
       <c r="F879" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G879" s="189"/>
       <c r="H879" s="59" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="880" spans="1:8" ht="15" customHeight="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" ht="41.25" customHeight="1">
       <c r="A880" s="196" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B880" s="224" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C880" s="222" t="s">
-        <v>1082</v>
+        <v>1067</v>
+      </c>
+      <c r="B880" s="221" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C880" s="225" t="s">
+        <v>867</v>
       </c>
       <c r="D880" s="191" t="s">
         <v>24</v>
       </c>
       <c r="E880" s="11" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="F880" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G880" s="189"/>
       <c r="H880" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="881" spans="1:8" ht="32.25" customHeight="1">
       <c r="A881" s="196" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B881" s="224" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C881" s="222" t="s">
-        <v>950</v>
+        <v>1067</v>
+      </c>
+      <c r="B881" s="221" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C881" s="225" t="s">
+        <v>867</v>
       </c>
       <c r="D881" s="191" t="s">
         <v>20</v>
       </c>
       <c r="E881" s="11" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="F881" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G881" s="189"/>
       <c r="H881" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="882" spans="1:8" ht="32.25" customHeight="1">
       <c r="A882" s="196" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B882" s="224" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C882" s="223" t="s">
-        <v>1085</v>
+        <v>1067</v>
+      </c>
+      <c r="B882" s="221" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C882" s="225" t="s">
+        <v>867</v>
       </c>
       <c r="D882" s="191" t="s">
         <v>11</v>
       </c>
       <c r="E882" s="11" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="F882" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G882" s="189"/>
       <c r="H882" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="883" spans="1:8" ht="32.25" customHeight="1">
       <c r="A883" s="196" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B883" s="224" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C883" s="223" t="s">
-        <v>1087</v>
+        <v>1067</v>
+      </c>
+      <c r="B883" s="221" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C883" s="225" t="s">
+        <v>867</v>
       </c>
       <c r="D883" s="191" t="s">
         <v>35</v>
       </c>
       <c r="E883" s="11" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="F883" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G883" s="189"/>
       <c r="H883" s="59" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="884" spans="1:8" ht="15" customHeight="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" ht="50.25" customHeight="1">
       <c r="A884" s="196" t="s">
         <v>843</v>
       </c>
       <c r="B884" s="27" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C884" s="214" t="s">
-        <v>1090</v>
+        <v>1072</v>
+      </c>
+      <c r="C884" s="224" t="s">
+        <v>919</v>
       </c>
       <c r="D884" s="191" t="s">
         <v>24</v>
       </c>
       <c r="E884" s="212" t="s">
-        <v>1091</v>
+        <v>1073</v>
       </c>
       <c r="F884" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G884" s="189"/>
       <c r="H884" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="885" spans="1:8" ht="30.75" customHeight="1">
@@ -27039,23 +26974,23 @@
         <v>843</v>
       </c>
       <c r="B885" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C885" s="219" t="s">
-        <v>1092</v>
+        <v>1072</v>
+      </c>
+      <c r="C885" s="224" t="s">
+        <v>919</v>
       </c>
       <c r="D885" s="191" t="s">
         <v>20</v>
       </c>
       <c r="E885" s="212" t="s">
-        <v>1093</v>
+        <v>1074</v>
       </c>
       <c r="F885" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G885" s="189"/>
       <c r="H885" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="886" spans="1:8" ht="30.75" customHeight="1">
@@ -27063,23 +26998,23 @@
         <v>843</v>
       </c>
       <c r="B886" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C886" s="219" t="s">
-        <v>1094</v>
+        <v>1072</v>
+      </c>
+      <c r="C886" s="224" t="s">
+        <v>919</v>
       </c>
       <c r="D886" s="191" t="s">
         <v>11</v>
       </c>
       <c r="E886" s="212" t="s">
-        <v>1095</v>
+        <v>1075</v>
       </c>
       <c r="F886" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G886" s="189"/>
       <c r="H886" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="887" spans="1:8" ht="30.75" customHeight="1">
@@ -27087,47 +27022,47 @@
         <v>843</v>
       </c>
       <c r="B887" s="23" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C887" s="219" t="s">
-        <v>1096</v>
+        <v>1072</v>
+      </c>
+      <c r="C887" s="224" t="s">
+        <v>919</v>
       </c>
       <c r="D887" s="191" t="s">
         <v>35</v>
       </c>
       <c r="E887" s="212" t="s">
-        <v>1097</v>
+        <v>1076</v>
       </c>
       <c r="F887" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G887" s="189"/>
       <c r="H887" s="59" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="888" spans="1:8" ht="15" customHeight="1">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" ht="47.25" customHeight="1">
       <c r="A888" s="196" t="s">
         <v>876</v>
       </c>
       <c r="B888" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C888" s="214" t="s">
-        <v>905</v>
+        <v>1077</v>
+      </c>
+      <c r="C888" s="224" t="s">
+        <v>874</v>
       </c>
       <c r="D888" s="191" t="s">
         <v>24</v>
       </c>
       <c r="E888" s="212" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
       <c r="F888" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G888" s="189"/>
       <c r="H888" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="889" spans="1:8" ht="45.75" customHeight="1">
@@ -27135,23 +27070,23 @@
         <v>876</v>
       </c>
       <c r="B889" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C889" s="219" t="s">
-        <v>1100</v>
+        <v>1077</v>
+      </c>
+      <c r="C889" s="224" t="s">
+        <v>874</v>
       </c>
       <c r="D889" s="191" t="s">
         <v>20</v>
       </c>
       <c r="E889" s="212" t="s">
-        <v>1101</v>
+        <v>1079</v>
       </c>
       <c r="F889" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G889" s="189"/>
       <c r="H889" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="890" spans="1:8" ht="45.75" customHeight="1">
@@ -27159,23 +27094,23 @@
         <v>876</v>
       </c>
       <c r="B890" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C890" s="219" t="s">
-        <v>1102</v>
+        <v>1077</v>
+      </c>
+      <c r="C890" s="224" t="s">
+        <v>874</v>
       </c>
       <c r="D890" s="191" t="s">
         <v>11</v>
       </c>
       <c r="E890" s="212" t="s">
-        <v>1103</v>
+        <v>1080</v>
       </c>
       <c r="F890" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G890" s="189"/>
       <c r="H890" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="891" spans="1:8" ht="45.75" customHeight="1">
@@ -27183,23 +27118,23 @@
         <v>876</v>
       </c>
       <c r="B891" s="23" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C891" s="219" t="s">
-        <v>1104</v>
+        <v>1077</v>
+      </c>
+      <c r="C891" s="224" t="s">
+        <v>874</v>
       </c>
       <c r="D891" s="191" t="s">
         <v>35</v>
       </c>
       <c r="E891" s="212" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
       <c r="F891" s="37" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="G891" s="189"/>
       <c r="H891" s="59" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>

--- a/static/Itinerarios.xlsx
+++ b/static/Itinerarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A9D22BF-3ACB-4EF1-BCEA-27EF28A767FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A60E596-16C4-4A88-939A-EDE114F37923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,7 +158,7 @@
     <t>TIC</t>
   </si>
   <si>
-    <t>TICS</t>
+    <t>TIC's</t>
   </si>
   <si>
     <t>Alistar herramientas de tecnologías de la información y la comunicación (tic), de acuerdo con las necesidades de procesamiento de información y comunicación.</t>
@@ -994,9 +994,6 @@
   </si>
   <si>
     <t>Utilizar herramientas informáticas de acuerdo con las necesidades de manejo de información.</t>
-  </si>
-  <si>
-    <t>TIC's</t>
   </si>
   <si>
     <t>Seleccionar herramientas de tecnologías de la información y la comunicación (TIC), de acuerdo con las necesidades identificadas.</t>
@@ -2135,6 +2132,9 @@
   </si>
   <si>
     <t>Utilizar herramientas informaticas de acuerdo con las necesidades de manejo de informacion</t>
+  </si>
+  <si>
+    <t>TICS</t>
   </si>
   <si>
     <t>Seleccionar herramientas de tecnologías de la información y la comunicación (tic), de acuerdo con las necesidades identificadas.</t>
@@ -4868,8 +4868,8 @@
   </sheetPr>
   <dimension ref="A1:H891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H448" sqref="H448:H507"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
@@ -9280,13 +9280,13 @@
         <v>317</v>
       </c>
       <c r="C170" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E170" s="11" t="s">
         <v>318</v>
-      </c>
-      <c r="D170" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E170" s="11" t="s">
-        <v>319</v>
       </c>
       <c r="F170" s="37" t="s">
         <v>299</v>
@@ -9306,13 +9306,13 @@
         <v>317</v>
       </c>
       <c r="C171" s="49" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="D171" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E171" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F171" s="37" t="s">
         <v>299</v>
@@ -9332,13 +9332,13 @@
         <v>317</v>
       </c>
       <c r="C172" s="49" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="D172" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F172" s="37" t="s">
         <v>299</v>
@@ -9358,13 +9358,13 @@
         <v>317</v>
       </c>
       <c r="C173" s="49" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="D173" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F173" s="37" t="s">
         <v>299</v>
@@ -9384,13 +9384,13 @@
         <v>302</v>
       </c>
       <c r="C174" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="D174" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="D174" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="F174" s="37" t="s">
         <v>299</v>
@@ -9416,7 +9416,7 @@
         <v>20</v>
       </c>
       <c r="E175" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F175" s="37" t="s">
         <v>299</v>
@@ -9436,13 +9436,13 @@
         <v>305</v>
       </c>
       <c r="C176" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D176" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="D176" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>327</v>
       </c>
       <c r="F176" s="37" t="s">
         <v>299</v>
@@ -9468,7 +9468,7 @@
         <v>11</v>
       </c>
       <c r="E177" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F177" s="37" t="s">
         <v>299</v>
@@ -9494,7 +9494,7 @@
         <v>35</v>
       </c>
       <c r="E178" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F178" s="37" t="s">
         <v>299</v>
@@ -9520,7 +9520,7 @@
         <v>24</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F179" s="37" t="s">
         <v>299</v>
@@ -9546,7 +9546,7 @@
         <v>20</v>
       </c>
       <c r="E180" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F180" s="37" t="s">
         <v>299</v>
@@ -9572,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F181" s="37" t="s">
         <v>299</v>
@@ -9598,7 +9598,7 @@
         <v>35</v>
       </c>
       <c r="E182" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F182" s="37" t="s">
         <v>299</v>
@@ -9612,19 +9612,19 @@
     </row>
     <row r="183" spans="1:8" ht="64.5">
       <c r="A183" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B183" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C183" s="10" t="s">
+      <c r="D183" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E183" s="11" t="s">
         <v>335</v>
-      </c>
-      <c r="D183" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>336</v>
       </c>
       <c r="F183" s="37" t="s">
         <v>299</v>
@@ -9638,19 +9638,19 @@
     </row>
     <row r="184" spans="1:8" ht="64.5">
       <c r="A184" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B184" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C184" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="D184" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E184" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F184" s="37" t="s">
         <v>299</v>
@@ -9664,19 +9664,19 @@
     </row>
     <row r="185" spans="1:8" ht="64.5">
       <c r="A185" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C185" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B185" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="D185" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F185" s="37" t="s">
         <v>299</v>
@@ -9690,19 +9690,19 @@
     </row>
     <row r="186" spans="1:8" ht="64.5">
       <c r="A186" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B186" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>335</v>
-      </c>
       <c r="D186" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E186" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F186" s="37" t="s">
         <v>299</v>
@@ -9722,13 +9722,13 @@
         <v>305</v>
       </c>
       <c r="C187" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="D187" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="D187" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="F187" s="37" t="s">
         <v>299</v>
@@ -9748,13 +9748,13 @@
         <v>305</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D188" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F188" s="37" t="s">
         <v>299</v>
@@ -9780,7 +9780,7 @@
         <v>113</v>
       </c>
       <c r="E189" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F189" s="37" t="s">
         <v>299</v>
@@ -9806,7 +9806,7 @@
         <v>231</v>
       </c>
       <c r="E190" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F190" s="37" t="s">
         <v>299</v>
@@ -9820,19 +9820,19 @@
     </row>
     <row r="191" spans="1:8" ht="64.5">
       <c r="A191" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B191" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C191" s="10" t="s">
+      <c r="D191" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E191" s="11" t="s">
         <v>346</v>
-      </c>
-      <c r="D191" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>347</v>
       </c>
       <c r="F191" s="37" t="s">
         <v>299</v>
@@ -9846,19 +9846,19 @@
     </row>
     <row r="192" spans="1:8" ht="64.5">
       <c r="A192" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B192" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C192" s="10" t="s">
-        <v>346</v>
-      </c>
       <c r="D192" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E192" s="219" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F192" s="37" t="s">
         <v>299</v>
@@ -9872,19 +9872,19 @@
     </row>
     <row r="193" spans="1:8" ht="64.5">
       <c r="A193" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C193" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B193" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>346</v>
-      </c>
       <c r="D193" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F193" s="37" t="s">
         <v>299</v>
@@ -9898,19 +9898,19 @@
     </row>
     <row r="194" spans="1:8" ht="64.5">
       <c r="A194" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B194" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C194" s="10" t="s">
-        <v>346</v>
-      </c>
       <c r="D194" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F194" s="37" t="s">
         <v>299</v>
@@ -9924,10 +9924,10 @@
     </row>
     <row r="195" spans="1:8" ht="32.25">
       <c r="A195" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C195" s="10" t="s">
         <v>117</v>
@@ -9936,7 +9936,7 @@
         <v>24</v>
       </c>
       <c r="E195" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F195" s="37" t="s">
         <v>299</v>
@@ -9950,10 +9950,10 @@
     </row>
     <row r="196" spans="1:8" ht="32.25">
       <c r="A196" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C196" s="10" t="s">
         <v>117</v>
@@ -9962,7 +9962,7 @@
         <v>20</v>
       </c>
       <c r="E196" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F196" s="37" t="s">
         <v>299</v>
@@ -9976,10 +9976,10 @@
     </row>
     <row r="197" spans="1:8" ht="32.25">
       <c r="A197" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C197" s="10" t="s">
         <v>117</v>
@@ -9988,7 +9988,7 @@
         <v>11</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F197" s="37" t="s">
         <v>299</v>
@@ -10002,10 +10002,10 @@
     </row>
     <row r="198" spans="1:8" ht="32.25">
       <c r="A198" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C198" s="10" t="s">
         <v>117</v>
@@ -10014,7 +10014,7 @@
         <v>35</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F198" s="37" t="s">
         <v>299</v>
@@ -10028,10 +10028,10 @@
     </row>
     <row r="199" spans="1:8" ht="64.5">
       <c r="A199" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C199" s="10" t="s">
         <v>103</v>
@@ -10054,10 +10054,10 @@
     </row>
     <row r="200" spans="1:8" ht="64.5">
       <c r="A200" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C200" s="10" t="s">
         <v>103</v>
@@ -10080,10 +10080,10 @@
     </row>
     <row r="201" spans="1:8" ht="64.5">
       <c r="A201" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C201" s="10" t="s">
         <v>103</v>
@@ -10106,10 +10106,10 @@
     </row>
     <row r="202" spans="1:8" ht="64.5">
       <c r="A202" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C202" s="10" t="s">
         <v>103</v>
@@ -10144,544 +10144,544 @@
         <v>24</v>
       </c>
       <c r="E203" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="F203" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="F203" s="37" t="s">
+      <c r="G203" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H203" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G203" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H203" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="32.25" customHeight="1">
       <c r="A204" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B204" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="B204" s="55" t="s">
+      <c r="C204" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="C204" s="46" t="s">
+      <c r="D204" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D204" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>362</v>
-      </c>
       <c r="F204" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G204" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H204" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G204" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H204" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="48.75">
       <c r="A205" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B205" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="B205" s="57" t="s">
-        <v>360</v>
-      </c>
       <c r="C205" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D205" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E205" s="11" t="s">
-        <v>364</v>
-      </c>
       <c r="F205" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G205" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H205" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G205" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H205" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="48.75">
       <c r="A206" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B206" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="B206" s="57" t="s">
-        <v>360</v>
-      </c>
       <c r="C206" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E206" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D206" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E206" s="11" t="s">
-        <v>366</v>
-      </c>
       <c r="F206" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G206" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G206" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H206" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="48.75">
       <c r="A207" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B207" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="B207" s="57" t="s">
-        <v>360</v>
-      </c>
       <c r="C207" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D207" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="F207" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G207" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H207" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G207" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H207" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="48.75">
       <c r="A208" s="56" t="s">
+        <v>358</v>
+      </c>
+      <c r="B208" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="B208" s="57" t="s">
-        <v>360</v>
-      </c>
       <c r="C208" s="46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D208" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E208" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F208" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G208" s="37" t="s">
         <v>113</v>
       </c>
       <c r="H208" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="32.25" customHeight="1">
       <c r="A209" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B209" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B209" s="48" t="s">
+      <c r="C209" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="C209" s="44" t="s">
+      <c r="D209" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E209" s="58" t="s">
         <v>373</v>
       </c>
-      <c r="D209" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E209" s="58" t="s">
-        <v>374</v>
-      </c>
       <c r="F209" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G209" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H209" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G209" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H209" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="48.75">
       <c r="A210" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B210" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B210" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="C210" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="D210" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E210" s="60" t="s">
-        <v>376</v>
-      </c>
       <c r="F210" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G210" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H210" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G210" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H210" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="48.75">
       <c r="A211" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B211" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B211" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="C211" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="61" t="s">
         <v>377</v>
       </c>
-      <c r="D211" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" s="61" t="s">
-        <v>378</v>
-      </c>
       <c r="F211" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G211" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G211" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H211" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="48.75">
       <c r="A212" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B212" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B212" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="C212" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E212" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="D212" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E212" s="61" t="s">
-        <v>380</v>
-      </c>
       <c r="F212" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G212" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H212" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G212" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H212" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="48.75">
       <c r="A213" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B213" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B213" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="C213" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D213" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E213" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F213" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G213" s="37" t="s">
         <v>113</v>
       </c>
       <c r="H213" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="48.75">
       <c r="A214" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="48" t="s">
         <v>371</v>
       </c>
-      <c r="B214" s="48" t="s">
-        <v>372</v>
-      </c>
       <c r="C214" s="44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D214" s="37" t="s">
         <v>231</v>
       </c>
       <c r="E214" s="63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F214" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G214" s="37" t="s">
         <v>231</v>
       </c>
       <c r="H214" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="32.25" customHeight="1">
       <c r="A215" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B215" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B215" s="18" t="s">
+      <c r="C215" s="44" t="s">
         <v>386</v>
       </c>
-      <c r="C215" s="44" t="s">
+      <c r="D215" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E215" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="D215" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E215" s="58" t="s">
-        <v>388</v>
-      </c>
       <c r="F215" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G215" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H215" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G215" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H215" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="48.75">
       <c r="A216" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B216" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B216" s="18" t="s">
-        <v>386</v>
-      </c>
       <c r="C216" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="D216" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="D216" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="58" t="s">
-        <v>390</v>
-      </c>
       <c r="F216" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G216" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H216" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G216" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H216" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="48.75">
       <c r="A217" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B217" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B217" s="18" t="s">
-        <v>386</v>
-      </c>
       <c r="C217" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="D217" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E217" s="58" t="s">
-        <v>392</v>
-      </c>
       <c r="F217" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G217" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G217" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="32.25" customHeight="1">
       <c r="A218" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B218" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B218" s="18" t="s">
+      <c r="C218" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C218" s="11" t="s">
+      <c r="D218" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E218" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D218" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E218" s="60" t="s">
-        <v>396</v>
-      </c>
       <c r="F218" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G218" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G218" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H218" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="48.75">
       <c r="A219" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B219" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B219" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="C219" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D219" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E219" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="D219" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E219" s="60" t="s">
-        <v>398</v>
-      </c>
       <c r="F219" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G219" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H219" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G219" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H219" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="48.75">
       <c r="A220" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B220" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B220" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="C220" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D220" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E220" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F220" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G220" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H220" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G220" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="48.75">
       <c r="A221" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B221" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B221" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="C221" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E221" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="D221" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E221" s="60" t="s">
-        <v>401</v>
-      </c>
       <c r="F221" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="G221" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G221" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H221" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="48.75">
       <c r="A222" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B222" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B222" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="C222" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D222" s="37" t="s">
         <v>113</v>
       </c>
       <c r="E222" s="60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F222" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G222" s="37" t="s">
         <v>113</v>
       </c>
       <c r="H222" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="48.75">
       <c r="A223" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B223" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B223" s="18" t="s">
-        <v>394</v>
-      </c>
       <c r="C223" s="18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D223" s="37" t="s">
         <v>231</v>
       </c>
       <c r="E223" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F223" s="59" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G223" s="37" t="s">
         <v>231</v>
       </c>
       <c r="H223" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="48.75" customHeight="1">
       <c r="A224" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B224" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B224" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C224" s="18" t="s">
         <v>225</v>
@@ -10690,24 +10690,24 @@
         <v>24</v>
       </c>
       <c r="E224" s="65" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F224" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G224" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H224" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G224" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H224" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="96.75">
       <c r="A225" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B225" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B225" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C225" s="18" t="s">
         <v>225</v>
@@ -10716,24 +10716,24 @@
         <v>20</v>
       </c>
       <c r="E225" s="65" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F225" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G225" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H225" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G225" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H225" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="96.75">
       <c r="A226" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B226" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C226" s="18" t="s">
         <v>225</v>
@@ -10742,24 +10742,24 @@
         <v>11</v>
       </c>
       <c r="E226" s="65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F226" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G226" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H226" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G226" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H226" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="96.75">
       <c r="A227" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B227" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>225</v>
@@ -10768,24 +10768,24 @@
         <v>35</v>
       </c>
       <c r="E227" s="65" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F227" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G227" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H227" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G227" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H227" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="96.75">
       <c r="A228" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B228" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C228" s="18" t="s">
         <v>225</v>
@@ -10794,24 +10794,24 @@
         <v>113</v>
       </c>
       <c r="E228" s="65" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F228" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G228" s="37" t="s">
         <v>113</v>
       </c>
       <c r="H228" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="96.75">
       <c r="A229" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B229" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B229" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C229" s="18" t="s">
         <v>225</v>
@@ -10820,53 +10820,53 @@
         <v>231</v>
       </c>
       <c r="E229" s="65" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F229" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G229" s="37" t="s">
         <v>231</v>
       </c>
       <c r="H229" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="16.5" customHeight="1">
       <c r="A230" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B230" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B230" s="18" t="s">
+      <c r="C230" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C230" s="18" t="s">
+      <c r="D230" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E230" s="65" t="s">
         <v>414</v>
       </c>
-      <c r="D230" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E230" s="65" t="s">
-        <v>415</v>
-      </c>
       <c r="F230" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G230" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H230" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G230" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H230" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="64.5">
       <c r="A231" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B231" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B231" s="18" t="s">
+      <c r="C231" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="D231" s="37" t="s">
         <v>20</v>
@@ -10875,50 +10875,50 @@
         <v>91</v>
       </c>
       <c r="F231" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G231" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H231" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G231" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H231" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="64.5">
       <c r="A232" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B232" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="C232" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C232" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="D232" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E232" s="65" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F232" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G232" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G232" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H232" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="64.5">
       <c r="A233" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B233" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B233" s="18" t="s">
+      <c r="C233" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="C233" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="D233" s="37" t="s">
         <v>35</v>
@@ -10927,21 +10927,21 @@
         <v>93</v>
       </c>
       <c r="F233" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G233" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H233" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G233" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H233" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="32.25" customHeight="1">
       <c r="A234" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B234" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="B234" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="C234" s="18" t="s">
         <v>263</v>
@@ -10950,24 +10950,24 @@
         <v>24</v>
       </c>
       <c r="E234" s="65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F234" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G234" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H234" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G234" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H234" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="64.5">
       <c r="A235" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B235" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="B235" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="C235" s="18" t="s">
         <v>263</v>
@@ -10979,21 +10979,21 @@
         <v>63</v>
       </c>
       <c r="F235" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G235" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H235" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G235" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H235" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="64.5">
       <c r="A236" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B236" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="B236" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="C236" s="18" t="s">
         <v>263</v>
@@ -11002,24 +11002,24 @@
         <v>11</v>
       </c>
       <c r="E236" s="65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F236" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G236" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G236" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="64.5">
       <c r="A237" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B237" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="B237" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="C237" s="18" t="s">
         <v>263</v>
@@ -11028,24 +11028,24 @@
         <v>35</v>
       </c>
       <c r="E237" s="65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F237" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G237" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H237" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G237" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H237" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="32.25" customHeight="1">
       <c r="A238" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B238" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B238" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C238" s="18" t="s">
         <v>256</v>
@@ -11054,24 +11054,24 @@
         <v>24</v>
       </c>
       <c r="E238" s="65" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F238" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G238" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H238" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G238" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H238" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="81">
       <c r="A239" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B239" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C239" s="18" t="s">
         <v>256</v>
@@ -11080,24 +11080,24 @@
         <v>20</v>
       </c>
       <c r="E239" s="65" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F239" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G239" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H239" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G239" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H239" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="81">
       <c r="A240" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B240" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C240" s="18" t="s">
         <v>256</v>
@@ -11106,24 +11106,24 @@
         <v>11</v>
       </c>
       <c r="E240" s="65" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F240" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G240" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H240" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G240" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H240" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="81">
       <c r="A241" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B241" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C241" s="18" t="s">
         <v>256</v>
@@ -11132,16 +11132,16 @@
         <v>35</v>
       </c>
       <c r="E241" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F241" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G241" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H241" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G241" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H241" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="32.25" customHeight="1">
@@ -11149,7 +11149,7 @@
         <v>275</v>
       </c>
       <c r="B242" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C242" s="18" t="s">
         <v>277</v>
@@ -11158,16 +11158,16 @@
         <v>24</v>
       </c>
       <c r="E242" s="65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F242" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G242" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H242" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G242" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H242" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="81">
@@ -11175,7 +11175,7 @@
         <v>275</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>277</v>
@@ -11184,16 +11184,16 @@
         <v>20</v>
       </c>
       <c r="E243" s="65" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F243" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G243" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H243" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G243" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H243" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="81">
@@ -11201,7 +11201,7 @@
         <v>275</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>277</v>
@@ -11210,16 +11210,16 @@
         <v>11</v>
       </c>
       <c r="E244" s="65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F244" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G244" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G244" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="81">
@@ -11227,7 +11227,7 @@
         <v>275</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C245" s="18" t="s">
         <v>277</v>
@@ -11236,24 +11236,24 @@
         <v>35</v>
       </c>
       <c r="E245" s="65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F245" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G245" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H245" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G245" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H245" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="32.25" customHeight="1">
       <c r="A246" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B246" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C246" s="18" t="s">
         <v>284</v>
@@ -11262,24 +11262,24 @@
         <v>24</v>
       </c>
       <c r="E246" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F246" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G246" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H246" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G246" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H246" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="64.5">
       <c r="A247" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B247" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B247" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C247" s="18" t="s">
         <v>284</v>
@@ -11288,24 +11288,24 @@
         <v>20</v>
       </c>
       <c r="E247" s="65" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F247" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G247" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H247" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G247" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H247" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="64.5">
       <c r="A248" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B248" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B248" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C248" s="18" t="s">
         <v>284</v>
@@ -11314,24 +11314,24 @@
         <v>11</v>
       </c>
       <c r="E248" s="65" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F248" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G248" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H248" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G248" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H248" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="64.5">
       <c r="A249" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B249" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B249" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C249" s="18" t="s">
         <v>284</v>
@@ -11340,24 +11340,24 @@
         <v>35</v>
       </c>
       <c r="E249" s="65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F249" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G249" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H249" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G249" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H249" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="32.25" customHeight="1">
       <c r="A250" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B250" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C250" s="18" t="s">
         <v>270</v>
@@ -11366,24 +11366,24 @@
         <v>24</v>
       </c>
       <c r="E250" s="65" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F250" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G250" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H250" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G250" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H250" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="64.5">
       <c r="A251" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B251" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C251" s="18" t="s">
         <v>270</v>
@@ -11392,24 +11392,24 @@
         <v>20</v>
       </c>
       <c r="E251" s="65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F251" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G251" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H251" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G251" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H251" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="64.5">
       <c r="A252" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B252" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C252" s="18" t="s">
         <v>270</v>
@@ -11418,24 +11418,24 @@
         <v>11</v>
       </c>
       <c r="E252" s="65" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F252" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G252" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H252" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G252" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H252" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="64.5">
       <c r="A253" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B253" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B253" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C253" s="18" t="s">
         <v>270</v>
@@ -11444,24 +11444,24 @@
         <v>35</v>
       </c>
       <c r="E253" s="65" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F253" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G253" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H253" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G253" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H253" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="48.75">
       <c r="A254" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B254" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C254" s="18" t="s">
         <v>38</v>
@@ -11470,24 +11470,24 @@
         <v>24</v>
       </c>
       <c r="E254" s="65" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F254" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G254" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H254" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G254" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H254" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="48.75">
       <c r="A255" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B255" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B255" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C255" s="18" t="s">
         <v>38</v>
@@ -11496,24 +11496,24 @@
         <v>20</v>
       </c>
       <c r="E255" s="65" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F255" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G255" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H255" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G255" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H255" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="48.75">
       <c r="A256" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B256" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B256" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C256" s="18" t="s">
         <v>38</v>
@@ -11522,24 +11522,24 @@
         <v>11</v>
       </c>
       <c r="E256" s="65" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F256" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G256" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H256" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G256" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H256" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="48.75">
       <c r="A257" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B257" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B257" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C257" s="18" t="s">
         <v>38</v>
@@ -11548,16 +11548,16 @@
         <v>35</v>
       </c>
       <c r="E257" s="65" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F257" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G257" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H257" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G257" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H257" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="32.25" customHeight="1">
@@ -11565,25 +11565,25 @@
         <v>240</v>
       </c>
       <c r="B258" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C258" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C258" s="18" t="s">
+      <c r="D258" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E258" s="65" t="s">
         <v>452</v>
       </c>
-      <c r="D258" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E258" s="65" t="s">
-        <v>453</v>
-      </c>
       <c r="F258" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G258" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H258" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G258" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H258" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="81">
@@ -11591,25 +11591,25 @@
         <v>240</v>
       </c>
       <c r="B259" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C259" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C259" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D259" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E259" s="65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F259" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G259" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H259" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G259" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H259" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="81">
@@ -11617,25 +11617,25 @@
         <v>240</v>
       </c>
       <c r="B260" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C260" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C260" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D260" s="37" t="s">
         <v>11</v>
       </c>
       <c r="E260" s="65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F260" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G260" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H260" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G260" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H260" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="81">
@@ -11643,30 +11643,30 @@
         <v>240</v>
       </c>
       <c r="B261" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C261" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C261" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D261" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E261" s="65" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F261" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G261" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H261" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G261" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H261" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="32.25" customHeight="1">
       <c r="A262" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>235</v>
@@ -11678,21 +11678,21 @@
         <v>24</v>
       </c>
       <c r="E262" s="65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F262" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G262" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H262" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G262" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H262" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="64.5">
       <c r="A263" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B263" s="18" t="s">
         <v>235</v>
@@ -11704,21 +11704,21 @@
         <v>20</v>
       </c>
       <c r="E263" s="65" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F263" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G263" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H263" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G263" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H263" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="64.5">
       <c r="A264" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B264" s="18" t="s">
         <v>235</v>
@@ -11730,21 +11730,21 @@
         <v>11</v>
       </c>
       <c r="E264" s="65" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F264" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G264" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G264" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H264" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="64.5">
       <c r="A265" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>235</v>
@@ -11756,24 +11756,24 @@
         <v>35</v>
       </c>
       <c r="E265" s="65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F265" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G265" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H265" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G265" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H265" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="48.75" customHeight="1">
       <c r="A266" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B266" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C266" s="18" t="s">
         <v>249</v>
@@ -11782,24 +11782,24 @@
         <v>24</v>
       </c>
       <c r="E266" s="65" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F266" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G266" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H266" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G266" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="H266" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="81">
       <c r="A267" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B267" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B267" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C267" s="18" t="s">
         <v>249</v>
@@ -11808,24 +11808,24 @@
         <v>20</v>
       </c>
       <c r="E267" s="65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F267" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G267" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H267" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G267" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H267" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="81">
       <c r="A268" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B268" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B268" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C268" s="18" t="s">
         <v>249</v>
@@ -11834,24 +11834,24 @@
         <v>11</v>
       </c>
       <c r="E268" s="65" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F268" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G268" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G268" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H268" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="81">
       <c r="A269" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B269" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C269" s="18" t="s">
         <v>249</v>
@@ -11860,16 +11860,16 @@
         <v>35</v>
       </c>
       <c r="E269" s="65" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F269" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G269" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H269" s="37" t="s">
         <v>357</v>
-      </c>
-      <c r="G269" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H269" s="37" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="45.75">
@@ -11886,105 +11886,105 @@
         <v>24</v>
       </c>
       <c r="E270" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F270" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G270" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H270" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G270" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H270" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="48.75">
       <c r="A271" s="19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>180</v>
       </c>
       <c r="C271" s="65" t="s">
+        <v>470</v>
+      </c>
+      <c r="D271" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" s="65" t="s">
         <v>471</v>
       </c>
-      <c r="D271" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E271" s="65" t="s">
-        <v>472</v>
-      </c>
       <c r="F271" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G271" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H271" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G271" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H271" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="48.75">
       <c r="A272" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B272" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C272" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="D272" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" s="65" t="s">
         <v>473</v>
       </c>
-      <c r="D272" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E272" s="65" t="s">
-        <v>474</v>
-      </c>
       <c r="F272" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G272" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H272" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G272" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H272" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="48.75">
       <c r="A273" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B273" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C273" s="65" t="s">
+        <v>474</v>
+      </c>
+      <c r="D273" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" s="65" t="s">
         <v>475</v>
       </c>
-      <c r="D273" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E273" s="65" t="s">
-        <v>476</v>
-      </c>
       <c r="F273" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G273" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G273" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H273" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="48.75">
       <c r="A274" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B274" s="48" t="s">
         <v>180</v>
       </c>
       <c r="C274" s="65" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D274" s="43" t="s">
         <v>35</v>
@@ -11993,18 +11993,18 @@
         <v>188</v>
       </c>
       <c r="F274" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G274" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H274" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G274" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H274" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="48.75">
       <c r="A275" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B275" s="48" t="s">
         <v>180</v>
@@ -12019,125 +12019,125 @@
         <v>190</v>
       </c>
       <c r="F275" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G275" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H275" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="32.25" customHeight="1">
       <c r="A276" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B276" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B276" s="18" t="s">
+      <c r="C276" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C276" s="64" t="s">
+      <c r="D276" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E276" s="64" t="s">
         <v>480</v>
       </c>
-      <c r="D276" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E276" s="64" t="s">
-        <v>481</v>
-      </c>
       <c r="F276" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G276" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H276" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G276" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H276" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="64.5">
       <c r="A277" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B277" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B277" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="C277" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="D277" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="D277" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E277" s="64" t="s">
-        <v>483</v>
-      </c>
       <c r="F277" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G277" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H277" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G277" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H277" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="64.5">
       <c r="A278" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B278" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B278" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="C278" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="D278" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="D278" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E278" s="64" t="s">
-        <v>485</v>
-      </c>
       <c r="F278" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G278" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H278" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G278" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H278" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="64.5">
       <c r="A279" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B279" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B279" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="C279" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="D279" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E279" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="D279" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E279" s="64" t="s">
-        <v>487</v>
-      </c>
       <c r="F279" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G279" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H279" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G279" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H279" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="64.5">
       <c r="A280" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B280" s="18" t="s">
         <v>478</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>479</v>
       </c>
       <c r="C280" s="64" t="s">
         <v>203</v>
@@ -12146,102 +12146,102 @@
         <v>113</v>
       </c>
       <c r="E280" s="64" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F280" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G280" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H280" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="64.5">
       <c r="A281" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="B281" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B281" s="18" t="s">
-        <v>479</v>
-      </c>
       <c r="C281" s="64" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D281" s="43" t="s">
         <v>231</v>
       </c>
       <c r="E281" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F281" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G281" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H281" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="32.25" customHeight="1">
       <c r="A282" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B282" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B282" s="18" t="s">
+      <c r="C282" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="C282" s="64" t="s">
+      <c r="D282" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E282" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="D282" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E282" s="64" t="s">
-        <v>494</v>
-      </c>
       <c r="F282" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G282" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H282" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G282" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H282" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="48.75">
       <c r="A283" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B283" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B283" s="18" t="s">
-        <v>492</v>
-      </c>
       <c r="C283" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="D283" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" s="64" t="s">
         <v>495</v>
       </c>
-      <c r="D283" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E283" s="64" t="s">
-        <v>496</v>
-      </c>
       <c r="F283" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G283" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H283" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G283" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H283" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="48.75">
       <c r="A284" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B284" s="18" t="s">
         <v>491</v>
-      </c>
-      <c r="B284" s="18" t="s">
-        <v>492</v>
       </c>
       <c r="C284" s="64" t="s">
         <v>221</v>
@@ -12250,102 +12250,102 @@
         <v>11</v>
       </c>
       <c r="E284" s="64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F284" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G284" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G284" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H284" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="48.75">
       <c r="A285" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B285" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B285" s="18" t="s">
-        <v>492</v>
-      </c>
       <c r="C285" s="64" t="s">
+        <v>497</v>
+      </c>
+      <c r="D285" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E285" s="64" t="s">
         <v>498</v>
       </c>
-      <c r="D285" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E285" s="64" t="s">
-        <v>499</v>
-      </c>
       <c r="F285" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G285" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H285" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G285" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H285" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="48.75">
       <c r="A286" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B286" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="B286" s="18" t="s">
-        <v>492</v>
-      </c>
       <c r="C286" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D286" s="43" t="s">
         <v>113</v>
       </c>
       <c r="E286" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F286" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G286" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H286" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="32.25" customHeight="1">
       <c r="A287" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B287" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B287" s="18" t="s">
+      <c r="C287" s="64" t="s">
         <v>503</v>
       </c>
-      <c r="C287" s="64" t="s">
+      <c r="D287" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E287" s="64" t="s">
         <v>504</v>
       </c>
-      <c r="D287" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E287" s="64" t="s">
-        <v>505</v>
-      </c>
       <c r="F287" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G287" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H287" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G287" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H287" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="48.75">
       <c r="A288" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B288" s="18" t="s">
         <v>502</v>
-      </c>
-      <c r="B288" s="18" t="s">
-        <v>503</v>
       </c>
       <c r="C288" s="64" t="s">
         <v>195</v>
@@ -12354,128 +12354,128 @@
         <v>20</v>
       </c>
       <c r="E288" s="64" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F288" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G288" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H288" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G288" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H288" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="48.75">
       <c r="A289" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B289" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B289" s="18" t="s">
-        <v>503</v>
-      </c>
       <c r="C289" s="64" t="s">
+        <v>506</v>
+      </c>
+      <c r="D289" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" s="64" t="s">
         <v>507</v>
       </c>
-      <c r="D289" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E289" s="64" t="s">
-        <v>508</v>
-      </c>
       <c r="F289" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G289" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H289" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G289" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H289" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="48.75">
       <c r="A290" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B290" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B290" s="18" t="s">
-        <v>503</v>
-      </c>
       <c r="C290" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="D290" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E290" s="64" t="s">
         <v>509</v>
       </c>
-      <c r="D290" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E290" s="64" t="s">
-        <v>510</v>
-      </c>
       <c r="F290" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G290" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H290" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G290" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H290" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="48.75">
       <c r="A291" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B291" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B291" s="18" t="s">
-        <v>503</v>
-      </c>
       <c r="C291" s="64" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D291" s="43" t="s">
         <v>113</v>
       </c>
       <c r="E291" s="64" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F291" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G291" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H291" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="48.75">
       <c r="A292" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B292" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B292" s="18" t="s">
-        <v>503</v>
-      </c>
       <c r="C292" s="64" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D292" s="43" t="s">
         <v>231</v>
       </c>
       <c r="E292" s="64" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F292" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G292" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H292" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="48.75" customHeight="1">
       <c r="A293" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B293" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B293" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C293" s="18" t="s">
         <v>225</v>
@@ -12484,24 +12484,24 @@
         <v>24</v>
       </c>
       <c r="E293" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F293" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G293" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H293" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G293" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H293" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="96.75">
       <c r="A294" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B294" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B294" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C294" s="48" t="s">
         <v>225</v>
@@ -12510,24 +12510,24 @@
         <v>20</v>
       </c>
       <c r="E294" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F294" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G294" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H294" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G294" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H294" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="96.75">
       <c r="A295" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B295" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B295" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C295" s="48" t="s">
         <v>225</v>
@@ -12536,24 +12536,24 @@
         <v>11</v>
       </c>
       <c r="E295" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F295" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G295" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G295" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H295" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="96.75">
       <c r="A296" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B296" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B296" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C296" s="48" t="s">
         <v>225</v>
@@ -12562,24 +12562,24 @@
         <v>35</v>
       </c>
       <c r="E296" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F296" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G296" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H296" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G296" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H296" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="96.75">
       <c r="A297" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B297" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B297" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C297" s="48" t="s">
         <v>225</v>
@@ -12588,24 +12588,24 @@
         <v>113</v>
       </c>
       <c r="E297" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F297" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G297" s="43" t="s">
         <v>113</v>
       </c>
       <c r="H297" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="96.75">
       <c r="A298" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B298" s="18" t="s">
         <v>404</v>
-      </c>
-      <c r="B298" s="18" t="s">
-        <v>405</v>
       </c>
       <c r="C298" s="48" t="s">
         <v>225</v>
@@ -12614,53 +12614,53 @@
         <v>231</v>
       </c>
       <c r="E298" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F298" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G298" s="43" t="s">
         <v>231</v>
       </c>
       <c r="H298" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="16.5" customHeight="1">
       <c r="A299" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B299" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B299" s="18" t="s">
+      <c r="C299" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C299" s="18" t="s">
+      <c r="D299" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E299" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D299" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E299" s="64" t="s">
-        <v>415</v>
-      </c>
       <c r="F299" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G299" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H299" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G299" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H299" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="64.5">
       <c r="A300" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B300" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B300" s="18" t="s">
+      <c r="C300" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="C300" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="D300" s="43" t="s">
         <v>20</v>
@@ -12669,50 +12669,50 @@
         <v>91</v>
       </c>
       <c r="F300" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G300" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H300" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G300" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H300" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="64.5">
       <c r="A301" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B301" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B301" s="18" t="s">
+      <c r="C301" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="C301" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="D301" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E301" s="64" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F301" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G301" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G301" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H301" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="64.5">
       <c r="A302" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B302" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="B302" s="18" t="s">
+      <c r="C302" s="18" t="s">
         <v>413</v>
-      </c>
-      <c r="C302" s="18" t="s">
-        <v>414</v>
       </c>
       <c r="D302" s="43" t="s">
         <v>35</v>
@@ -12721,21 +12721,21 @@
         <v>93</v>
       </c>
       <c r="F302" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G302" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H302" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G302" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H302" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="32.25" customHeight="1">
       <c r="A303" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="B303" s="25" t="s">
         <v>417</v>
-      </c>
-      <c r="B303" s="25" t="s">
-        <v>418</v>
       </c>
       <c r="C303" s="25" t="s">
         <v>263</v>
@@ -12744,24 +12744,24 @@
         <v>24</v>
       </c>
       <c r="E303" s="64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F303" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G303" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H303" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G303" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H303" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="64.5">
       <c r="A304" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B304" s="29" t="s">
         <v>417</v>
-      </c>
-      <c r="B304" s="29" t="s">
-        <v>418</v>
       </c>
       <c r="C304" s="29" t="s">
         <v>263</v>
@@ -12773,21 +12773,21 @@
         <v>63</v>
       </c>
       <c r="F304" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G304" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H304" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G304" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H304" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="64.5">
       <c r="A305" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B305" s="29" t="s">
         <v>417</v>
-      </c>
-      <c r="B305" s="29" t="s">
-        <v>418</v>
       </c>
       <c r="C305" s="29" t="s">
         <v>263</v>
@@ -12796,24 +12796,24 @@
         <v>11</v>
       </c>
       <c r="E305" s="64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F305" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G305" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H305" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G305" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H305" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="64.5">
       <c r="A306" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="B306" s="29" t="s">
         <v>417</v>
-      </c>
-      <c r="B306" s="29" t="s">
-        <v>418</v>
       </c>
       <c r="C306" s="29" t="s">
         <v>263</v>
@@ -12822,24 +12822,24 @@
         <v>35</v>
       </c>
       <c r="E306" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F306" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G306" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H306" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G306" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H306" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="32.25" customHeight="1">
       <c r="A307" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B307" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B307" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C307" s="18" t="s">
         <v>256</v>
@@ -12848,24 +12848,24 @@
         <v>24</v>
       </c>
       <c r="E307" s="64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F307" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G307" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H307" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G307" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H307" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="81">
       <c r="A308" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B308" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B308" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C308" s="18" t="s">
         <v>256</v>
@@ -12874,24 +12874,24 @@
         <v>20</v>
       </c>
       <c r="E308" s="64" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F308" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G308" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H308" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G308" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H308" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="81">
       <c r="A309" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B309" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B309" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C309" s="18" t="s">
         <v>256</v>
@@ -12900,24 +12900,24 @@
         <v>11</v>
       </c>
       <c r="E309" s="64" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F309" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G309" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H309" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G309" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H309" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="81">
       <c r="A310" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B310" s="18" t="s">
         <v>422</v>
-      </c>
-      <c r="B310" s="18" t="s">
-        <v>423</v>
       </c>
       <c r="C310" s="18" t="s">
         <v>256</v>
@@ -12926,16 +12926,16 @@
         <v>35</v>
       </c>
       <c r="E310" s="64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F310" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G310" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H310" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G310" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H310" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="32.25" customHeight="1">
@@ -12943,7 +12943,7 @@
         <v>275</v>
       </c>
       <c r="B311" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C311" s="18" t="s">
         <v>277</v>
@@ -12952,16 +12952,16 @@
         <v>24</v>
       </c>
       <c r="E311" s="64" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F311" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G311" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H311" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G311" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H311" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="81">
@@ -12969,7 +12969,7 @@
         <v>275</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C312" s="18" t="s">
         <v>277</v>
@@ -12978,16 +12978,16 @@
         <v>20</v>
       </c>
       <c r="E312" s="64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F312" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G312" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H312" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G312" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H312" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="81">
@@ -12995,7 +12995,7 @@
         <v>275</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C313" s="18" t="s">
         <v>277</v>
@@ -13004,16 +13004,16 @@
         <v>11</v>
       </c>
       <c r="E313" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F313" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G313" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G313" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H313" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="81">
@@ -13021,7 +13021,7 @@
         <v>275</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C314" s="18" t="s">
         <v>277</v>
@@ -13030,24 +13030,24 @@
         <v>35</v>
       </c>
       <c r="E314" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F314" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G314" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H314" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G314" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H314" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="32.25" customHeight="1">
       <c r="A315" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B315" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B315" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C315" s="18" t="s">
         <v>284</v>
@@ -13056,24 +13056,24 @@
         <v>24</v>
       </c>
       <c r="E315" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F315" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G315" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H315" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G315" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H315" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="64.5">
       <c r="A316" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B316" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B316" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C316" s="18" t="s">
         <v>284</v>
@@ -13082,24 +13082,24 @@
         <v>20</v>
       </c>
       <c r="E316" s="64" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F316" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G316" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H316" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G316" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H316" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="64.5">
       <c r="A317" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B317" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B317" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C317" s="18" t="s">
         <v>284</v>
@@ -13108,24 +13108,24 @@
         <v>11</v>
       </c>
       <c r="E317" s="64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F317" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G317" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H317" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G317" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H317" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="64.5">
       <c r="A318" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="B318" s="18" t="s">
         <v>433</v>
-      </c>
-      <c r="B318" s="18" t="s">
-        <v>434</v>
       </c>
       <c r="C318" s="18" t="s">
         <v>284</v>
@@ -13134,24 +13134,24 @@
         <v>35</v>
       </c>
       <c r="E318" s="64" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F318" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G318" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H318" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G318" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H318" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="32.25" customHeight="1">
       <c r="A319" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B319" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B319" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C319" s="18" t="s">
         <v>270</v>
@@ -13160,24 +13160,24 @@
         <v>24</v>
       </c>
       <c r="E319" s="64" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F319" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G319" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H319" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G319" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H319" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="64.5">
       <c r="A320" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B320" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B320" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C320" s="18" t="s">
         <v>270</v>
@@ -13186,24 +13186,24 @@
         <v>20</v>
       </c>
       <c r="E320" s="64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F320" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G320" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H320" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G320" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H320" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="64.5">
       <c r="A321" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B321" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B321" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C321" s="18" t="s">
         <v>270</v>
@@ -13212,24 +13212,24 @@
         <v>11</v>
       </c>
       <c r="E321" s="64" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F321" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G321" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H321" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G321" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H321" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="64.5">
       <c r="A322" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B322" s="18" t="s">
         <v>439</v>
-      </c>
-      <c r="B322" s="18" t="s">
-        <v>440</v>
       </c>
       <c r="C322" s="18" t="s">
         <v>270</v>
@@ -13238,24 +13238,24 @@
         <v>35</v>
       </c>
       <c r="E322" s="64" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F322" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G322" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H322" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G322" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H322" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="48.75">
       <c r="A323" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B323" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B323" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C323" s="18" t="s">
         <v>38</v>
@@ -13264,24 +13264,24 @@
         <v>24</v>
       </c>
       <c r="E323" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F323" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G323" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H323" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G323" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H323" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="48.75">
       <c r="A324" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B324" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B324" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C324" s="18" t="s">
         <v>38</v>
@@ -13290,24 +13290,24 @@
         <v>20</v>
       </c>
       <c r="E324" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F324" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G324" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H324" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G324" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H324" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="48.75">
       <c r="A325" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B325" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B325" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C325" s="18" t="s">
         <v>38</v>
@@ -13316,24 +13316,24 @@
         <v>11</v>
       </c>
       <c r="E325" s="64" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F325" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G325" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G325" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H325" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="48.75">
       <c r="A326" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="B326" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="B326" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="C326" s="18" t="s">
         <v>38</v>
@@ -13342,16 +13342,16 @@
         <v>35</v>
       </c>
       <c r="E326" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F326" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G326" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H326" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G326" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H326" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="32.25" customHeight="1">
@@ -13359,25 +13359,25 @@
         <v>240</v>
       </c>
       <c r="B327" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C327" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C327" s="18" t="s">
+      <c r="D327" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E327" s="64" t="s">
         <v>452</v>
       </c>
-      <c r="D327" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E327" s="64" t="s">
-        <v>453</v>
-      </c>
       <c r="F327" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G327" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H327" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G327" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H327" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="81">
@@ -13385,25 +13385,25 @@
         <v>240</v>
       </c>
       <c r="B328" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C328" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D328" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E328" s="64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F328" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G328" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H328" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G328" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H328" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="81">
@@ -13411,25 +13411,25 @@
         <v>240</v>
       </c>
       <c r="B329" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C329" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C329" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D329" s="43" t="s">
         <v>11</v>
       </c>
       <c r="E329" s="64" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F329" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G329" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H329" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G329" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H329" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="81">
@@ -13437,30 +13437,30 @@
         <v>240</v>
       </c>
       <c r="B330" s="18" t="s">
+        <v>450</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C330" s="18" t="s">
-        <v>452</v>
-      </c>
       <c r="D330" s="43" t="s">
         <v>35</v>
       </c>
       <c r="E330" s="64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F330" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G330" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H330" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G330" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H330" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="32.25" customHeight="1">
       <c r="A331" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B331" s="18" t="s">
         <v>235</v>
@@ -13472,21 +13472,21 @@
         <v>24</v>
       </c>
       <c r="E331" s="64" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F331" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G331" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H331" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G331" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H331" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="64.5">
       <c r="A332" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B332" s="18" t="s">
         <v>235</v>
@@ -13498,21 +13498,21 @@
         <v>20</v>
       </c>
       <c r="E332" s="64" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F332" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G332" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H332" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G332" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H332" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="64.5">
       <c r="A333" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B333" s="18" t="s">
         <v>235</v>
@@ -13524,21 +13524,21 @@
         <v>11</v>
       </c>
       <c r="E333" s="64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F333" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G333" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H333" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G333" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H333" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="64.5">
       <c r="A334" s="19" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B334" s="18" t="s">
         <v>235</v>
@@ -13550,24 +13550,24 @@
         <v>35</v>
       </c>
       <c r="E334" s="64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F334" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G334" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H334" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G334" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H334" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="48.75" customHeight="1">
       <c r="A335" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B335" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B335" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C335" s="18" t="s">
         <v>249</v>
@@ -13576,24 +13576,24 @@
         <v>24</v>
       </c>
       <c r="E335" s="64" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F335" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G335" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H335" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G335" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="H335" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="336" spans="1:8" ht="81">
       <c r="A336" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B336" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B336" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>249</v>
@@ -13602,24 +13602,24 @@
         <v>20</v>
       </c>
       <c r="E336" s="64" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F336" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G336" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H336" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G336" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H336" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="81">
       <c r="A337" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B337" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B337" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>249</v>
@@ -13628,24 +13628,24 @@
         <v>11</v>
       </c>
       <c r="E337" s="64" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F337" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="G337" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H337" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G337" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H337" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="81">
       <c r="A338" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B338" s="18" t="s">
         <v>462</v>
-      </c>
-      <c r="B338" s="18" t="s">
-        <v>463</v>
       </c>
       <c r="C338" s="18" t="s">
         <v>249</v>
@@ -13654,24 +13654,24 @@
         <v>35</v>
       </c>
       <c r="E338" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="F338" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="F338" s="43" t="s">
+      <c r="G338" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H338" s="43" t="s">
         <v>468</v>
-      </c>
-      <c r="G338" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H338" s="43" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="30.75">
       <c r="A339" s="68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B339" s="69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C339" s="70" t="s">
         <v>94</v>
@@ -13680,24 +13680,24 @@
         <v>24</v>
       </c>
       <c r="E339" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="F339" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="F339" s="73" t="s">
+      <c r="G339" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H339" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G339" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H339" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="30.75">
       <c r="A340" s="68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B340" s="69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C340" s="70" t="s">
         <v>94</v>
@@ -13706,24 +13706,24 @@
         <v>11</v>
       </c>
       <c r="E340" s="74" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F340" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G340" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H340" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G340" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H340" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="30.75">
       <c r="A341" s="68" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B341" s="69" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C341" s="70" t="s">
         <v>94</v>
@@ -13732,24 +13732,24 @@
         <v>113</v>
       </c>
       <c r="E341" s="72" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F341" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G341" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H341" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G341" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H341" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="30.75">
       <c r="A342" s="75" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B342" s="76" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C342" s="77" t="s">
         <v>94</v>
@@ -13758,76 +13758,76 @@
         <v>231</v>
       </c>
       <c r="E342" s="72" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F342" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G342" s="71" t="s">
         <v>113</v>
       </c>
       <c r="H342" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="45.75">
       <c r="A343" s="78" t="s">
+        <v>521</v>
+      </c>
+      <c r="B343" s="79" t="s">
+        <v>521</v>
+      </c>
+      <c r="C343" s="80" t="s">
         <v>522</v>
       </c>
-      <c r="B343" s="79" t="s">
-        <v>522</v>
-      </c>
-      <c r="C343" s="80" t="s">
+      <c r="D343" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E343" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="D343" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E343" s="72" t="s">
-        <v>524</v>
-      </c>
       <c r="F343" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G343" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H343" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G343" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H343" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="45.75">
       <c r="A344" s="81" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B344" s="82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D344" s="71" t="s">
         <v>231</v>
       </c>
       <c r="E344" s="72" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F344" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G344" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H344" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G344" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H344" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="30.75">
       <c r="A345" s="75" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B345" s="76" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C345" s="77" t="s">
         <v>27</v>
@@ -13836,24 +13836,24 @@
         <v>24</v>
       </c>
       <c r="E345" s="72" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F345" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G345" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H345" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G345" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H345" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="30.75">
       <c r="A346" s="78" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B346" s="79" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C346" s="80" t="s">
         <v>27</v>
@@ -13862,24 +13862,24 @@
         <v>113</v>
       </c>
       <c r="E346" s="72" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F346" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G346" s="71" t="s">
         <v>113</v>
       </c>
       <c r="H346" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="30.75">
       <c r="A347" s="84" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B347" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C347" s="86" t="s">
         <v>27</v>
@@ -13888,24 +13888,24 @@
         <v>231</v>
       </c>
       <c r="E347" s="72" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F347" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G347" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H347" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G347" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H347" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="30.75" customHeight="1">
       <c r="A348" s="87" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B348" s="87" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C348" s="88" t="s">
         <v>61</v>
@@ -13914,102 +13914,102 @@
         <v>11</v>
       </c>
       <c r="E348" s="72" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F348" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G348" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H348" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G348" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H348" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="349" spans="1:8" ht="45.75">
       <c r="A349" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B349" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C349" s="90" t="s">
         <v>61</v>
       </c>
       <c r="D349" s="71" t="s">
+        <v>532</v>
+      </c>
+      <c r="E349" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="E349" s="72" t="s">
+      <c r="F349" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G349" s="71" t="s">
         <v>534</v>
       </c>
-      <c r="F349" s="73" t="s">
+      <c r="H349" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G349" s="71" t="s">
-        <v>535</v>
-      </c>
-      <c r="H349" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="45.75">
       <c r="A350" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B350" s="89" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C350" s="90" t="s">
         <v>61</v>
       </c>
       <c r="D350" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="E350" s="72" t="s">
         <v>536</v>
       </c>
-      <c r="E350" s="72" t="s">
-        <v>537</v>
-      </c>
       <c r="F350" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G350" s="71" t="s">
+        <v>535</v>
+      </c>
+      <c r="H350" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G350" s="71" t="s">
-        <v>536</v>
-      </c>
-      <c r="H350" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="45.75">
       <c r="A351" s="91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B351" s="91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C351" s="92" t="s">
         <v>61</v>
       </c>
       <c r="D351" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="E351" s="72" t="s">
         <v>538</v>
       </c>
-      <c r="E351" s="72" t="s">
+      <c r="F351" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G351" s="71" t="s">
         <v>539</v>
       </c>
-      <c r="F351" s="73" t="s">
+      <c r="H351" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G351" s="71" t="s">
-        <v>540</v>
-      </c>
-      <c r="H351" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="30.75" customHeight="1">
       <c r="A352" s="93" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B352" s="94" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C352" s="77" t="s">
         <v>23</v>
@@ -14018,232 +14018,232 @@
         <v>35</v>
       </c>
       <c r="E352" s="72" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F352" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G352" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="H352" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G352" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="H352" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="45.75">
       <c r="A353" s="95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B353" s="96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C353" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D353" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="E353" s="72" t="s">
         <v>542</v>
       </c>
-      <c r="E353" s="72" t="s">
-        <v>543</v>
-      </c>
       <c r="F353" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G353" s="71" t="s">
         <v>113</v>
       </c>
       <c r="H353" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="45.75">
       <c r="A354" s="95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B354" s="96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C354" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D354" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="E354" s="72" t="s">
         <v>544</v>
       </c>
-      <c r="E354" s="72" t="s">
-        <v>545</v>
-      </c>
       <c r="F354" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G354" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="H354" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G354" s="71" t="s">
-        <v>538</v>
-      </c>
-      <c r="H354" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="45.75">
       <c r="A355" s="95" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B355" s="96" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C355" s="80" t="s">
         <v>23</v>
       </c>
       <c r="D355" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="E355" s="72" t="s">
         <v>546</v>
       </c>
-      <c r="E355" s="72" t="s">
-        <v>547</v>
-      </c>
       <c r="F355" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G355" s="71" t="s">
+        <v>543</v>
+      </c>
+      <c r="H355" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G355" s="71" t="s">
-        <v>544</v>
-      </c>
-      <c r="H355" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="30.75">
       <c r="A356" s="97" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B356" s="98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C356" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="D356" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E356" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="D356" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="E356" s="98" t="s">
-        <v>549</v>
-      </c>
       <c r="F356" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G356" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H356" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G356" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H356" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="30.75">
       <c r="A357" s="101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B357" s="101" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C357" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="D357" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="E357" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="D357" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="E357" s="98" t="s">
-        <v>551</v>
-      </c>
       <c r="F357" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G357" s="100" t="s">
         <v>231</v>
       </c>
       <c r="H357" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="45.75">
       <c r="A358" s="101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B358" s="101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C358" s="103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D358" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E358" s="98" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F358" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G358" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H358" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G358" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H358" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="45.75">
       <c r="A359" s="101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B359" s="101" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C359" s="103" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D359" s="100" t="s">
         <v>113</v>
       </c>
       <c r="E359" s="98" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F359" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G359" s="100" t="s">
         <v>113</v>
       </c>
       <c r="H359" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="45.75">
       <c r="A360" s="104" t="s">
+        <v>553</v>
+      </c>
+      <c r="B360" s="105" t="s">
+        <v>553</v>
+      </c>
+      <c r="C360" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="B360" s="105" t="s">
-        <v>554</v>
-      </c>
-      <c r="C360" s="99" t="s">
+      <c r="D360" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E360" s="98" t="s">
         <v>555</v>
       </c>
-      <c r="D360" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="E360" s="98" t="s">
-        <v>556</v>
-      </c>
       <c r="F360" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G360" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H360" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G360" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H360" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="45.75">
       <c r="A361" s="102" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B361" s="106" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C361" s="106" t="s">
         <v>27</v>
@@ -14252,24 +14252,24 @@
         <v>20</v>
       </c>
       <c r="E361" s="98" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F361" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G361" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="H361" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G361" s="100" t="s">
-        <v>542</v>
-      </c>
-      <c r="H361" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="362" spans="1:8">
       <c r="A362" s="103" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B362" s="107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C362" s="107" t="s">
         <v>27</v>
@@ -14278,24 +14278,24 @@
         <v>11</v>
       </c>
       <c r="E362" s="98" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F362" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G362" s="100" t="s">
         <v>231</v>
       </c>
       <c r="H362" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="30.75">
       <c r="A363" s="103" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B363" s="107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C363" s="107" t="s">
         <v>27</v>
@@ -14304,50 +14304,50 @@
         <v>35</v>
       </c>
       <c r="E363" s="98" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F363" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G363" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H363" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G363" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H363" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="30.75">
       <c r="A364" s="103" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B364" s="107" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C364" s="107" t="s">
         <v>27</v>
       </c>
       <c r="D364" s="100" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E364" s="98" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F364" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G364" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H364" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G364" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H364" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="60.75">
       <c r="A365" s="97" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B365" s="98" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C365" s="100" t="s">
         <v>83</v>
@@ -14356,128 +14356,128 @@
         <v>231</v>
       </c>
       <c r="E365" s="98" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F365" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G365" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="H365" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G365" s="100" t="s">
-        <v>542</v>
-      </c>
-      <c r="H365" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="45.75">
       <c r="A366" s="108" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B366" s="72" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C366" s="71" t="s">
+        <v>561</v>
+      </c>
+      <c r="D366" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="E366" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="D366" s="71" t="s">
-        <v>542</v>
-      </c>
-      <c r="E366" s="109" t="s">
-        <v>563</v>
-      </c>
       <c r="F366" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G366" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H366" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G366" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H366" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="30.75">
       <c r="A367" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="B367" s="82" t="s">
+        <v>563</v>
+      </c>
+      <c r="C367" s="83" t="s">
         <v>564</v>
       </c>
-      <c r="B367" s="82" t="s">
-        <v>564</v>
-      </c>
-      <c r="C367" s="83" t="s">
+      <c r="D367" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E367" s="72" t="s">
         <v>565</v>
       </c>
-      <c r="D367" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E367" s="72" t="s">
-        <v>566</v>
-      </c>
       <c r="F367" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G367" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H367" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G367" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H367" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="30.75" customHeight="1">
       <c r="A368" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B368" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C368" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="D368" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" s="72" t="s">
         <v>567</v>
       </c>
-      <c r="D368" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E368" s="72" t="s">
-        <v>568</v>
-      </c>
       <c r="F368" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G368" s="71" t="s">
         <v>113</v>
       </c>
       <c r="H368" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="45.75">
       <c r="A369" s="78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B369" s="79" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C369" s="79" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D369" s="71" t="s">
         <v>35</v>
       </c>
       <c r="E369" s="72" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F369" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G369" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H369" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G369" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H369" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="30.75">
       <c r="A370" s="90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B370" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C370" s="79" t="s">
         <v>27</v>
@@ -14486,154 +14486,154 @@
         <v>231</v>
       </c>
       <c r="E370" s="72" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F370" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G370" s="71" t="s">
         <v>113</v>
       </c>
       <c r="H370" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="30.75">
       <c r="A371" s="90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B371" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C371" s="79" t="s">
         <v>27</v>
       </c>
       <c r="D371" s="71" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E371" s="72" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F371" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G371" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H371" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G371" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H371" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="45.75">
       <c r="A372" s="108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B372" s="72" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C372" s="72" t="s">
+        <v>572</v>
+      </c>
+      <c r="D372" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E372" s="72" t="s">
         <v>573</v>
       </c>
-      <c r="D372" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E372" s="72" t="s">
-        <v>574</v>
-      </c>
       <c r="F372" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G372" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H372" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G372" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H372" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="45.75">
       <c r="A373" s="97" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B373" s="98" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C373" s="98" t="s">
+        <v>574</v>
+      </c>
+      <c r="D373" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E373" s="110" t="s">
         <v>575</v>
       </c>
-      <c r="D373" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E373" s="110" t="s">
-        <v>576</v>
-      </c>
       <c r="F373" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G373" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="H373" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G373" s="100" t="s">
-        <v>542</v>
-      </c>
-      <c r="H373" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="30.75">
       <c r="A374" s="97" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B374" s="98" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C374" s="100" t="s">
+        <v>576</v>
+      </c>
+      <c r="D374" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E374" s="98" t="s">
         <v>577</v>
       </c>
-      <c r="D374" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="E374" s="98" t="s">
-        <v>578</v>
-      </c>
       <c r="F374" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G374" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H374" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G374" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H374" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="30.75">
       <c r="A375" s="104" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B375" s="105" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C375" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="D375" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E375" s="98" t="s">
         <v>579</v>
       </c>
-      <c r="D375" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E375" s="98" t="s">
-        <v>580</v>
-      </c>
       <c r="F375" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G375" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H375" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G375" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H375" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="30.75">
       <c r="A376" s="102" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B376" s="106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C376" s="106" t="s">
         <v>27</v>
@@ -14642,24 +14642,24 @@
         <v>20</v>
       </c>
       <c r="E376" s="98" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F376" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G376" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H376" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G376" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H376" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="30.75">
       <c r="A377" s="111" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B377" s="112" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C377" s="112" t="s">
         <v>27</v>
@@ -14668,180 +14668,180 @@
         <v>113</v>
       </c>
       <c r="E377" s="98" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F377" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G377" s="100" t="s">
+        <v>532</v>
+      </c>
+      <c r="H377" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G377" s="100" t="s">
-        <v>533</v>
-      </c>
-      <c r="H377" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="45.75">
       <c r="A378" s="113" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B378" s="114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C378" s="114" t="s">
+        <v>582</v>
+      </c>
+      <c r="D378" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="98" t="s">
         <v>583</v>
       </c>
-      <c r="D378" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="E378" s="98" t="s">
-        <v>584</v>
-      </c>
       <c r="F378" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G378" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H378" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G378" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H378" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="60.75">
       <c r="A379" s="115" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B379" s="116" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C379" s="116" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D379" s="100" t="s">
         <v>113</v>
       </c>
       <c r="E379" s="98" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F379" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G379" s="100" t="s">
+        <v>532</v>
+      </c>
+      <c r="H379" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G379" s="100" t="s">
-        <v>533</v>
-      </c>
-      <c r="H379" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="45.75">
       <c r="A380" s="81" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B380" s="82" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C380" s="83" t="s">
+        <v>585</v>
+      </c>
+      <c r="D380" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E380" s="117" t="s">
         <v>586</v>
       </c>
-      <c r="D380" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="E380" s="117" t="s">
-        <v>587</v>
-      </c>
       <c r="F380" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G380" s="71" t="s">
         <v>231</v>
       </c>
       <c r="H380" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="45.75">
       <c r="A381" s="75" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B381" s="76" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C381" s="77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D381" s="71" t="s">
         <v>24</v>
       </c>
       <c r="E381" s="72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F381" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G381" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H381" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G381" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H381" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="45.75">
       <c r="A382" s="108" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B382" s="72" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C382" s="72" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D382" s="71" t="s">
         <v>113</v>
       </c>
       <c r="E382" s="72" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F382" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G382" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H382" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G382" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H382" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="30.75">
       <c r="A383" s="81" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B383" s="82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C383" s="83" t="s">
+        <v>590</v>
+      </c>
+      <c r="D383" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E383" s="72" t="s">
         <v>591</v>
       </c>
-      <c r="D383" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E383" s="72" t="s">
-        <v>592</v>
-      </c>
       <c r="F383" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G383" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H383" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G383" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H383" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="30.75">
       <c r="A384" s="88" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B384" s="77" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C384" s="77" t="s">
         <v>27</v>
@@ -14850,24 +14850,24 @@
         <v>24</v>
       </c>
       <c r="E384" s="72" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F384" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G384" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="H384" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G384" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="H384" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="45.75">
       <c r="A385" s="90" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B385" s="80" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C385" s="80" t="s">
         <v>27</v>
@@ -14876,258 +14876,258 @@
         <v>11</v>
       </c>
       <c r="E385" s="72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F385" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G385" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H385" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G385" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H385" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="45.75">
       <c r="A386" s="108" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B386" s="72" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C386" s="83" t="s">
         <v>117</v>
       </c>
       <c r="D386" s="71" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E386" s="72" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F386" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G386" s="71" t="s">
+        <v>545</v>
+      </c>
+      <c r="H386" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G386" s="71" t="s">
-        <v>546</v>
-      </c>
-      <c r="H386" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="30.75" customHeight="1">
       <c r="A387" s="104" t="s">
+        <v>595</v>
+      </c>
+      <c r="B387" s="224" t="s">
+        <v>595</v>
+      </c>
+      <c r="C387" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="B387" s="224" t="s">
-        <v>596</v>
-      </c>
-      <c r="C387" s="102" t="s">
+      <c r="D387" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E387" s="98" t="s">
         <v>597</v>
       </c>
-      <c r="D387" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E387" s="98" t="s">
-        <v>598</v>
-      </c>
       <c r="F387" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G387" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H387" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G387" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H387" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="60.75">
       <c r="A388" s="118" t="s">
+        <v>595</v>
+      </c>
+      <c r="B388" s="225" t="s">
+        <v>595</v>
+      </c>
+      <c r="C388" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="B388" s="225" t="s">
-        <v>596</v>
-      </c>
-      <c r="C388" s="102" t="s">
-        <v>597</v>
-      </c>
       <c r="D388" s="100" t="s">
         <v>20</v>
       </c>
       <c r="E388" s="98" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F388" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G388" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H388" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G388" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H388" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="45.75">
       <c r="A389" s="113" t="s">
+        <v>595</v>
+      </c>
+      <c r="B389" s="226" t="s">
+        <v>595</v>
+      </c>
+      <c r="C389" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="B389" s="226" t="s">
-        <v>596</v>
-      </c>
-      <c r="C389" s="102" t="s">
-        <v>597</v>
-      </c>
       <c r="D389" s="100" t="s">
         <v>11</v>
       </c>
       <c r="E389" s="98" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F389" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G389" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H389" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G389" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H389" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="45.75">
       <c r="A390" s="115" t="s">
+        <v>595</v>
+      </c>
+      <c r="B390" s="227" t="s">
+        <v>595</v>
+      </c>
+      <c r="C390" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="B390" s="227" t="s">
-        <v>596</v>
-      </c>
-      <c r="C390" s="102" t="s">
-        <v>597</v>
-      </c>
       <c r="D390" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E390" s="98" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F390" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G390" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H390" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G390" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H390" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="30.75">
       <c r="A391" s="119" t="s">
+        <v>601</v>
+      </c>
+      <c r="B391" s="224" t="s">
+        <v>601</v>
+      </c>
+      <c r="C391" s="102" t="s">
         <v>602</v>
       </c>
-      <c r="B391" s="224" t="s">
-        <v>602</v>
-      </c>
-      <c r="C391" s="102" t="s">
+      <c r="D391" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E391" s="98" t="s">
         <v>603</v>
       </c>
-      <c r="D391" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E391" s="98" t="s">
-        <v>604</v>
-      </c>
       <c r="F391" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G391" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H391" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G391" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H391" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="30.75">
       <c r="A392" s="113" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B392" s="114" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C392" s="107" t="s">
+        <v>604</v>
+      </c>
+      <c r="D392" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="E392" s="98" t="s">
         <v>605</v>
       </c>
-      <c r="D392" s="100" t="s">
-        <v>20</v>
-      </c>
-      <c r="E392" s="98" t="s">
-        <v>606</v>
-      </c>
       <c r="F392" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G392" s="100" t="s">
+        <v>11</v>
+      </c>
+      <c r="H392" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G392" s="100" t="s">
-        <v>11</v>
-      </c>
-      <c r="H392" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="30.75">
       <c r="A393" s="115" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B393" s="116" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C393" s="107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D393" s="100" t="s">
         <v>11</v>
       </c>
       <c r="E393" s="98" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F393" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G393" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H393" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G393" s="100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H393" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="30.75">
       <c r="A394" s="119" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B394" s="120" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C394" s="107" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D394" s="100" t="s">
         <v>35</v>
       </c>
       <c r="E394" s="98" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F394" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G394" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="H394" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G394" s="100" t="s">
-        <v>24</v>
-      </c>
-      <c r="H394" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="45.75">
       <c r="A395" s="102" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B395" s="106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C395" s="106" t="s">
         <v>27</v>
@@ -15136,131 +15136,131 @@
         <v>35</v>
       </c>
       <c r="E395" s="98" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F395" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G395" s="100" t="s">
+        <v>541</v>
+      </c>
+      <c r="H395" s="73" t="s">
         <v>517</v>
-      </c>
-      <c r="G395" s="100" t="s">
-        <v>542</v>
-      </c>
-      <c r="H395" s="73" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="30.75">
       <c r="A396" s="103" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B396" s="107" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C396" s="107" t="s">
         <v>27</v>
       </c>
       <c r="D396" s="100" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E396" s="98" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F396" s="73" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G396" s="100" t="s">
         <v>231</v>
       </c>
       <c r="H396" s="73" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="30.75">
       <c r="A397" s="121" t="s">
+        <v>610</v>
+      </c>
+      <c r="B397" s="122" t="s">
         <v>611</v>
       </c>
-      <c r="B397" s="122" t="s">
+      <c r="C397" s="123" t="s">
         <v>612</v>
       </c>
-      <c r="C397" s="123" t="s">
+      <c r="D397" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E397" s="122" t="s">
         <v>613</v>
       </c>
-      <c r="D397" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E397" s="122" t="s">
+      <c r="F397" s="73" t="s">
         <v>614</v>
       </c>
-      <c r="F397" s="73" t="s">
+      <c r="G397" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H397" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G397" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H397" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="45.75">
       <c r="A398" s="121" t="s">
+        <v>616</v>
+      </c>
+      <c r="B398" s="122" t="s">
         <v>617</v>
       </c>
-      <c r="B398" s="122" t="s">
+      <c r="C398" s="123" t="s">
         <v>618</v>
       </c>
-      <c r="C398" s="123" t="s">
+      <c r="D398" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E398" s="122" t="s">
         <v>619</v>
       </c>
-      <c r="D398" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E398" s="122" t="s">
-        <v>620</v>
-      </c>
       <c r="F398" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G398" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H398" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G398" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H398" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="45.75">
       <c r="A399" s="125" t="s">
+        <v>616</v>
+      </c>
+      <c r="B399" s="126" t="s">
         <v>617</v>
       </c>
-      <c r="B399" s="126" t="s">
-        <v>618</v>
-      </c>
       <c r="C399" s="127" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D399" s="124" t="s">
         <v>11</v>
       </c>
       <c r="E399" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F399" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G399" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H399" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G399" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H399" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="27" customHeight="1">
       <c r="A400" s="128" t="s">
+        <v>621</v>
+      </c>
+      <c r="B400" s="129" t="s">
         <v>622</v>
       </c>
-      <c r="B400" s="129" t="s">
+      <c r="C400" s="130" t="s">
         <v>623</v>
-      </c>
-      <c r="C400" s="130" t="s">
-        <v>624</v>
       </c>
       <c r="D400" s="124" t="s">
         <v>24</v>
@@ -15269,76 +15269,76 @@
         <v>63</v>
       </c>
       <c r="F400" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G400" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H400" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G400" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H400" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="45.75">
       <c r="A401" s="132" t="s">
+        <v>621</v>
+      </c>
+      <c r="B401" s="133" t="s">
         <v>622</v>
       </c>
-      <c r="B401" s="133" t="s">
+      <c r="C401" s="134" t="s">
         <v>623</v>
       </c>
-      <c r="C401" s="134" t="s">
+      <c r="D401" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="E401" s="131" t="s">
         <v>624</v>
       </c>
-      <c r="D401" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="E401" s="131" t="s">
-        <v>625</v>
-      </c>
       <c r="F401" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G401" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H401" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G401" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H401" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="45.75">
       <c r="A402" s="132" t="s">
+        <v>621</v>
+      </c>
+      <c r="B402" s="133" t="s">
         <v>622</v>
       </c>
-      <c r="B402" s="133" t="s">
+      <c r="C402" s="134" t="s">
         <v>623</v>
       </c>
-      <c r="C402" s="134" t="s">
-        <v>624</v>
-      </c>
       <c r="D402" s="124" t="s">
         <v>11</v>
       </c>
       <c r="E402" s="131" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F402" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G402" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H402" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G402" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H402" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="45.75">
       <c r="A403" s="132" t="s">
+        <v>621</v>
+      </c>
+      <c r="B403" s="133" t="s">
         <v>622</v>
       </c>
-      <c r="B403" s="133" t="s">
+      <c r="C403" s="134" t="s">
         <v>623</v>
-      </c>
-      <c r="C403" s="134" t="s">
-        <v>624</v>
       </c>
       <c r="D403" s="124" t="s">
         <v>35</v>
@@ -15347,13 +15347,13 @@
         <v>62</v>
       </c>
       <c r="F403" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G403" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H403" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G403" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H403" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="27" customHeight="1">
@@ -15370,16 +15370,16 @@
         <v>24</v>
       </c>
       <c r="E404" s="131" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F404" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G404" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H404" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G404" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H404" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="45.75">
@@ -15399,13 +15399,13 @@
         <v>314</v>
       </c>
       <c r="F405" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G405" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H405" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G405" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H405" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="45.75">
@@ -15425,13 +15425,13 @@
         <v>313</v>
       </c>
       <c r="F406" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G406" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H406" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G406" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H406" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="45.75">
@@ -15451,13 +15451,13 @@
         <v>316</v>
       </c>
       <c r="F407" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G407" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H407" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G407" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H407" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="408" spans="1:8" ht="27" customHeight="1">
@@ -15474,16 +15474,16 @@
         <v>24</v>
       </c>
       <c r="E408" s="131" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F408" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G408" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H408" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G408" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H408" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="409" spans="1:8" ht="60.75">
@@ -15500,16 +15500,16 @@
         <v>20</v>
       </c>
       <c r="E409" s="131" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F409" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G409" s="124" t="s">
+        <v>35</v>
+      </c>
+      <c r="H409" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G409" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="H409" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="60.75">
@@ -15523,19 +15523,19 @@
         <v>31</v>
       </c>
       <c r="D410" s="124" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E410" s="131" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F410" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G410" s="124" t="s">
+        <v>627</v>
+      </c>
+      <c r="H410" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G410" s="124" t="s">
-        <v>628</v>
-      </c>
-      <c r="H410" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="60.75">
@@ -15552,24 +15552,24 @@
         <v>35</v>
       </c>
       <c r="E411" s="131" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F411" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G411" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H411" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G411" s="124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H411" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="27" customHeight="1">
       <c r="A412" s="128" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B412" s="129" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C412" s="130" t="s">
         <v>27</v>
@@ -15581,21 +15581,21 @@
         <v>310</v>
       </c>
       <c r="F412" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G412" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="H412" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G412" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="H412" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="60.75">
       <c r="A413" s="132" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B413" s="133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C413" s="134" t="s">
         <v>27</v>
@@ -15607,203 +15607,203 @@
         <v>309</v>
       </c>
       <c r="F413" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G413" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H413" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G413" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="H413" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="30.75">
       <c r="A414" s="138" t="s">
+        <v>610</v>
+      </c>
+      <c r="B414" s="139" t="s">
         <v>611</v>
       </c>
-      <c r="B414" s="139" t="s">
-        <v>612</v>
-      </c>
       <c r="C414" s="140" t="s">
+        <v>629</v>
+      </c>
+      <c r="D414" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" s="142" t="s">
         <v>630</v>
       </c>
-      <c r="D414" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E414" s="142" t="s">
-        <v>631</v>
-      </c>
       <c r="F414" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G414" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H414" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G414" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H414" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="45.75">
       <c r="A415" s="138" t="s">
+        <v>616</v>
+      </c>
+      <c r="B415" s="139" t="s">
         <v>617</v>
       </c>
-      <c r="B415" s="139" t="s">
-        <v>618</v>
-      </c>
       <c r="C415" s="140" t="s">
+        <v>631</v>
+      </c>
+      <c r="D415" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="E415" s="142" t="s">
         <v>632</v>
       </c>
-      <c r="D415" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="E415" s="142" t="s">
-        <v>633</v>
-      </c>
       <c r="F415" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G415" s="141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H415" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G415" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="H415" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="45.75">
       <c r="A416" s="143" t="s">
+        <v>616</v>
+      </c>
+      <c r="B416" s="144" t="s">
         <v>617</v>
       </c>
-      <c r="B416" s="144" t="s">
-        <v>618</v>
-      </c>
       <c r="C416" s="145" t="s">
+        <v>633</v>
+      </c>
+      <c r="D416" s="146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E416" s="142" t="s">
         <v>634</v>
       </c>
-      <c r="D416" s="146" t="s">
-        <v>35</v>
-      </c>
-      <c r="E416" s="142" t="s">
-        <v>635</v>
-      </c>
       <c r="F416" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G416" s="146" t="s">
+        <v>24</v>
+      </c>
+      <c r="H416" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G416" s="146" t="s">
-        <v>24</v>
-      </c>
-      <c r="H416" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="27" customHeight="1">
       <c r="A417" s="147" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B417" s="148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C417" s="147" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D417" s="149" t="s">
         <v>24</v>
       </c>
       <c r="E417" s="140" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F417" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G417" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H417" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G417" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="H417" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="40.5">
       <c r="A418" s="150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B418" s="151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C418" s="150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D418" s="149" t="s">
+        <v>636</v>
+      </c>
+      <c r="E418" s="140" t="s">
         <v>637</v>
       </c>
-      <c r="E418" s="140" t="s">
-        <v>638</v>
-      </c>
       <c r="F418" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G418" s="149" t="s">
+        <v>636</v>
+      </c>
+      <c r="H418" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G418" s="149" t="s">
-        <v>637</v>
-      </c>
-      <c r="H418" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="40.5">
       <c r="A419" s="150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B419" s="151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C419" s="150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D419" s="149" t="s">
         <v>11</v>
       </c>
       <c r="E419" s="140" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F419" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G419" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H419" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G419" s="149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H419" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="40.5">
       <c r="A420" s="150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B420" s="151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C420" s="150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D420" s="149" t="s">
         <v>35</v>
       </c>
       <c r="E420" s="140" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F420" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G420" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H420" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G420" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="H420" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="15.75" customHeight="1">
       <c r="A421" s="152" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B421" s="153" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C421" s="153" t="s">
         <v>54</v>
@@ -15812,24 +15812,24 @@
         <v>24</v>
       </c>
       <c r="E421" s="140" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F421" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G421" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H421" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G421" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="H421" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="40.5">
       <c r="A422" s="147" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B422" s="154" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C422" s="154" t="s">
         <v>54</v>
@@ -15838,24 +15838,24 @@
         <v>20</v>
       </c>
       <c r="E422" s="140" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F422" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G422" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H422" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G422" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H422" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="40.5">
       <c r="A423" s="150" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B423" s="155" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C423" s="155" t="s">
         <v>54</v>
@@ -15864,24 +15864,24 @@
         <v>11</v>
       </c>
       <c r="E423" s="140" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F423" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G423" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H423" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G423" s="149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H423" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="40.5">
       <c r="A424" s="156" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B424" s="157" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C424" s="157" t="s">
         <v>54</v>
@@ -15890,27 +15890,27 @@
         <v>35</v>
       </c>
       <c r="E424" s="140" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F424" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G424" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H424" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G424" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="H424" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="27">
       <c r="A425" s="147" t="s">
+        <v>645</v>
+      </c>
+      <c r="B425" s="154" t="s">
+        <v>645</v>
+      </c>
+      <c r="C425" s="154" t="s">
         <v>646</v>
-      </c>
-      <c r="B425" s="154" t="s">
-        <v>646</v>
-      </c>
-      <c r="C425" s="154" t="s">
-        <v>39</v>
       </c>
       <c r="D425" s="149" t="s">
         <v>24</v>
@@ -15919,99 +15919,99 @@
         <v>647</v>
       </c>
       <c r="F425" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G425" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="H425" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G425" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="H425" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="27">
       <c r="A426" s="150" t="s">
+        <v>645</v>
+      </c>
+      <c r="B426" s="155" t="s">
+        <v>645</v>
+      </c>
+      <c r="C426" s="155" t="s">
         <v>646</v>
       </c>
-      <c r="B426" s="155" t="s">
-        <v>646</v>
-      </c>
-      <c r="C426" s="155" t="s">
-        <v>39</v>
-      </c>
       <c r="D426" s="149" t="s">
         <v>20</v>
       </c>
       <c r="E426" s="140" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F426" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G426" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H426" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G426" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H426" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="27">
       <c r="A427" s="150" t="s">
+        <v>645</v>
+      </c>
+      <c r="B427" s="155" t="s">
+        <v>645</v>
+      </c>
+      <c r="C427" s="155" t="s">
         <v>646</v>
       </c>
-      <c r="B427" s="155" t="s">
-        <v>646</v>
-      </c>
-      <c r="C427" s="155" t="s">
-        <v>39</v>
-      </c>
       <c r="D427" s="149" t="s">
         <v>11</v>
       </c>
       <c r="E427" s="140" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F427" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G427" s="149" t="s">
+        <v>11</v>
+      </c>
+      <c r="H427" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G427" s="149" t="s">
-        <v>11</v>
-      </c>
-      <c r="H427" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="27">
       <c r="A428" s="156" t="s">
+        <v>645</v>
+      </c>
+      <c r="B428" s="157" t="s">
+        <v>645</v>
+      </c>
+      <c r="C428" s="157" t="s">
         <v>646</v>
       </c>
-      <c r="B428" s="157" t="s">
-        <v>646</v>
-      </c>
-      <c r="C428" s="157" t="s">
-        <v>39</v>
-      </c>
       <c r="D428" s="149" t="s">
         <v>35</v>
       </c>
       <c r="E428" s="140" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F428" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G428" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="H428" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G428" s="149" t="s">
-        <v>35</v>
-      </c>
-      <c r="H428" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="27" customHeight="1">
       <c r="A429" s="147" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B429" s="154" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C429" s="154" t="s">
         <v>27</v>
@@ -16020,24 +16020,24 @@
         <v>11</v>
       </c>
       <c r="E429" s="140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F429" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G429" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H429" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G429" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="H429" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="53.25">
       <c r="A430" s="150" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B430" s="155" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C430" s="155" t="s">
         <v>27</v>
@@ -16046,24 +16046,24 @@
         <v>35</v>
       </c>
       <c r="E430" s="140" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F430" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G430" s="149" t="s">
         <v>231</v>
       </c>
       <c r="H430" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="30.75">
       <c r="A431" s="159" t="s">
+        <v>610</v>
+      </c>
+      <c r="B431" s="160" t="s">
         <v>611</v>
-      </c>
-      <c r="B431" s="160" t="s">
-        <v>612</v>
       </c>
       <c r="C431" s="161" t="s">
         <v>648</v>
@@ -16075,21 +16075,21 @@
         <v>649</v>
       </c>
       <c r="F431" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G431" s="232" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G431" s="232" t="s">
-        <v>11</v>
-      </c>
-      <c r="H431" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="30.75" customHeight="1">
       <c r="A432" s="164" t="s">
+        <v>610</v>
+      </c>
+      <c r="B432" s="165" t="s">
         <v>611</v>
-      </c>
-      <c r="B432" s="165" t="s">
-        <v>612</v>
       </c>
       <c r="C432" s="166" t="s">
         <v>650</v>
@@ -16101,19 +16101,19 @@
         <v>649</v>
       </c>
       <c r="F432" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G432" s="233"/>
       <c r="H432" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="30.75">
       <c r="A433" s="169" t="s">
+        <v>610</v>
+      </c>
+      <c r="B433" s="170" t="s">
         <v>611</v>
-      </c>
-      <c r="B433" s="170" t="s">
-        <v>612</v>
       </c>
       <c r="C433" s="171" t="s">
         <v>651</v>
@@ -16125,21 +16125,21 @@
         <v>652</v>
       </c>
       <c r="F433" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G433" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="H433" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G433" s="174" t="s">
-        <v>35</v>
-      </c>
-      <c r="H433" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="15.75" customHeight="1">
       <c r="A434" s="175" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B434" s="176" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C434" s="176" t="s">
         <v>653</v>
@@ -16151,21 +16151,21 @@
         <v>105</v>
       </c>
       <c r="F434" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G434" s="177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H434" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G434" s="177" t="s">
-        <v>24</v>
-      </c>
-      <c r="H434" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="40.5">
       <c r="A435" s="179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B435" s="180" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C435" s="180" t="s">
         <v>653</v>
@@ -16177,21 +16177,21 @@
         <v>106</v>
       </c>
       <c r="F435" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G435" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H435" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G435" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H435" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="40.5">
       <c r="A436" s="179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B436" s="180" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C436" s="180" t="s">
         <v>653</v>
@@ -16203,21 +16203,21 @@
         <v>104</v>
       </c>
       <c r="F436" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G436" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H436" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G436" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="H436" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="40.5">
       <c r="A437" s="179" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B437" s="180" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C437" s="180" t="s">
         <v>653</v>
@@ -16229,13 +16229,13 @@
         <v>107</v>
       </c>
       <c r="F437" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G437" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H437" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G437" s="177" t="s">
-        <v>35</v>
-      </c>
-      <c r="H437" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="438" spans="1:8" ht="27" customHeight="1">
@@ -16255,13 +16255,13 @@
         <v>119</v>
       </c>
       <c r="F438" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G438" s="177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H438" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G438" s="177" t="s">
-        <v>24</v>
-      </c>
-      <c r="H438" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="439" spans="1:8" ht="53.25">
@@ -16281,13 +16281,13 @@
         <v>120</v>
       </c>
       <c r="F439" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G439" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H439" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G439" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H439" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="440" spans="1:8" ht="53.25">
@@ -16307,13 +16307,13 @@
         <v>118</v>
       </c>
       <c r="F440" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G440" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H440" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G440" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="H440" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="441" spans="1:8" ht="53.25">
@@ -16333,13 +16333,13 @@
         <v>655</v>
       </c>
       <c r="F441" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G441" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H441" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G441" s="177" t="s">
-        <v>35</v>
-      </c>
-      <c r="H441" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="442" spans="1:8" ht="27" customHeight="1">
@@ -16356,16 +16356,16 @@
         <v>24</v>
       </c>
       <c r="E442" s="178" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F442" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G442" s="177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H442" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G442" s="177" t="s">
-        <v>24</v>
-      </c>
-      <c r="H442" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="443" spans="1:8" ht="40.5">
@@ -16382,16 +16382,16 @@
         <v>20</v>
       </c>
       <c r="E443" s="178" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F443" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G443" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="H443" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G443" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="H443" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="40.5">
@@ -16408,16 +16408,16 @@
         <v>11</v>
       </c>
       <c r="E444" s="178" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F444" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G444" s="177" t="s">
+        <v>11</v>
+      </c>
+      <c r="H444" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G444" s="177" t="s">
-        <v>11</v>
-      </c>
-      <c r="H444" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="445" spans="1:8" ht="40.5">
@@ -16437,21 +16437,21 @@
         <v>658</v>
       </c>
       <c r="F445" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G445" s="177" t="s">
+        <v>35</v>
+      </c>
+      <c r="H445" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G445" s="177" t="s">
-        <v>35</v>
-      </c>
-      <c r="H445" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="27" customHeight="1">
       <c r="A446" s="179" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B446" s="180" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C446" s="183" t="s">
         <v>27</v>
@@ -16460,24 +16460,24 @@
         <v>24</v>
       </c>
       <c r="E446" s="178" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F446" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G446" s="184" t="s">
         <v>113</v>
       </c>
       <c r="H446" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="53.25">
       <c r="A447" s="179" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B447" s="180" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C447" s="185" t="s">
         <v>27</v>
@@ -16489,13 +16489,13 @@
         <v>659</v>
       </c>
       <c r="F447" s="73" t="s">
+        <v>614</v>
+      </c>
+      <c r="G447" s="186" t="s">
+        <v>35</v>
+      </c>
+      <c r="H447" s="73" t="s">
         <v>615</v>
-      </c>
-      <c r="G447" s="186" t="s">
-        <v>35</v>
-      </c>
-      <c r="H447" s="73" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="45.75" customHeight="1">
@@ -16794,7 +16794,7 @@
         <v>675</v>
       </c>
       <c r="C460" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D460" s="37" t="s">
         <v>11</v>
@@ -18930,7 +18930,7 @@
         <v>727</v>
       </c>
       <c r="C549" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D549" s="188" t="s">
         <v>24</v>
@@ -18954,7 +18954,7 @@
         <v>727</v>
       </c>
       <c r="C550" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D550" s="188" t="s">
         <v>20</v>
@@ -18978,7 +18978,7 @@
         <v>727</v>
       </c>
       <c r="C551" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D551" s="188" t="s">
         <v>11</v>
@@ -19002,7 +19002,7 @@
         <v>727</v>
       </c>
       <c r="C552" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D552" s="188" t="s">
         <v>35</v>
@@ -19512,7 +19512,7 @@
         <v>24</v>
       </c>
       <c r="E573" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F573" s="37" t="s">
         <v>692</v>
@@ -19560,7 +19560,7 @@
         <v>11</v>
       </c>
       <c r="E575" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F575" s="37" t="s">
         <v>692</v>
@@ -20826,7 +20826,7 @@
         <v>795</v>
       </c>
       <c r="C628" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D628" s="189" t="s">
         <v>24</v>
@@ -20850,7 +20850,7 @@
         <v>795</v>
       </c>
       <c r="C629" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D629" s="189" t="s">
         <v>20</v>
@@ -20874,7 +20874,7 @@
         <v>795</v>
       </c>
       <c r="C630" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D630" s="189" t="s">
         <v>11</v>
@@ -20898,7 +20898,7 @@
         <v>795</v>
       </c>
       <c r="C631" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D631" s="189" t="s">
         <v>35</v>
@@ -22218,7 +22218,7 @@
         <v>795</v>
       </c>
       <c r="C686" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D686" s="188" t="s">
         <v>24</v>
@@ -22242,7 +22242,7 @@
         <v>795</v>
       </c>
       <c r="C687" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D687" s="188" t="s">
         <v>20</v>
@@ -22266,7 +22266,7 @@
         <v>795</v>
       </c>
       <c r="C688" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D688" s="188" t="s">
         <v>11</v>
@@ -22290,7 +22290,7 @@
         <v>795</v>
       </c>
       <c r="C689" s="19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D689" s="188" t="s">
         <v>35</v>
@@ -22842,7 +22842,7 @@
         <v>825</v>
       </c>
       <c r="C712" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D712" s="189" t="s">
         <v>24</v>
@@ -22866,7 +22866,7 @@
         <v>825</v>
       </c>
       <c r="C713" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D713" s="189" t="s">
         <v>20</v>
@@ -22890,7 +22890,7 @@
         <v>825</v>
       </c>
       <c r="C714" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D714" s="189" t="s">
         <v>11</v>
@@ -22914,7 +22914,7 @@
         <v>825</v>
       </c>
       <c r="C715" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D715" s="189" t="s">
         <v>35</v>
@@ -25386,7 +25386,7 @@
         <v>983</v>
       </c>
       <c r="C818" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D818" s="188" t="s">
         <v>24</v>
@@ -25410,7 +25410,7 @@
         <v>983</v>
       </c>
       <c r="C819" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D819" s="188" t="s">
         <v>20</v>
@@ -25434,7 +25434,7 @@
         <v>983</v>
       </c>
       <c r="C820" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D820" s="188" t="s">
         <v>11</v>
@@ -25458,7 +25458,7 @@
         <v>983</v>
       </c>
       <c r="C821" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D821" s="188" t="s">
         <v>35</v>
@@ -26772,7 +26772,7 @@
     </row>
     <row r="876" spans="1:8" ht="31.5" customHeight="1">
       <c r="A876" s="194" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B876" s="23" t="s">
         <v>1062</v>
@@ -26796,7 +26796,7 @@
     </row>
     <row r="877" spans="1:8" ht="30.75" customHeight="1">
       <c r="A877" s="194" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B877" s="23" t="s">
         <v>1062</v>
@@ -26820,7 +26820,7 @@
     </row>
     <row r="878" spans="1:8" ht="30.75" customHeight="1">
       <c r="A878" s="194" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B878" s="23" t="s">
         <v>1062</v>
@@ -26844,7 +26844,7 @@
     </row>
     <row r="879" spans="1:8" ht="30.75" customHeight="1">
       <c r="A879" s="194" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B879" s="213" t="s">
         <v>1062</v>
